--- a/Periods.xlsx
+++ b/Periods.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$270</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,12 +493,12 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>Ocultar consola de Python en Actracker</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -520,12 +520,12 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Limpiar pieza + Limpiar cocina</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -547,12 +547,12 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>Limpiar platos</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -574,12 +574,12 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>Colocar sonido de alarma en Actracker</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>Colocar frases motivadoras en Actracker</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>Colocar frases motivadoras en Actracker</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -655,12 +655,12 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>Colocar frases motivadoras en Actracker</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -682,12 +682,12 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>Editar estilos de botones y labels en Actracker</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -709,12 +709,12 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>Colocar frases motivadoras en Actracker</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>Limpiar cuerpo</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -763,12 +763,12 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>Enjuagar boca + Cambiarme</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>Lavar ropa</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -817,12 +817,12 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>Arreglar error de no apagado de Actracker</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -844,12 +844,12 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>Arreglar error de no apagado en Actracker</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>Afeitarme</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -898,12 +898,12 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>Arreglar error de no apagado en Actracker</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -952,12 +952,12 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>Planear semana</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>Actualizar precios de Anea</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1006,12 @@
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>Facturar AFIP</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1033,12 +1033,12 @@
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>Actualizar precios de Turtle</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1060,12 +1060,12 @@
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>Cocinar</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>Enviar mail por recibo + Comprar avena</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1114,12 +1114,12 @@
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>Comer</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,12 @@
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>Comer</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1168,12 +1168,12 @@
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>Comer</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1195,12 +1195,12 @@
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>Relajar</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>Cambiar nombre de Tempusio por Actrackio</t>
+          <t>Cambiar nombre de Tempusio por Actracker</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1298,17 +1298,17 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>Clonar repositorio en Actrackio</t>
+          <t>Clonar repositorio en Actracker</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>Clonar repositorio en Actrackio</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>Soy un crack</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>Commitear Actrackio</t>
+          <t>Commitear Actracker</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -1339,8 +1339,6387 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-03 22:40</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-03 22:50</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>Cagar</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-03 22:50</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-03 23:00</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>Preparar mochila</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-03 23:00</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-03 23:10</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>Acostarme + Leer</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-03 23:10</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-03 23:20</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>Leer 1% de It</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-03 23:20</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-03 23:30</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>Descargar música en Spotify</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-03 23:30</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-03 23:40</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>Descargar música en Spotify</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 01:50</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 02:00</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>Buscar rutinas de 10 minutos</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>Decidir qué hacer como ejercicio</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>Me decidí por otro plan</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 02:00</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 02:10</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>Planear páginas de libros</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 02:10</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 02:20</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>Planear páginas de libros</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 02:20</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 02:30</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>Ordenar y dormir</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 02:30</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 02:40</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>Acostarme</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 10:40</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 10:50</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>Revisar path de Actracker</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 10:50</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 11:00</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>Verificar Path</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 11:00</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 11:10</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>To-do de Atracker</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 11:10</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 11:20</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>To-do de Actracker</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>Función para modificar el propio archivo de código</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>Es revolucionario</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 11:20</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 11:30</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>Maquetar función de propia modificación de archivo de código</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 11:30</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 11:40</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>Maquetar función de crear tareas repetitivas</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 11:40</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 11:50</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>Maquetar función de eliminar tareas repetitivas</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 11:50</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 12:00</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>To-do de Actracker</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 12:00</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 12:10</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>Lavar dientes y hacer café</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 12:10</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 12:20</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 1</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 12:20</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 12:30</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 1</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 12:30</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 12:40</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 1</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 12:40</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 12:50</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 2</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 12:50</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 13:00</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 2</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 13:00</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 13:10</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>Cagar</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 13:10</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 13:20</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>Cagar</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 13:20</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 13:30</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>Cagar</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>Escribir la idea de Epsilon y Omega y estados Beta y Gamma</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>La idea estaba en su punto justo</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 13:30</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 13:40</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>Escribir la idea de Epsilon y Omega y estados Beta y Gamma</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 13:40</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 13:50</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>Escribir la idea de Epsilon y Omega y estados Beta y Gamma</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 13:50</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 14:00</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>Escribir la idea de Epsilon y Omega y estados Beta y Gamma</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 14:00</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 14:10</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>Presentarle la idea a ChatGPT</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 14:10</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 14:20</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 3</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 6</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>No tengo los apuntes de la Teórica 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 14:20</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 14:30</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 6</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 14:30</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 14:40</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 7</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 6</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>Faltaba terminar el boceto de la Teórica 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 14:40</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 14:50</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 7</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 14:50</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 15:00</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 7</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 15:00</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 15:10</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 8</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 15:10</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 15:20</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 8</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 15:20</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 15:30</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>Relajar</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 15:30</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 15:40</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>Relajar</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 15:40</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 15:50</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>Relajar</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 15:50</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 16:00</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 4</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Checklister</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>Vino la idea</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 16:00</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 16:10</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 4</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 16:10</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 16:20</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 4</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 16:20</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 16:30</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 4</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 16:30</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 16:40</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 4</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 16:40</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 16:50</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>Relajar</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E81" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 16:50</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 17:00</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>Relajar</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 17:00</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 17:10</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>Programar Checklister</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 17:10</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 17:20</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>Programar Checklister</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 17:20</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 17:30</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>Programar Checklister</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E85" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 17:30</t>
+        </is>
+      </c>
+      <c r="B86" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 17:40</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>Programar Checklister</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 17:40</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 17:50</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="inlineStr">
+        <is>
+          <t>To-do de Checklister</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E87" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 17:50</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 18:00</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>To-do de Checklister</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 18:00</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 18:10</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 3</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="inlineStr">
+        <is>
+          <t>Contestar mensajes</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="inlineStr">
+        <is>
+          <t>Soy un pajero</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 18:10</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 18:20</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 3</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="inlineStr">
+        <is>
+          <t>Editar Actracker + Cocinar</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>Se me ocurrió</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 18:20</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 18:30</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 3</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="inlineStr">
+        <is>
+          <t>Editar Actracker + Cocinar</t>
+        </is>
+      </c>
+      <c r="E91" s="3" t="inlineStr">
+        <is>
+          <t>Tenía que terminarlo</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 18:30</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 18:40</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>Comer</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 18:40</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 18:50</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>Comer</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 18:50</t>
+        </is>
+      </c>
+      <c r="B94" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 19:00</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 3</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 19:00</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 19:10</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 3</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 19:10</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 19:20</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 3</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 19:20</t>
+        </is>
+      </c>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 19:30</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="inlineStr">
+        <is>
+          <t>Relajar</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E97" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 19:30</t>
+        </is>
+      </c>
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 19:40</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>Fotos</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 19:40</t>
+        </is>
+      </c>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 19:50</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr">
+        <is>
+          <t>Afeitarme</t>
+        </is>
+      </c>
+      <c r="D99" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E99" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 19:50</t>
+        </is>
+      </c>
+      <c r="B100" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 20:00</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="inlineStr">
+        <is>
+          <t>Afeitarme</t>
+        </is>
+      </c>
+      <c r="D100" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E100" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 20:00</t>
+        </is>
+      </c>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 20:10</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t>Baño</t>
+        </is>
+      </c>
+      <c r="D101" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E101" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 20:10</t>
+        </is>
+      </c>
+      <c r="B102" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 20:20</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>Baño</t>
+        </is>
+      </c>
+      <c r="D102" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 20:20</t>
+        </is>
+      </c>
+      <c r="B103" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 20:30</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="inlineStr">
+        <is>
+          <t>Baño</t>
+        </is>
+      </c>
+      <c r="D103" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E103" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 20:30</t>
+        </is>
+      </c>
+      <c r="B104" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 20:40</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>Arreglarme</t>
+        </is>
+      </c>
+      <c r="D104" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 20:40</t>
+        </is>
+      </c>
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 20:50</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>Arreglarme</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E105" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 20:50</t>
+        </is>
+      </c>
+      <c r="B106" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 21:00</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 5</t>
+        </is>
+      </c>
+      <c r="D106" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 21:00</t>
+        </is>
+      </c>
+      <c r="B107" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 21:10</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 5</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 21:10</t>
+        </is>
+      </c>
+      <c r="B108" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-05 21:20</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar Teórica 5</t>
+        </is>
+      </c>
+      <c r="D108" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 20:50</t>
+        </is>
+      </c>
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 21:00</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
+        <is>
+          <t>AFIP</t>
+        </is>
+      </c>
+      <c r="D109" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E109" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 21:00</t>
+        </is>
+      </c>
+      <c r="B110" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 21:10</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>Relajar</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 21:10</t>
+        </is>
+      </c>
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 21:20</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="inlineStr">
+        <is>
+          <t>Limpiar</t>
+        </is>
+      </c>
+      <c r="D111" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E111" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 21:20</t>
+        </is>
+      </c>
+      <c r="B112" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 21:30</t>
+        </is>
+      </c>
+      <c r="C112" s="3" t="inlineStr">
+        <is>
+          <t>Limpiar</t>
+        </is>
+      </c>
+      <c r="D112" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 21:30</t>
+        </is>
+      </c>
+      <c r="B113" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 21:40</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>Codear Checklister</t>
+        </is>
+      </c>
+      <c r="D113" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E113" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 21:40</t>
+        </is>
+      </c>
+      <c r="B114" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 21:50</t>
+        </is>
+      </c>
+      <c r="C114" s="3" t="inlineStr">
+        <is>
+          <t>Codear Checklister</t>
+        </is>
+      </c>
+      <c r="D114" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E114" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 21:50</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 22:00</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>Lavar dientes + Desodorante + Limpieza</t>
+        </is>
+      </c>
+      <c r="D115" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E115" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 22:00</t>
+        </is>
+      </c>
+      <c r="B116" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 22:10</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar con ChatGPT</t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 22:10</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 22:20</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar con ChatGPT</t>
+        </is>
+      </c>
+      <c r="D117" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E117" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 22:20</t>
+        </is>
+      </c>
+      <c r="B118" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 22:30</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar con ChatGPT</t>
+        </is>
+      </c>
+      <c r="D118" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 22:30</t>
+        </is>
+      </c>
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 22:40</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar con ChatGPT</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="inlineStr">
+        <is>
+          <t>Relajar</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>Excedí el límite de mensajes por hora de ChatGPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 22:40</t>
+        </is>
+      </c>
+      <c r="B120" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 22:50</t>
+        </is>
+      </c>
+      <c r="C120" s="3" t="inlineStr">
+        <is>
+          <t>Instagramear</t>
+        </is>
+      </c>
+      <c r="D120" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 22:50</t>
+        </is>
+      </c>
+      <c r="B121" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 23:00</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar con ChatGPT</t>
+        </is>
+      </c>
+      <c r="D121" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E121" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 23:00</t>
+        </is>
+      </c>
+      <c r="B122" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 23:10</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar con ChatGPT</t>
+        </is>
+      </c>
+      <c r="D122" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 23:10</t>
+        </is>
+      </c>
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 23:20</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>Relajar</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="inlineStr">
+        <is>
+          <t>Scrollear Twitter</t>
+        </is>
+      </c>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>Estoy cansado</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 23:20</t>
+        </is>
+      </c>
+      <c r="B124" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 23:30</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>Scrollear Twitter</t>
+        </is>
+      </c>
+      <c r="D124" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 23:30</t>
+        </is>
+      </c>
+      <c r="B125" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 23:40</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="inlineStr">
+        <is>
+          <t>Scrollear Twitter</t>
+        </is>
+      </c>
+      <c r="D125" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E125" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 23:40</t>
+        </is>
+      </c>
+      <c r="B126" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 23:50</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="inlineStr">
+        <is>
+          <t>Scrollear Twitter</t>
+        </is>
+      </c>
+      <c r="D126" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-06 23:50</t>
+        </is>
+      </c>
+      <c r="B127" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 00:00</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="inlineStr">
+        <is>
+          <t>Scrollear Twitter</t>
+        </is>
+      </c>
+      <c r="D127" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E127" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 00:00</t>
+        </is>
+      </c>
+      <c r="B128" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 00:10</t>
+        </is>
+      </c>
+      <c r="C128" s="3" t="inlineStr">
+        <is>
+          <t>Ver YouTube</t>
+        </is>
+      </c>
+      <c r="D128" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E128" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 00:10</t>
+        </is>
+      </c>
+      <c r="B129" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 00:20</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="inlineStr">
+        <is>
+          <t>Leer la triple D</t>
+        </is>
+      </c>
+      <c r="D129" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E129" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 00:20</t>
+        </is>
+      </c>
+      <c r="B130" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 00:30</t>
+        </is>
+      </c>
+      <c r="C130" s="3" t="inlineStr">
+        <is>
+          <t>Codear Checklister</t>
+        </is>
+      </c>
+      <c r="D130" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 00:30</t>
+        </is>
+      </c>
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 00:40</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
+        <is>
+          <t>Codear Checklister</t>
+        </is>
+      </c>
+      <c r="D131" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E131" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 00:40</t>
+        </is>
+      </c>
+      <c r="B132" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 00:50</t>
+        </is>
+      </c>
+      <c r="C132" s="3" t="inlineStr">
+        <is>
+          <t>Codear Checklister</t>
+        </is>
+      </c>
+      <c r="D132" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E132" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 00:50</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 01:00</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
+        <is>
+          <t>Codear Checklister</t>
+        </is>
+      </c>
+      <c r="D133" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E133" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 01:00</t>
+        </is>
+      </c>
+      <c r="B134" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 01:10</t>
+        </is>
+      </c>
+      <c r="C134" s="3" t="inlineStr">
+        <is>
+          <t>Codear Checklister</t>
+        </is>
+      </c>
+      <c r="D134" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 01:10</t>
+        </is>
+      </c>
+      <c r="B135" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 01:20</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="inlineStr">
+        <is>
+          <t>Codear Checklister</t>
+        </is>
+      </c>
+      <c r="D135" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E135" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 01:20</t>
+        </is>
+      </c>
+      <c r="B136" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 01:30</t>
+        </is>
+      </c>
+      <c r="C136" s="3" t="inlineStr">
+        <is>
+          <t>Cocinar</t>
+        </is>
+      </c>
+      <c r="D136" s="3" t="inlineStr">
+        <is>
+          <t>Codear Actracker</t>
+        </is>
+      </c>
+      <c r="E136" s="3" t="inlineStr">
+        <is>
+          <t>No me quise parar</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 01:30</t>
+        </is>
+      </c>
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 01:40</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>Cocinar</t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 01:40</t>
+        </is>
+      </c>
+      <c r="B138" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 01:50</t>
+        </is>
+      </c>
+      <c r="C138" s="3" t="inlineStr">
+        <is>
+          <t>Ver Ajedrez</t>
+        </is>
+      </c>
+      <c r="D138" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E138" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 01:50</t>
+        </is>
+      </c>
+      <c r="B139" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 02:00</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="inlineStr">
+        <is>
+          <t>Ver Ajedrez</t>
+        </is>
+      </c>
+      <c r="D139" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E139" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 02:00</t>
+        </is>
+      </c>
+      <c r="B140" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 02:10</t>
+        </is>
+      </c>
+      <c r="C140" s="3" t="inlineStr">
+        <is>
+          <t>Ver Ajedrez</t>
+        </is>
+      </c>
+      <c r="D140" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E140" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 02:10</t>
+        </is>
+      </c>
+      <c r="B141" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 02:20</t>
+        </is>
+      </c>
+      <c r="C141" s="3" t="inlineStr">
+        <is>
+          <t>Ver YouTube</t>
+        </is>
+      </c>
+      <c r="D141" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E141" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 02:20</t>
+        </is>
+      </c>
+      <c r="B142" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 02:30</t>
+        </is>
+      </c>
+      <c r="C142" s="3" t="inlineStr">
+        <is>
+          <t>Ver YouTube</t>
+        </is>
+      </c>
+      <c r="D142" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E142" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 02:30</t>
+        </is>
+      </c>
+      <c r="B143" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 02:40</t>
+        </is>
+      </c>
+      <c r="C143" s="3" t="inlineStr">
+        <is>
+          <t>Buscar trabajo</t>
+        </is>
+      </c>
+      <c r="D143" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E143" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 02:40</t>
+        </is>
+      </c>
+      <c r="B144" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 02:50</t>
+        </is>
+      </c>
+      <c r="C144" s="3" t="inlineStr">
+        <is>
+          <t>Buscar trabajo</t>
+        </is>
+      </c>
+      <c r="D144" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E144" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 02:50</t>
+        </is>
+      </c>
+      <c r="B145" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 03:00</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="inlineStr">
+        <is>
+          <t>Buscar trabajo</t>
+        </is>
+      </c>
+      <c r="D145" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E145" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 12:40</t>
+        </is>
+      </c>
+      <c r="B146" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 12:50</t>
+        </is>
+      </c>
+      <c r="C146" s="3" t="inlineStr">
+        <is>
+          <t>Rutina matutina</t>
+        </is>
+      </c>
+      <c r="D146" s="3" t="inlineStr">
+        <is>
+          <t>Surfear</t>
+        </is>
+      </c>
+      <c r="E146" s="3" t="inlineStr">
+        <is>
+          <t>Soy un jeropa</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 12:50</t>
+        </is>
+      </c>
+      <c r="B147" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 13:00</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="inlineStr">
+        <is>
+          <t>Completar el checklist mañanero</t>
+        </is>
+      </c>
+      <c r="D147" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E147" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 13:00</t>
+        </is>
+      </c>
+      <c r="B148" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 13:10</t>
+        </is>
+      </c>
+      <c r="C148" s="3" t="inlineStr">
+        <is>
+          <t>Lavar + Enjuagar dientes</t>
+        </is>
+      </c>
+      <c r="D148" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E148" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 13:10</t>
+        </is>
+      </c>
+      <c r="B149" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 13:20</t>
+        </is>
+      </c>
+      <c r="C149" s="3" t="inlineStr">
+        <is>
+          <t>Codear Checklister</t>
+        </is>
+      </c>
+      <c r="D149" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E149" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 13:20</t>
+        </is>
+      </c>
+      <c r="B150" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 13:30</t>
+        </is>
+      </c>
+      <c r="C150" s="3" t="inlineStr">
+        <is>
+          <t>Codear Checklister</t>
+        </is>
+      </c>
+      <c r="D150" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 15:40</t>
+        </is>
+      </c>
+      <c r="B151" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 15:50</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="inlineStr">
+        <is>
+          <t>Armar silla</t>
+        </is>
+      </c>
+      <c r="D151" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E151" s="3" t="n"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 15:50</t>
+        </is>
+      </c>
+      <c r="B152" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 16:00</t>
+        </is>
+      </c>
+      <c r="C152" s="3" t="inlineStr">
+        <is>
+          <t>Armar silla</t>
+        </is>
+      </c>
+      <c r="D152" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E152" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 16:00</t>
+        </is>
+      </c>
+      <c r="B153" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 16:10</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>Planear jornada</t>
+        </is>
+      </c>
+      <c r="D153" s="3" t="inlineStr">
+        <is>
+          <t>Codear Checklister</t>
+        </is>
+      </c>
+      <c r="E153" s="3" t="inlineStr">
+        <is>
+          <t>Son las últimas cositas</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 16:10</t>
+        </is>
+      </c>
+      <c r="B154" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 16:20</t>
+        </is>
+      </c>
+      <c r="C154" s="3" t="inlineStr">
+        <is>
+          <t>Codear Checklister</t>
+        </is>
+      </c>
+      <c r="D154" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E154" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 16:20</t>
+        </is>
+      </c>
+      <c r="B155" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 16:30</t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="inlineStr">
+        <is>
+          <t>Codear Checklister</t>
+        </is>
+      </c>
+      <c r="D155" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E155" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 16:30</t>
+        </is>
+      </c>
+      <c r="B156" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 16:40</t>
+        </is>
+      </c>
+      <c r="C156" s="3" t="inlineStr">
+        <is>
+          <t>Codear Checklister</t>
+        </is>
+      </c>
+      <c r="D156" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E156" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 16:40</t>
+        </is>
+      </c>
+      <c r="B157" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 16:50</t>
+        </is>
+      </c>
+      <c r="C157" s="3" t="inlineStr">
+        <is>
+          <t>Codear Checklister</t>
+        </is>
+      </c>
+      <c r="D157" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E157" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 16:50</t>
+        </is>
+      </c>
+      <c r="B158" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 17:00</t>
+        </is>
+      </c>
+      <c r="C158" s="3" t="inlineStr">
+        <is>
+          <t>Codear Checklister</t>
+        </is>
+      </c>
+      <c r="D158" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 17:00</t>
+        </is>
+      </c>
+      <c r="B159" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 17:10</t>
+        </is>
+      </c>
+      <c r="C159" s="3" t="inlineStr">
+        <is>
+          <t>Cagar</t>
+        </is>
+      </c>
+      <c r="D159" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E159" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 17:10</t>
+        </is>
+      </c>
+      <c r="B160" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 17:20</t>
+        </is>
+      </c>
+      <c r="C160" s="3" t="inlineStr">
+        <is>
+          <t>Cagar</t>
+        </is>
+      </c>
+      <c r="D160" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E160" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 17:20</t>
+        </is>
+      </c>
+      <c r="B161" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 17:30</t>
+        </is>
+      </c>
+      <c r="C161" s="3" t="inlineStr">
+        <is>
+          <t>Cagar</t>
+        </is>
+      </c>
+      <c r="D161" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E161" s="3" t="n"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 17:30</t>
+        </is>
+      </c>
+      <c r="B162" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 17:40</t>
+        </is>
+      </c>
+      <c r="C162" s="3" t="inlineStr">
+        <is>
+          <t>Cagar</t>
+        </is>
+      </c>
+      <c r="D162" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E162" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 17:40</t>
+        </is>
+      </c>
+      <c r="B163" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 17:50</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar con ChatGPT</t>
+        </is>
+      </c>
+      <c r="D163" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E163" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 17:50</t>
+        </is>
+      </c>
+      <c r="B164" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 18:00</t>
+        </is>
+      </c>
+      <c r="C164" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar con ChatGPT</t>
+        </is>
+      </c>
+      <c r="D164" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E164" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 18:00</t>
+        </is>
+      </c>
+      <c r="B165" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 18:10</t>
+        </is>
+      </c>
+      <c r="C165" s="3" t="inlineStr">
+        <is>
+          <t>Bocetar con ChatGPT</t>
+        </is>
+      </c>
+      <c r="D165" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E165" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 18:10</t>
+        </is>
+      </c>
+      <c r="B166" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 18:20</t>
+        </is>
+      </c>
+      <c r="C166" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de Teórica 1</t>
+        </is>
+      </c>
+      <c r="D166" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E166" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 18:20</t>
+        </is>
+      </c>
+      <c r="B167" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 18:30</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de Teórica 1</t>
+        </is>
+      </c>
+      <c r="D167" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E167" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 18:30</t>
+        </is>
+      </c>
+      <c r="B168" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 18:40</t>
+        </is>
+      </c>
+      <c r="C168" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de Teórica 1</t>
+        </is>
+      </c>
+      <c r="D168" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E168" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 18:40</t>
+        </is>
+      </c>
+      <c r="B169" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 18:50</t>
+        </is>
+      </c>
+      <c r="C169" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de Teórica 1</t>
+        </is>
+      </c>
+      <c r="D169" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E169" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 18:50</t>
+        </is>
+      </c>
+      <c r="B170" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 19:00</t>
+        </is>
+      </c>
+      <c r="C170" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de Teórica 1</t>
+        </is>
+      </c>
+      <c r="D170" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E170" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 19:00</t>
+        </is>
+      </c>
+      <c r="B171" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 19:10</t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de Teórica 1</t>
+        </is>
+      </c>
+      <c r="D171" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E171" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 19:10</t>
+        </is>
+      </c>
+      <c r="B172" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 19:20</t>
+        </is>
+      </c>
+      <c r="C172" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de Teórica 1</t>
+        </is>
+      </c>
+      <c r="D172" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E172" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 19:20</t>
+        </is>
+      </c>
+      <c r="B173" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 19:30</t>
+        </is>
+      </c>
+      <c r="C173" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de Teórica 1</t>
+        </is>
+      </c>
+      <c r="D173" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E173" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 19:30</t>
+        </is>
+      </c>
+      <c r="B174" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 19:40</t>
+        </is>
+      </c>
+      <c r="C174" s="3" t="inlineStr">
+        <is>
+          <t>Relajar</t>
+        </is>
+      </c>
+      <c r="D174" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E174" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 19:40</t>
+        </is>
+      </c>
+      <c r="B175" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 19:50</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="inlineStr">
+        <is>
+          <t>Relajar</t>
+        </is>
+      </c>
+      <c r="D175" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E175" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 19:50</t>
+        </is>
+      </c>
+      <c r="B176" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 20:00</t>
+        </is>
+      </c>
+      <c r="C176" s="3" t="inlineStr">
+        <is>
+          <t>Relajar</t>
+        </is>
+      </c>
+      <c r="D176" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E176" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 20:00</t>
+        </is>
+      </c>
+      <c r="B177" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 20:10</t>
+        </is>
+      </c>
+      <c r="C177" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de Teórica 1</t>
+        </is>
+      </c>
+      <c r="D177" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E177" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 20:10</t>
+        </is>
+      </c>
+      <c r="B178" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 20:20</t>
+        </is>
+      </c>
+      <c r="C178" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de Teórica 1</t>
+        </is>
+      </c>
+      <c r="D178" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E178" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 20:20</t>
+        </is>
+      </c>
+      <c r="B179" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 20:30</t>
+        </is>
+      </c>
+      <c r="C179" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de Teórica 1</t>
+        </is>
+      </c>
+      <c r="D179" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E179" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 20:30</t>
+        </is>
+      </c>
+      <c r="B180" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 20:40</t>
+        </is>
+      </c>
+      <c r="C180" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 2</t>
+        </is>
+      </c>
+      <c r="D180" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E180" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 20:40</t>
+        </is>
+      </c>
+      <c r="B181" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 20:50</t>
+        </is>
+      </c>
+      <c r="C181" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 2</t>
+        </is>
+      </c>
+      <c r="D181" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E181" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 20:50</t>
+        </is>
+      </c>
+      <c r="B182" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 21:00</t>
+        </is>
+      </c>
+      <c r="C182" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 2</t>
+        </is>
+      </c>
+      <c r="D182" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E182" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 21:00</t>
+        </is>
+      </c>
+      <c r="B183" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 21:10</t>
+        </is>
+      </c>
+      <c r="C183" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 2</t>
+        </is>
+      </c>
+      <c r="D183" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E183" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 21:10</t>
+        </is>
+      </c>
+      <c r="B184" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 21:20</t>
+        </is>
+      </c>
+      <c r="C184" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 2</t>
+        </is>
+      </c>
+      <c r="D184" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E184" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 21:20</t>
+        </is>
+      </c>
+      <c r="B185" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 21:30</t>
+        </is>
+      </c>
+      <c r="C185" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Relajar</t>
+        </is>
+      </c>
+      <c r="D185" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E185" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 21:30</t>
+        </is>
+      </c>
+      <c r="B186" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 21:40</t>
+        </is>
+      </c>
+      <c r="C186" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 2</t>
+        </is>
+      </c>
+      <c r="D186" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E186" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 21:40</t>
+        </is>
+      </c>
+      <c r="B187" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 21:50</t>
+        </is>
+      </c>
+      <c r="C187" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 2</t>
+        </is>
+      </c>
+      <c r="D187" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E187" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 21:50</t>
+        </is>
+      </c>
+      <c r="B188" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 22:00</t>
+        </is>
+      </c>
+      <c r="C188" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 2</t>
+        </is>
+      </c>
+      <c r="D188" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E188" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 22:00</t>
+        </is>
+      </c>
+      <c r="B189" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 22:10</t>
+        </is>
+      </c>
+      <c r="C189" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 2</t>
+        </is>
+      </c>
+      <c r="D189" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E189" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 22:10</t>
+        </is>
+      </c>
+      <c r="B190" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 22:20</t>
+        </is>
+      </c>
+      <c r="C190" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 2</t>
+        </is>
+      </c>
+      <c r="D190" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E190" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 22:20</t>
+        </is>
+      </c>
+      <c r="B191" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 22:30</t>
+        </is>
+      </c>
+      <c r="C191" s="3" t="inlineStr">
+        <is>
+          <t>Preparar café</t>
+        </is>
+      </c>
+      <c r="D191" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E191" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 22:30</t>
+        </is>
+      </c>
+      <c r="B192" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 22:40</t>
+        </is>
+      </c>
+      <c r="C192" s="3" t="inlineStr">
+        <is>
+          <t>Relajar</t>
+        </is>
+      </c>
+      <c r="D192" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E192" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 22:40</t>
+        </is>
+      </c>
+      <c r="B193" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 22:50</t>
+        </is>
+      </c>
+      <c r="C193" s="3" t="inlineStr">
+        <is>
+          <t>Relajar</t>
+        </is>
+      </c>
+      <c r="D193" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E193" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 22:50</t>
+        </is>
+      </c>
+      <c r="B194" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 23:00</t>
+        </is>
+      </c>
+      <c r="C194" s="3" t="inlineStr">
+        <is>
+          <t>Ver archivos de Notion</t>
+        </is>
+      </c>
+      <c r="D194" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E194" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 23:00</t>
+        </is>
+      </c>
+      <c r="B195" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 23:10</t>
+        </is>
+      </c>
+      <c r="C195" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de Teórica 3</t>
+        </is>
+      </c>
+      <c r="D195" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E195" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 23:10</t>
+        </is>
+      </c>
+      <c r="B196" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 23:20</t>
+        </is>
+      </c>
+      <c r="C196" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de Teorica 3</t>
+        </is>
+      </c>
+      <c r="D196" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E196" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 23:20</t>
+        </is>
+      </c>
+      <c r="B197" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 23:30</t>
+        </is>
+      </c>
+      <c r="C197" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de Teórica 3</t>
+        </is>
+      </c>
+      <c r="D197" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E197" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 23:30</t>
+        </is>
+      </c>
+      <c r="B198" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 23:40</t>
+        </is>
+      </c>
+      <c r="C198" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 3</t>
+        </is>
+      </c>
+      <c r="D198" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E198" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 23:40</t>
+        </is>
+      </c>
+      <c r="B199" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 23:50</t>
+        </is>
+      </c>
+      <c r="C199" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 3</t>
+        </is>
+      </c>
+      <c r="D199" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E199" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-07 23:50</t>
+        </is>
+      </c>
+      <c r="B200" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 00:00</t>
+        </is>
+      </c>
+      <c r="C200" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 3</t>
+        </is>
+      </c>
+      <c r="D200" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E200" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 00:00</t>
+        </is>
+      </c>
+      <c r="B201" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 00:10</t>
+        </is>
+      </c>
+      <c r="C201" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 3</t>
+        </is>
+      </c>
+      <c r="D201" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E201" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 00:10</t>
+        </is>
+      </c>
+      <c r="B202" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 00:20</t>
+        </is>
+      </c>
+      <c r="C202" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 3</t>
+        </is>
+      </c>
+      <c r="D202" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E202" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 00:20</t>
+        </is>
+      </c>
+      <c r="B203" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 00:30</t>
+        </is>
+      </c>
+      <c r="C203" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 3</t>
+        </is>
+      </c>
+      <c r="D203" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E203" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 00:30</t>
+        </is>
+      </c>
+      <c r="B204" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 00:40</t>
+        </is>
+      </c>
+      <c r="C204" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 3</t>
+        </is>
+      </c>
+      <c r="D204" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E204" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 00:40</t>
+        </is>
+      </c>
+      <c r="B205" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 00:50</t>
+        </is>
+      </c>
+      <c r="C205" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 3</t>
+        </is>
+      </c>
+      <c r="D205" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E205" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 00:50</t>
+        </is>
+      </c>
+      <c r="B206" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 01:00</t>
+        </is>
+      </c>
+      <c r="C206" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 4</t>
+        </is>
+      </c>
+      <c r="D206" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E206" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 01:00</t>
+        </is>
+      </c>
+      <c r="B207" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 01:10</t>
+        </is>
+      </c>
+      <c r="C207" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 4</t>
+        </is>
+      </c>
+      <c r="D207" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E207" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 01:10</t>
+        </is>
+      </c>
+      <c r="B208" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 01:20</t>
+        </is>
+      </c>
+      <c r="C208" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 4</t>
+        </is>
+      </c>
+      <c r="D208" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E208" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 01:20</t>
+        </is>
+      </c>
+      <c r="B209" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 01:30</t>
+        </is>
+      </c>
+      <c r="C209" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 4</t>
+        </is>
+      </c>
+      <c r="D209" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E209" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 01:30</t>
+        </is>
+      </c>
+      <c r="B210" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 01:40</t>
+        </is>
+      </c>
+      <c r="C210" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 4</t>
+        </is>
+      </c>
+      <c r="D210" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E210" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 01:40</t>
+        </is>
+      </c>
+      <c r="B211" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 01:50</t>
+        </is>
+      </c>
+      <c r="C211" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 4</t>
+        </is>
+      </c>
+      <c r="D211" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E211" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 01:50</t>
+        </is>
+      </c>
+      <c r="B212" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 02:00</t>
+        </is>
+      </c>
+      <c r="C212" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 4</t>
+        </is>
+      </c>
+      <c r="D212" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E212" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 02:00</t>
+        </is>
+      </c>
+      <c r="B213" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 02:10</t>
+        </is>
+      </c>
+      <c r="C213" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 4</t>
+        </is>
+      </c>
+      <c r="D213" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E213" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 02:10</t>
+        </is>
+      </c>
+      <c r="B214" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 02:20</t>
+        </is>
+      </c>
+      <c r="C214" s="3" t="inlineStr">
+        <is>
+          <t>Relajar</t>
+        </is>
+      </c>
+      <c r="D214" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E214" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 02:20</t>
+        </is>
+      </c>
+      <c r="B215" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 02:30</t>
+        </is>
+      </c>
+      <c r="C215" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de Teórica 5</t>
+        </is>
+      </c>
+      <c r="D215" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E215" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 02:30</t>
+        </is>
+      </c>
+      <c r="B216" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 02:40</t>
+        </is>
+      </c>
+      <c r="C216" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de Teórica 5</t>
+        </is>
+      </c>
+      <c r="D216" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E216" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 02:40</t>
+        </is>
+      </c>
+      <c r="B217" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 02:50</t>
+        </is>
+      </c>
+      <c r="C217" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de Teorica 5</t>
+        </is>
+      </c>
+      <c r="D217" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E217" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 02:50</t>
+        </is>
+      </c>
+      <c r="B218" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 03:00</t>
+        </is>
+      </c>
+      <c r="C218" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 5</t>
+        </is>
+      </c>
+      <c r="D218" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E218" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 03:00</t>
+        </is>
+      </c>
+      <c r="B219" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 03:10</t>
+        </is>
+      </c>
+      <c r="C219" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teorica 5</t>
+        </is>
+      </c>
+      <c r="D219" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E219" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 03:10</t>
+        </is>
+      </c>
+      <c r="B220" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 03:20</t>
+        </is>
+      </c>
+      <c r="C220" s="3" t="inlineStr">
+        <is>
+          <t>Relajar</t>
+        </is>
+      </c>
+      <c r="D220" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E220" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 03:20</t>
+        </is>
+      </c>
+      <c r="B221" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 03:30</t>
+        </is>
+      </c>
+      <c r="C221" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 6</t>
+        </is>
+      </c>
+      <c r="D221" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E221" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 03:30</t>
+        </is>
+      </c>
+      <c r="B222" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 03:40</t>
+        </is>
+      </c>
+      <c r="C222" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 6</t>
+        </is>
+      </c>
+      <c r="D222" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E222" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 03:40</t>
+        </is>
+      </c>
+      <c r="B223" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 03:50</t>
+        </is>
+      </c>
+      <c r="C223" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 6</t>
+        </is>
+      </c>
+      <c r="D223" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E223" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 03:50</t>
+        </is>
+      </c>
+      <c r="B224" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 04:00</t>
+        </is>
+      </c>
+      <c r="C224" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 6</t>
+        </is>
+      </c>
+      <c r="D224" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E224" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 04:00</t>
+        </is>
+      </c>
+      <c r="B225" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 04:10</t>
+        </is>
+      </c>
+      <c r="C225" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 6</t>
+        </is>
+      </c>
+      <c r="D225" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E225" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 04:10</t>
+        </is>
+      </c>
+      <c r="B226" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 04:20</t>
+        </is>
+      </c>
+      <c r="C226" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 6</t>
+        </is>
+      </c>
+      <c r="D226" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E226" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 04:20</t>
+        </is>
+      </c>
+      <c r="B227" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 04:30</t>
+        </is>
+      </c>
+      <c r="C227" s="3" t="inlineStr">
+        <is>
+          <t>Relajar</t>
+        </is>
+      </c>
+      <c r="D227" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E227" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 04:30</t>
+        </is>
+      </c>
+      <c r="B228" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 04:40</t>
+        </is>
+      </c>
+      <c r="C228" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 8</t>
+        </is>
+      </c>
+      <c r="D228" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E228" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 04:40</t>
+        </is>
+      </c>
+      <c r="B229" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 04:50</t>
+        </is>
+      </c>
+      <c r="C229" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 8</t>
+        </is>
+      </c>
+      <c r="D229" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E229" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 04:50</t>
+        </is>
+      </c>
+      <c r="B230" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 05:00</t>
+        </is>
+      </c>
+      <c r="C230" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 8</t>
+        </is>
+      </c>
+      <c r="D230" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E230" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 05:00</t>
+        </is>
+      </c>
+      <c r="B231" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 05:10</t>
+        </is>
+      </c>
+      <c r="C231" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de Seminario 1</t>
+        </is>
+      </c>
+      <c r="D231" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E231" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 05:10</t>
+        </is>
+      </c>
+      <c r="B232" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 05:20</t>
+        </is>
+      </c>
+      <c r="C232" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de Seminario 2</t>
+        </is>
+      </c>
+      <c r="D232" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E232" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 05:20</t>
+        </is>
+      </c>
+      <c r="B233" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 05:30</t>
+        </is>
+      </c>
+      <c r="C233" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes del Seminario 3</t>
+        </is>
+      </c>
+      <c r="D233" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E233" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 05:30</t>
+        </is>
+      </c>
+      <c r="B234" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 05:40</t>
+        </is>
+      </c>
+      <c r="C234" s="3" t="inlineStr">
+        <is>
+          <t>Organizar apuntes</t>
+        </is>
+      </c>
+      <c r="D234" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E234" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 05:40</t>
+        </is>
+      </c>
+      <c r="B235" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 05:50</t>
+        </is>
+      </c>
+      <c r="C235" s="3" t="inlineStr">
+        <is>
+          <t>Relajar</t>
+        </is>
+      </c>
+      <c r="D235" s="3" t="inlineStr">
+        <is>
+          <t>Revisar los Prácticos</t>
+        </is>
+      </c>
+      <c r="E235" s="3" t="inlineStr">
+        <is>
+          <t>Quería seguir</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 05:50</t>
+        </is>
+      </c>
+      <c r="B236" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 06:00</t>
+        </is>
+      </c>
+      <c r="C236" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de Teórica 7</t>
+        </is>
+      </c>
+      <c r="D236" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E236" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 06:00</t>
+        </is>
+      </c>
+      <c r="B237" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 06:10</t>
+        </is>
+      </c>
+      <c r="C237" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 7</t>
+        </is>
+      </c>
+      <c r="D237" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E237" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 06:10</t>
+        </is>
+      </c>
+      <c r="B238" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 06:20</t>
+        </is>
+      </c>
+      <c r="C238" s="3" t="inlineStr">
+        <is>
+          <t>Apuntes de la Teórica 7</t>
+        </is>
+      </c>
+      <c r="D238" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E238" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 06:20</t>
+        </is>
+      </c>
+      <c r="B239" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-08 06:30</t>
+        </is>
+      </c>
+      <c r="C239" s="3" t="inlineStr">
+        <is>
+          <t>Preparar la mañana</t>
+        </is>
+      </c>
+      <c r="D239" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E239" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 00:10</t>
+        </is>
+      </c>
+      <c r="B240" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 00:20</t>
+        </is>
+      </c>
+      <c r="C240" s="3" t="inlineStr">
+        <is>
+          <t>Codear Counter</t>
+        </is>
+      </c>
+      <c r="D240" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E240" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 00:20</t>
+        </is>
+      </c>
+      <c r="B241" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 00:30</t>
+        </is>
+      </c>
+      <c r="C241" s="3" t="inlineStr">
+        <is>
+          <t>Rutina nocturna</t>
+        </is>
+      </c>
+      <c r="D241" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E241" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 00:30</t>
+        </is>
+      </c>
+      <c r="B242" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 00:40</t>
+        </is>
+      </c>
+      <c r="C242" s="3" t="inlineStr">
+        <is>
+          <t>Rutina nocturna</t>
+        </is>
+      </c>
+      <c r="D242" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E242" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 00:40</t>
+        </is>
+      </c>
+      <c r="B243" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 00:50</t>
+        </is>
+      </c>
+      <c r="C243" s="3" t="inlineStr">
+        <is>
+          <t>Ver YouTube</t>
+        </is>
+      </c>
+      <c r="D243" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E243" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 00:50</t>
+        </is>
+      </c>
+      <c r="B244" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 01:00</t>
+        </is>
+      </c>
+      <c r="C244" s="3" t="inlineStr">
+        <is>
+          <t>Leer Wikipedia</t>
+        </is>
+      </c>
+      <c r="D244" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E244" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 01:00</t>
+        </is>
+      </c>
+      <c r="B245" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 01:10</t>
+        </is>
+      </c>
+      <c r="C245" s="3" t="inlineStr">
+        <is>
+          <t>Leer Wikipedia</t>
+        </is>
+      </c>
+      <c r="D245" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E245" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 01:10</t>
+        </is>
+      </c>
+      <c r="B246" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 01:20</t>
+        </is>
+      </c>
+      <c r="C246" s="3" t="inlineStr">
+        <is>
+          <t>Leer Wikipedia</t>
+        </is>
+      </c>
+      <c r="D246" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E246" s="3" t="n"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 01:20</t>
+        </is>
+      </c>
+      <c r="B247" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 01:30</t>
+        </is>
+      </c>
+      <c r="C247" s="3" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="D247" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E247" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 01:30</t>
+        </is>
+      </c>
+      <c r="B248" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 01:40</t>
+        </is>
+      </c>
+      <c r="C248" s="3" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="D248" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E248" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 01:40</t>
+        </is>
+      </c>
+      <c r="B249" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 01:50</t>
+        </is>
+      </c>
+      <c r="C249" s="3" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="D249" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E249" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 01:50</t>
+        </is>
+      </c>
+      <c r="B250" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 02:00</t>
+        </is>
+      </c>
+      <c r="C250" s="3" t="inlineStr">
+        <is>
+          <t>Spotify</t>
+        </is>
+      </c>
+      <c r="D250" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E250" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 02:00</t>
+        </is>
+      </c>
+      <c r="B251" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 02:10</t>
+        </is>
+      </c>
+      <c r="C251" s="3" t="inlineStr">
+        <is>
+          <t>Spotify</t>
+        </is>
+      </c>
+      <c r="D251" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E251" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 02:10</t>
+        </is>
+      </c>
+      <c r="B252" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 02:20</t>
+        </is>
+      </c>
+      <c r="C252" s="3" t="inlineStr">
+        <is>
+          <t>Escribir</t>
+        </is>
+      </c>
+      <c r="D252" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E252" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 02:20</t>
+        </is>
+      </c>
+      <c r="B253" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 02:30</t>
+        </is>
+      </c>
+      <c r="C253" s="3" t="inlineStr">
+        <is>
+          <t>Escribir</t>
+        </is>
+      </c>
+      <c r="D253" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E253" s="3" t="n"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 02:30</t>
+        </is>
+      </c>
+      <c r="B254" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 02:40</t>
+        </is>
+      </c>
+      <c r="C254" s="3" t="inlineStr">
+        <is>
+          <t>Escribir</t>
+        </is>
+      </c>
+      <c r="D254" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E254" s="3" t="n"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 08:30</t>
+        </is>
+      </c>
+      <c r="B255" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 08:40</t>
+        </is>
+      </c>
+      <c r="C255" s="3" t="inlineStr">
+        <is>
+          <t>Iniciar día</t>
+        </is>
+      </c>
+      <c r="D255" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E255" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 08:40</t>
+        </is>
+      </c>
+      <c r="B256" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 08:50</t>
+        </is>
+      </c>
+      <c r="C256" s="3" t="inlineStr">
+        <is>
+          <t>Actualizar River</t>
+        </is>
+      </c>
+      <c r="D256" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E256" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 08:50</t>
+        </is>
+      </c>
+      <c r="B257" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 09:00</t>
+        </is>
+      </c>
+      <c r="C257" s="3" t="inlineStr">
+        <is>
+          <t>Actualizar River</t>
+        </is>
+      </c>
+      <c r="D257" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E257" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 09:00</t>
+        </is>
+      </c>
+      <c r="B258" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 09:10</t>
+        </is>
+      </c>
+      <c r="C258" s="3" t="inlineStr">
+        <is>
+          <t>Actualizar River</t>
+        </is>
+      </c>
+      <c r="D258" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E258" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 09:10</t>
+        </is>
+      </c>
+      <c r="B259" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 09:20</t>
+        </is>
+      </c>
+      <c r="C259" s="3" t="inlineStr">
+        <is>
+          <t>Actualizar River</t>
+        </is>
+      </c>
+      <c r="D259" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E259" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 09:20</t>
+        </is>
+      </c>
+      <c r="B260" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 09:30</t>
+        </is>
+      </c>
+      <c r="C260" s="3" t="inlineStr">
+        <is>
+          <t>Actualizar Gallo</t>
+        </is>
+      </c>
+      <c r="D260" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E260" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 09:30</t>
+        </is>
+      </c>
+      <c r="B261" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 09:40</t>
+        </is>
+      </c>
+      <c r="C261" s="3" t="inlineStr">
+        <is>
+          <t>Actualizar Gallo</t>
+        </is>
+      </c>
+      <c r="D261" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E261" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 09:40</t>
+        </is>
+      </c>
+      <c r="B262" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 09:50</t>
+        </is>
+      </c>
+      <c r="C262" s="3" t="inlineStr">
+        <is>
+          <t>Actualizar Anea</t>
+        </is>
+      </c>
+      <c r="D262" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E262" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 09:50</t>
+        </is>
+      </c>
+      <c r="B263" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 10:00</t>
+        </is>
+      </c>
+      <c r="C263" s="3" t="inlineStr">
+        <is>
+          <t>Actualizar Mis Nietos</t>
+        </is>
+      </c>
+      <c r="D263" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E263" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 10:00</t>
+        </is>
+      </c>
+      <c r="B264" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 10:10</t>
+        </is>
+      </c>
+      <c r="C264" s="3" t="inlineStr">
+        <is>
+          <t>Actualizar Mis Nietos</t>
+        </is>
+      </c>
+      <c r="D264" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E264" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 10:10</t>
+        </is>
+      </c>
+      <c r="B265" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 10:20</t>
+        </is>
+      </c>
+      <c r="C265" s="3" t="inlineStr">
+        <is>
+          <t>Relajar</t>
+        </is>
+      </c>
+      <c r="D265" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E265" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 10:20</t>
+        </is>
+      </c>
+      <c r="B266" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 10:30</t>
+        </is>
+      </c>
+      <c r="C266" s="3" t="inlineStr">
+        <is>
+          <t>Facturar AFIP</t>
+        </is>
+      </c>
+      <c r="D266" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E266" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 10:30</t>
+        </is>
+      </c>
+      <c r="B267" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 10:40</t>
+        </is>
+      </c>
+      <c r="C267" s="3" t="inlineStr">
+        <is>
+          <t>Sacar turno para escribanía</t>
+        </is>
+      </c>
+      <c r="D267" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E267" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 10:40</t>
+        </is>
+      </c>
+      <c r="B268" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 10:50</t>
+        </is>
+      </c>
+      <c r="C268" s="3" t="inlineStr">
+        <is>
+          <t>Sacar turno para escribanía</t>
+        </is>
+      </c>
+      <c r="D268" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E268" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 10:50</t>
+        </is>
+      </c>
+      <c r="B269" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 11:00</t>
+        </is>
+      </c>
+      <c r="C269" s="3" t="inlineStr">
+        <is>
+          <t>Relajar</t>
+        </is>
+      </c>
+      <c r="D269" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E269" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 11:00</t>
+        </is>
+      </c>
+      <c r="B270" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-09 11:10</t>
+        </is>
+      </c>
+      <c r="C270" s="3" t="inlineStr">
+        <is>
+          <t>Codear Highlighter</t>
+        </is>
+      </c>
+      <c r="D270" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E270" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E33"/>
+  <autoFilter ref="A1:E270"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Periods.xlsx
+++ b/Periods.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$427</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$429</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E427"/>
+  <dimension ref="A1:E429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11940,7 +11940,7 @@
       </c>
       <c r="D427" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E427" s="3" t="inlineStr">
@@ -11949,8 +11949,62 @@
         </is>
       </c>
     </row>
+    <row r="428">
+      <c r="A428" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 15:40</t>
+        </is>
+      </c>
+      <c r="B428" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 15:50</t>
+        </is>
+      </c>
+      <c r="C428" s="3" t="inlineStr">
+        <is>
+          <t>Code. Actracker</t>
+        </is>
+      </c>
+      <c r="D428" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E428" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 15:50</t>
+        </is>
+      </c>
+      <c r="B429" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 16:00</t>
+        </is>
+      </c>
+      <c r="C429" s="3" t="inlineStr">
+        <is>
+          <t>Code. Checklister</t>
+        </is>
+      </c>
+      <c r="D429" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E429" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E427"/>
+  <autoFilter ref="A1:E429"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Periods.xlsx
+++ b/Periods.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$429</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$508</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E429"/>
+  <dimension ref="A1:E508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11994,7 +11994,7 @@
       </c>
       <c r="D429" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E429" s="3" t="inlineStr">
@@ -12003,8 +12003,2133 @@
         </is>
       </c>
     </row>
+    <row r="430">
+      <c r="A430" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 16:00</t>
+        </is>
+      </c>
+      <c r="B430" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 16:10</t>
+        </is>
+      </c>
+      <c r="C430" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Platos</t>
+        </is>
+      </c>
+      <c r="D430" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E430" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 16:10</t>
+        </is>
+      </c>
+      <c r="B431" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 16:20</t>
+        </is>
+      </c>
+      <c r="C431" s="3" t="inlineStr">
+        <is>
+          <t>Plan. Tasker</t>
+        </is>
+      </c>
+      <c r="D431" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E431" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 16:20</t>
+        </is>
+      </c>
+      <c r="B432" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 16:30</t>
+        </is>
+      </c>
+      <c r="C432" s="3" t="inlineStr">
+        <is>
+          <t>Docer. Tkinter</t>
+        </is>
+      </c>
+      <c r="D432" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E432" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 16:30</t>
+        </is>
+      </c>
+      <c r="B433" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 16:40</t>
+        </is>
+      </c>
+      <c r="C433" s="3" t="inlineStr">
+        <is>
+          <t>Docer. Tkinter</t>
+        </is>
+      </c>
+      <c r="D433" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E433" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 16:40</t>
+        </is>
+      </c>
+      <c r="B434" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 16:50</t>
+        </is>
+      </c>
+      <c r="C434" s="3" t="inlineStr">
+        <is>
+          <t>Docer. Tkinter</t>
+        </is>
+      </c>
+      <c r="D434" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E434" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 16:50</t>
+        </is>
+      </c>
+      <c r="B435" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 17:00</t>
+        </is>
+      </c>
+      <c r="C435" s="3" t="inlineStr">
+        <is>
+          <t>Docer. Tkinter</t>
+        </is>
+      </c>
+      <c r="D435" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E435" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 17:00</t>
+        </is>
+      </c>
+      <c r="B436" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 17:10</t>
+        </is>
+      </c>
+      <c r="C436" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cagar</t>
+        </is>
+      </c>
+      <c r="D436" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E436" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 17:10</t>
+        </is>
+      </c>
+      <c r="B437" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 17:20</t>
+        </is>
+      </c>
+      <c r="C437" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cagar</t>
+        </is>
+      </c>
+      <c r="D437" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E437" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 17:20</t>
+        </is>
+      </c>
+      <c r="B438" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 17:30</t>
+        </is>
+      </c>
+      <c r="C438" s="3" t="inlineStr">
+        <is>
+          <t>Leer. El viaje del escritor</t>
+        </is>
+      </c>
+      <c r="D438" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E438" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 17:30</t>
+        </is>
+      </c>
+      <c r="B439" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 17:40</t>
+        </is>
+      </c>
+      <c r="C439" s="3" t="inlineStr">
+        <is>
+          <t>Leer. El viaje del escritor</t>
+        </is>
+      </c>
+      <c r="D439" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E439" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 17:40</t>
+        </is>
+      </c>
+      <c r="B440" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 17:50</t>
+        </is>
+      </c>
+      <c r="C440" s="3" t="inlineStr">
+        <is>
+          <t>Leer. El viaje del escritor</t>
+        </is>
+      </c>
+      <c r="D440" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E440" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 17:50</t>
+        </is>
+      </c>
+      <c r="B441" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 18:00</t>
+        </is>
+      </c>
+      <c r="C441" s="3" t="inlineStr">
+        <is>
+          <t>Leer. El viaje del escritor</t>
+        </is>
+      </c>
+      <c r="D441" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E441" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 18:00</t>
+        </is>
+      </c>
+      <c r="B442" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 18:10</t>
+        </is>
+      </c>
+      <c r="C442" s="3" t="inlineStr">
+        <is>
+          <t>Leer. El viaje del escritor</t>
+        </is>
+      </c>
+      <c r="D442" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E442" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 18:10</t>
+        </is>
+      </c>
+      <c r="B443" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 18:20</t>
+        </is>
+      </c>
+      <c r="C443" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D443" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E443" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 18:20</t>
+        </is>
+      </c>
+      <c r="B444" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 18:30</t>
+        </is>
+      </c>
+      <c r="C444" s="3" t="inlineStr">
+        <is>
+          <t>Relax. YouTube</t>
+        </is>
+      </c>
+      <c r="D444" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E444" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 18:30</t>
+        </is>
+      </c>
+      <c r="B445" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 18:40</t>
+        </is>
+      </c>
+      <c r="C445" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Compras</t>
+        </is>
+      </c>
+      <c r="D445" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E445" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 18:40</t>
+        </is>
+      </c>
+      <c r="B446" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 18:50</t>
+        </is>
+      </c>
+      <c r="C446" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Compras</t>
+        </is>
+      </c>
+      <c r="D446" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E446" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 18:50</t>
+        </is>
+      </c>
+      <c r="B447" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 19:00</t>
+        </is>
+      </c>
+      <c r="C447" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Compras</t>
+        </is>
+      </c>
+      <c r="D447" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E447" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 19:00</t>
+        </is>
+      </c>
+      <c r="B448" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 19:10</t>
+        </is>
+      </c>
+      <c r="C448" s="3" t="inlineStr">
+        <is>
+          <t>Relax. YouTube</t>
+        </is>
+      </c>
+      <c r="D448" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E448" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 19:10</t>
+        </is>
+      </c>
+      <c r="B449" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 19:20</t>
+        </is>
+      </c>
+      <c r="C449" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cocinar</t>
+        </is>
+      </c>
+      <c r="D449" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E449" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 19:20</t>
+        </is>
+      </c>
+      <c r="B450" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 19:30</t>
+        </is>
+      </c>
+      <c r="C450" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Comer</t>
+        </is>
+      </c>
+      <c r="D450" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E450" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 19:30</t>
+        </is>
+      </c>
+      <c r="B451" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 19:40</t>
+        </is>
+      </c>
+      <c r="C451" s="3" t="inlineStr">
+        <is>
+          <t>Relax. YouTube</t>
+        </is>
+      </c>
+      <c r="D451" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E451" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 19:40</t>
+        </is>
+      </c>
+      <c r="B452" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 19:50</t>
+        </is>
+      </c>
+      <c r="C452" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Pilar</t>
+        </is>
+      </c>
+      <c r="D452" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E452" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 19:50</t>
+        </is>
+      </c>
+      <c r="B453" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 20:00</t>
+        </is>
+      </c>
+      <c r="C453" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D453" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Platos</t>
+        </is>
+      </c>
+      <c r="E453" s="3" t="inlineStr">
+        <is>
+          <t>Era mejor que boludear</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 20:00</t>
+        </is>
+      </c>
+      <c r="B454" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 20:10</t>
+        </is>
+      </c>
+      <c r="C454" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Dientes</t>
+        </is>
+      </c>
+      <c r="D454" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E454" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 23:20</t>
+        </is>
+      </c>
+      <c r="B455" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 23:30</t>
+        </is>
+      </c>
+      <c r="C455" s="3" t="inlineStr">
+        <is>
+          <t>Plan. Cine</t>
+        </is>
+      </c>
+      <c r="D455" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E455" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 23:30</t>
+        </is>
+      </c>
+      <c r="B456" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 23:40</t>
+        </is>
+      </c>
+      <c r="C456" s="3" t="inlineStr">
+        <is>
+          <t>Plan. Cine</t>
+        </is>
+      </c>
+      <c r="D456" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E456" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 23:40</t>
+        </is>
+      </c>
+      <c r="B457" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 23:50</t>
+        </is>
+      </c>
+      <c r="C457" s="3" t="inlineStr">
+        <is>
+          <t>Plan. Cine</t>
+        </is>
+      </c>
+      <c r="D457" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E457" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-11 23:50</t>
+        </is>
+      </c>
+      <c r="B458" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 00:00</t>
+        </is>
+      </c>
+      <c r="C458" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D458" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E458" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 00:00</t>
+        </is>
+      </c>
+      <c r="B459" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 00:10</t>
+        </is>
+      </c>
+      <c r="C459" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D459" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E459" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 00:10</t>
+        </is>
+      </c>
+      <c r="B460" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 00:20</t>
+        </is>
+      </c>
+      <c r="C460" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D460" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E460" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 00:20</t>
+        </is>
+      </c>
+      <c r="B461" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 00:30</t>
+        </is>
+      </c>
+      <c r="C461" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D461" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E461" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 00:30</t>
+        </is>
+      </c>
+      <c r="B462" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 00:40</t>
+        </is>
+      </c>
+      <c r="C462" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D462" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E462" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 00:40</t>
+        </is>
+      </c>
+      <c r="B463" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 00:50</t>
+        </is>
+      </c>
+      <c r="C463" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D463" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E463" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 00:50</t>
+        </is>
+      </c>
+      <c r="B464" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 01:00</t>
+        </is>
+      </c>
+      <c r="C464" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D464" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E464" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 01:00</t>
+        </is>
+      </c>
+      <c r="B465" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 01:10</t>
+        </is>
+      </c>
+      <c r="C465" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D465" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E465" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 01:10</t>
+        </is>
+      </c>
+      <c r="B466" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 01:20</t>
+        </is>
+      </c>
+      <c r="C466" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D466" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E466" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 01:20</t>
+        </is>
+      </c>
+      <c r="B467" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 01:30</t>
+        </is>
+      </c>
+      <c r="C467" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D467" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E467" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 01:30</t>
+        </is>
+      </c>
+      <c r="B468" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 01:40</t>
+        </is>
+      </c>
+      <c r="C468" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D468" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E468" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 01:40</t>
+        </is>
+      </c>
+      <c r="B469" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 01:50</t>
+        </is>
+      </c>
+      <c r="C469" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D469" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E469" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 01:50</t>
+        </is>
+      </c>
+      <c r="B470" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 02:00</t>
+        </is>
+      </c>
+      <c r="C470" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D470" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E470" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 02:00</t>
+        </is>
+      </c>
+      <c r="B471" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 02:10</t>
+        </is>
+      </c>
+      <c r="C471" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D471" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E471" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 02:10</t>
+        </is>
+      </c>
+      <c r="B472" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 02:20</t>
+        </is>
+      </c>
+      <c r="C472" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D472" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E472" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 02:20</t>
+        </is>
+      </c>
+      <c r="B473" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 02:30</t>
+        </is>
+      </c>
+      <c r="C473" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D473" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E473" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 02:30</t>
+        </is>
+      </c>
+      <c r="B474" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 02:40</t>
+        </is>
+      </c>
+      <c r="C474" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D474" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E474" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 02:40</t>
+        </is>
+      </c>
+      <c r="B475" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 02:50</t>
+        </is>
+      </c>
+      <c r="C475" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D475" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E475" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 02:50</t>
+        </is>
+      </c>
+      <c r="B476" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 03:00</t>
+        </is>
+      </c>
+      <c r="C476" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D476" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E476" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 10:40</t>
+        </is>
+      </c>
+      <c r="B477" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 10:50</t>
+        </is>
+      </c>
+      <c r="C477" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Yaguar</t>
+        </is>
+      </c>
+      <c r="D477" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E477" s="3" t="n"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 10:50</t>
+        </is>
+      </c>
+      <c r="B478" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 11:00</t>
+        </is>
+      </c>
+      <c r="C478" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Yaguar</t>
+        </is>
+      </c>
+      <c r="D478" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E478" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 11:00</t>
+        </is>
+      </c>
+      <c r="B479" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 11:10</t>
+        </is>
+      </c>
+      <c r="C479" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D479" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E479" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 11:10</t>
+        </is>
+      </c>
+      <c r="B480" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 11:20</t>
+        </is>
+      </c>
+      <c r="C480" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D480" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E480" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 11:20</t>
+        </is>
+      </c>
+      <c r="B481" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 11:30</t>
+        </is>
+      </c>
+      <c r="C481" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D481" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E481" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 11:30</t>
+        </is>
+      </c>
+      <c r="B482" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 11:40</t>
+        </is>
+      </c>
+      <c r="C482" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D482" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E482" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 11:40</t>
+        </is>
+      </c>
+      <c r="B483" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 11:50</t>
+        </is>
+      </c>
+      <c r="C483" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D483" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E483" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 11:50</t>
+        </is>
+      </c>
+      <c r="B484" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 12:00</t>
+        </is>
+      </c>
+      <c r="C484" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D484" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E484" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 12:00</t>
+        </is>
+      </c>
+      <c r="B485" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 12:10</t>
+        </is>
+      </c>
+      <c r="C485" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D485" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E485" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 12:10</t>
+        </is>
+      </c>
+      <c r="B486" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 12:20</t>
+        </is>
+      </c>
+      <c r="C486" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D486" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E486" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 12:20</t>
+        </is>
+      </c>
+      <c r="B487" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 12:30</t>
+        </is>
+      </c>
+      <c r="C487" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D487" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E487" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 12:30</t>
+        </is>
+      </c>
+      <c r="B488" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 12:40</t>
+        </is>
+      </c>
+      <c r="C488" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D488" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="E488" s="3" t="inlineStr">
+        <is>
+          <t>No pude parar, soy así, un capo</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 12:40</t>
+        </is>
+      </c>
+      <c r="B489" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 12:50</t>
+        </is>
+      </c>
+      <c r="C489" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D489" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E489" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 12:50</t>
+        </is>
+      </c>
+      <c r="B490" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 13:00</t>
+        </is>
+      </c>
+      <c r="C490" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D490" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E490" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 13:00</t>
+        </is>
+      </c>
+      <c r="B491" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 13:10</t>
+        </is>
+      </c>
+      <c r="C491" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D491" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="E491" s="3" t="inlineStr">
+        <is>
+          <t>Quería cerrar</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 13:10</t>
+        </is>
+      </c>
+      <c r="B492" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 13:20</t>
+        </is>
+      </c>
+      <c r="C492" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D492" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Piso</t>
+        </is>
+      </c>
+      <c r="E492" s="3" t="inlineStr">
+        <is>
+          <t>Tenía que limpiarlo</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 13:20</t>
+        </is>
+      </c>
+      <c r="B493" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 13:30</t>
+        </is>
+      </c>
+      <c r="C493" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D493" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E493" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 13:30</t>
+        </is>
+      </c>
+      <c r="B494" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 13:40</t>
+        </is>
+      </c>
+      <c r="C494" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D494" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E494" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 13:40</t>
+        </is>
+      </c>
+      <c r="B495" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 13:50</t>
+        </is>
+      </c>
+      <c r="C495" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D495" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E495" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 13:50</t>
+        </is>
+      </c>
+      <c r="B496" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 14:00</t>
+        </is>
+      </c>
+      <c r="C496" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Juegos</t>
+        </is>
+      </c>
+      <c r="D496" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E496" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 14:00</t>
+        </is>
+      </c>
+      <c r="B497" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 14:10</t>
+        </is>
+      </c>
+      <c r="C497" s="3" t="inlineStr">
+        <is>
+          <t>Chores. PC</t>
+        </is>
+      </c>
+      <c r="D497" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E497" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 14:10</t>
+        </is>
+      </c>
+      <c r="B498" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 14:20</t>
+        </is>
+      </c>
+      <c r="C498" s="3" t="inlineStr">
+        <is>
+          <t>Chores. PC</t>
+        </is>
+      </c>
+      <c r="D498" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E498" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 14:20</t>
+        </is>
+      </c>
+      <c r="B499" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 14:30</t>
+        </is>
+      </c>
+      <c r="C499" s="3" t="inlineStr">
+        <is>
+          <t>Chores. PC</t>
+        </is>
+      </c>
+      <c r="D499" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E499" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 14:32</t>
+        </is>
+      </c>
+      <c r="B500" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 14:42</t>
+        </is>
+      </c>
+      <c r="C500" s="3" t="inlineStr">
+        <is>
+          <t>Chores. PC</t>
+        </is>
+      </c>
+      <c r="D500" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E500" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 14:40</t>
+        </is>
+      </c>
+      <c r="B501" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 14:50</t>
+        </is>
+      </c>
+      <c r="C501" s="3" t="inlineStr">
+        <is>
+          <t>Chores. PC</t>
+        </is>
+      </c>
+      <c r="D501" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E501" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 14:50</t>
+        </is>
+      </c>
+      <c r="B502" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 15:00</t>
+        </is>
+      </c>
+      <c r="C502" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Actualizar</t>
+        </is>
+      </c>
+      <c r="D502" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E502" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 15:00</t>
+        </is>
+      </c>
+      <c r="B503" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 15:10</t>
+        </is>
+      </c>
+      <c r="C503" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Actualizar</t>
+        </is>
+      </c>
+      <c r="D503" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E503" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 15:10</t>
+        </is>
+      </c>
+      <c r="B504" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 15:20</t>
+        </is>
+      </c>
+      <c r="C504" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Actualizar</t>
+        </is>
+      </c>
+      <c r="D504" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E504" s="3" t="n"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 15:20</t>
+        </is>
+      </c>
+      <c r="B505" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 15:30</t>
+        </is>
+      </c>
+      <c r="C505" s="3" t="inlineStr">
+        <is>
+          <t>Plan. Año</t>
+        </is>
+      </c>
+      <c r="D505" s="3" t="inlineStr">
+        <is>
+          <t>Chores. PC</t>
+        </is>
+      </c>
+      <c r="E505" s="3" t="inlineStr">
+        <is>
+          <t>Necesito ordenarlo</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 15:30</t>
+        </is>
+      </c>
+      <c r="B506" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 15:40</t>
+        </is>
+      </c>
+      <c r="C506" s="3" t="inlineStr">
+        <is>
+          <t>Chores. PC</t>
+        </is>
+      </c>
+      <c r="D506" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E506" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 15:40</t>
+        </is>
+      </c>
+      <c r="B507" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 15:50</t>
+        </is>
+      </c>
+      <c r="C507" s="3" t="inlineStr">
+        <is>
+          <t>Chores. PC</t>
+        </is>
+      </c>
+      <c r="D507" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E507" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 15:50</t>
+        </is>
+      </c>
+      <c r="B508" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 16:00</t>
+        </is>
+      </c>
+      <c r="C508" s="3" t="inlineStr">
+        <is>
+          <t>Chores. PC</t>
+        </is>
+      </c>
+      <c r="D508" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E508" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E429"/>
+  <autoFilter ref="A1:E508"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Periods.xlsx
+++ b/Periods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$508</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$708</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E508"/>
+  <dimension ref="A1:E708"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Chores. Ordenar</t>
+          <t>Chores. Orden</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>Chores. Ordenar</t>
+          <t>Chores. Orden</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>Chores. Baño</t>
+          <t>Chores. Ducha</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>Chores. Baño</t>
+          <t>Chores. Ducha</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -3215,7 +3215,7 @@
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>Chores. Baño</t>
+          <t>Chores. Ducha</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>Chores. Ordenar</t>
+          <t>Chores. Orden</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>Chores. Ordenar</t>
+          <t>Chores. Orden</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="C301" s="3" t="inlineStr">
         <is>
-          <t>Chores. Baño</t>
+          <t>Chores. Ducha</t>
         </is>
       </c>
       <c r="D301" s="3" t="inlineStr">
@@ -8622,7 +8622,7 @@
       </c>
       <c r="C304" s="3" t="inlineStr">
         <is>
-          <t>Chores. Baño</t>
+          <t>Chores. Ducha</t>
         </is>
       </c>
       <c r="D304" s="3" t="inlineStr">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="C305" s="3" t="inlineStr">
         <is>
-          <t>Chores. Baño</t>
+          <t>Chores. Ducha</t>
         </is>
       </c>
       <c r="D305" s="3" t="inlineStr">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="C407" s="3" t="inlineStr">
         <is>
-          <t>Chores. Baño</t>
+          <t>Chores. Ducha</t>
         </is>
       </c>
       <c r="D407" s="3" t="inlineStr">
@@ -11430,7 +11430,7 @@
       </c>
       <c r="C408" s="3" t="inlineStr">
         <is>
-          <t>Chores. Baño</t>
+          <t>Chores. Ducha</t>
         </is>
       </c>
       <c r="D408" s="3" t="inlineStr">
@@ -14018,7 +14018,11 @@
           <t>✓</t>
         </is>
       </c>
-      <c r="E504" s="3" t="n"/>
+      <c r="E504" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="3" t="inlineStr">
@@ -14119,7 +14123,7 @@
       </c>
       <c r="D508" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E508" s="3" t="inlineStr">
@@ -14128,8 +14132,5388 @@
         </is>
       </c>
     </row>
+    <row r="509">
+      <c r="A509" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 16:00</t>
+        </is>
+      </c>
+      <c r="B509" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 16:10</t>
+        </is>
+      </c>
+      <c r="C509" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cagar</t>
+        </is>
+      </c>
+      <c r="D509" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E509" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 16:10</t>
+        </is>
+      </c>
+      <c r="B510" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 16:20</t>
+        </is>
+      </c>
+      <c r="C510" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cocinar</t>
+        </is>
+      </c>
+      <c r="D510" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E510" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 16:20</t>
+        </is>
+      </c>
+      <c r="B511" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 16:30</t>
+        </is>
+      </c>
+      <c r="C511" s="3" t="inlineStr">
+        <is>
+          <t>Docer. Tkinter</t>
+        </is>
+      </c>
+      <c r="D511" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E511" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 16:30</t>
+        </is>
+      </c>
+      <c r="B512" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 16:40</t>
+        </is>
+      </c>
+      <c r="C512" s="3" t="inlineStr">
+        <is>
+          <t>Docer. Tkinter</t>
+        </is>
+      </c>
+      <c r="D512" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E512" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 16:40</t>
+        </is>
+      </c>
+      <c r="B513" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 16:50</t>
+        </is>
+      </c>
+      <c r="C513" s="3" t="inlineStr">
+        <is>
+          <t>Docer. Tkinter</t>
+        </is>
+      </c>
+      <c r="D513" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E513" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 16:50</t>
+        </is>
+      </c>
+      <c r="B514" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 17:00</t>
+        </is>
+      </c>
+      <c r="C514" s="3" t="inlineStr">
+        <is>
+          <t>Docer. Tkinter</t>
+        </is>
+      </c>
+      <c r="D514" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E514" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 17:00</t>
+        </is>
+      </c>
+      <c r="B515" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 17:10</t>
+        </is>
+      </c>
+      <c r="C515" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D515" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E515" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 17:10</t>
+        </is>
+      </c>
+      <c r="B516" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 17:20</t>
+        </is>
+      </c>
+      <c r="C516" s="3" t="inlineStr">
+        <is>
+          <t>Plan. Horas</t>
+        </is>
+      </c>
+      <c r="D516" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E516" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 17:20</t>
+        </is>
+      </c>
+      <c r="B517" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 17:30</t>
+        </is>
+      </c>
+      <c r="C517" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D517" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E517" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 17:30</t>
+        </is>
+      </c>
+      <c r="B518" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 17:40</t>
+        </is>
+      </c>
+      <c r="C518" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D518" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E518" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 17:40</t>
+        </is>
+      </c>
+      <c r="B519" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 17:50</t>
+        </is>
+      </c>
+      <c r="C519" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D519" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E519" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 17:50</t>
+        </is>
+      </c>
+      <c r="B520" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 18:00</t>
+        </is>
+      </c>
+      <c r="C520" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D520" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E520" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 18:00</t>
+        </is>
+      </c>
+      <c r="B521" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 18:10</t>
+        </is>
+      </c>
+      <c r="C521" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D521" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E521" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 18:10</t>
+        </is>
+      </c>
+      <c r="B522" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 18:20</t>
+        </is>
+      </c>
+      <c r="C522" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D522" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E522" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 18:20</t>
+        </is>
+      </c>
+      <c r="B523" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 18:30</t>
+        </is>
+      </c>
+      <c r="C523" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cagar</t>
+        </is>
+      </c>
+      <c r="D523" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E523" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 18:30</t>
+        </is>
+      </c>
+      <c r="B524" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 18:40</t>
+        </is>
+      </c>
+      <c r="C524" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cagar</t>
+        </is>
+      </c>
+      <c r="D524" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E524" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 18:40</t>
+        </is>
+      </c>
+      <c r="B525" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 18:50</t>
+        </is>
+      </c>
+      <c r="C525" s="3" t="inlineStr">
+        <is>
+          <t>Code. Footer</t>
+        </is>
+      </c>
+      <c r="D525" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E525" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 18:50</t>
+        </is>
+      </c>
+      <c r="B526" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 19:00</t>
+        </is>
+      </c>
+      <c r="C526" s="3" t="inlineStr">
+        <is>
+          <t>Code. Footer</t>
+        </is>
+      </c>
+      <c r="D526" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E526" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 19:00</t>
+        </is>
+      </c>
+      <c r="B527" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 19:10</t>
+        </is>
+      </c>
+      <c r="C527" s="3" t="inlineStr">
+        <is>
+          <t>Code. Footer</t>
+        </is>
+      </c>
+      <c r="D527" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E527" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 19:10</t>
+        </is>
+      </c>
+      <c r="B528" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 19:20</t>
+        </is>
+      </c>
+      <c r="C528" s="3" t="inlineStr">
+        <is>
+          <t>Code. Footer</t>
+        </is>
+      </c>
+      <c r="D528" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E528" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 19:20</t>
+        </is>
+      </c>
+      <c r="B529" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 19:30</t>
+        </is>
+      </c>
+      <c r="C529" s="3" t="inlineStr">
+        <is>
+          <t>Code. Footer</t>
+        </is>
+      </c>
+      <c r="D529" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E529" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 19:30</t>
+        </is>
+      </c>
+      <c r="B530" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 19:40</t>
+        </is>
+      </c>
+      <c r="C530" s="3" t="inlineStr">
+        <is>
+          <t>Code. Footer</t>
+        </is>
+      </c>
+      <c r="D530" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E530" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 19:40</t>
+        </is>
+      </c>
+      <c r="B531" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 19:50</t>
+        </is>
+      </c>
+      <c r="C531" s="3" t="inlineStr">
+        <is>
+          <t>Code. Footer</t>
+        </is>
+      </c>
+      <c r="D531" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E531" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 19:50</t>
+        </is>
+      </c>
+      <c r="B532" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 20:00</t>
+        </is>
+      </c>
+      <c r="C532" s="3" t="inlineStr">
+        <is>
+          <t>Code. Footer</t>
+        </is>
+      </c>
+      <c r="D532" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E532" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 20:00</t>
+        </is>
+      </c>
+      <c r="B533" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 20:10</t>
+        </is>
+      </c>
+      <c r="C533" s="3" t="inlineStr">
+        <is>
+          <t>Code. Footer</t>
+        </is>
+      </c>
+      <c r="D533" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E533" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 20:10</t>
+        </is>
+      </c>
+      <c r="B534" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 20:20</t>
+        </is>
+      </c>
+      <c r="C534" s="3" t="inlineStr">
+        <is>
+          <t>Code. Footer</t>
+        </is>
+      </c>
+      <c r="D534" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E534" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 20:20</t>
+        </is>
+      </c>
+      <c r="B535" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 20:30</t>
+        </is>
+      </c>
+      <c r="C535" s="3" t="inlineStr">
+        <is>
+          <t>Code. Footer</t>
+        </is>
+      </c>
+      <c r="D535" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E535" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 20:30</t>
+        </is>
+      </c>
+      <c r="B536" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 20:40</t>
+        </is>
+      </c>
+      <c r="C536" s="3" t="inlineStr">
+        <is>
+          <t>Code. Footer</t>
+        </is>
+      </c>
+      <c r="D536" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E536" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 20:40</t>
+        </is>
+      </c>
+      <c r="B537" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 20:50</t>
+        </is>
+      </c>
+      <c r="C537" s="3" t="inlineStr">
+        <is>
+          <t>Relax. YouTube</t>
+        </is>
+      </c>
+      <c r="D537" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E537" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 20:50</t>
+        </is>
+      </c>
+      <c r="B538" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 21:00</t>
+        </is>
+      </c>
+      <c r="C538" s="3" t="inlineStr">
+        <is>
+          <t>Relax. YouTube</t>
+        </is>
+      </c>
+      <c r="D538" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E538" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 21:00</t>
+        </is>
+      </c>
+      <c r="B539" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 21:10</t>
+        </is>
+      </c>
+      <c r="C539" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Instagram</t>
+        </is>
+      </c>
+      <c r="D539" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E539" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 21:10</t>
+        </is>
+      </c>
+      <c r="B540" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 21:20</t>
+        </is>
+      </c>
+      <c r="C540" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D540" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E540" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 21:20</t>
+        </is>
+      </c>
+      <c r="B541" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 21:30</t>
+        </is>
+      </c>
+      <c r="C541" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D541" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E541" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 21:30</t>
+        </is>
+      </c>
+      <c r="B542" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 21:40</t>
+        </is>
+      </c>
+      <c r="C542" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Ropa</t>
+        </is>
+      </c>
+      <c r="D542" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E542" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 21:40</t>
+        </is>
+      </c>
+      <c r="B543" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 21:50</t>
+        </is>
+      </c>
+      <c r="C543" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Barba</t>
+        </is>
+      </c>
+      <c r="D543" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E543" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 21:50</t>
+        </is>
+      </c>
+      <c r="B544" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 22:00</t>
+        </is>
+      </c>
+      <c r="C544" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Barba</t>
+        </is>
+      </c>
+      <c r="D544" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E544" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 22:00</t>
+        </is>
+      </c>
+      <c r="B545" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 22:10</t>
+        </is>
+      </c>
+      <c r="C545" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Ducha</t>
+        </is>
+      </c>
+      <c r="D545" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E545" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 22:10</t>
+        </is>
+      </c>
+      <c r="B546" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 22:20</t>
+        </is>
+      </c>
+      <c r="C546" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Ducha</t>
+        </is>
+      </c>
+      <c r="D546" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E546" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 22:20</t>
+        </is>
+      </c>
+      <c r="B547" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 22:30</t>
+        </is>
+      </c>
+      <c r="C547" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Ducha</t>
+        </is>
+      </c>
+      <c r="D547" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E547" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 22:30</t>
+        </is>
+      </c>
+      <c r="B548" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 22:40</t>
+        </is>
+      </c>
+      <c r="C548" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Orden</t>
+        </is>
+      </c>
+      <c r="D548" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E548" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 22:40</t>
+        </is>
+      </c>
+      <c r="B549" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 22:50</t>
+        </is>
+      </c>
+      <c r="C549" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D549" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E549" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 22:50</t>
+        </is>
+      </c>
+      <c r="B550" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 23:00</t>
+        </is>
+      </c>
+      <c r="C550" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D550" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E550" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 23:00</t>
+        </is>
+      </c>
+      <c r="B551" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 23:10</t>
+        </is>
+      </c>
+      <c r="C551" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D551" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E551" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 23:10</t>
+        </is>
+      </c>
+      <c r="B552" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 23:20</t>
+        </is>
+      </c>
+      <c r="C552" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D552" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E552" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 23:20</t>
+        </is>
+      </c>
+      <c r="B553" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 23:30</t>
+        </is>
+      </c>
+      <c r="C553" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D553" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E553" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 23:30</t>
+        </is>
+      </c>
+      <c r="B554" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 23:40</t>
+        </is>
+      </c>
+      <c r="C554" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D554" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E554" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 23:40</t>
+        </is>
+      </c>
+      <c r="B555" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 23:50</t>
+        </is>
+      </c>
+      <c r="C555" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D555" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E555" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-12 23:50</t>
+        </is>
+      </c>
+      <c r="B556" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 00:00</t>
+        </is>
+      </c>
+      <c r="C556" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D556" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E556" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 00:00</t>
+        </is>
+      </c>
+      <c r="B557" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 00:10</t>
+        </is>
+      </c>
+      <c r="C557" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D557" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E557" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 00:10</t>
+        </is>
+      </c>
+      <c r="B558" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 00:20</t>
+        </is>
+      </c>
+      <c r="C558" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D558" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E558" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 00:20</t>
+        </is>
+      </c>
+      <c r="B559" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 00:30</t>
+        </is>
+      </c>
+      <c r="C559" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D559" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E559" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 00:30</t>
+        </is>
+      </c>
+      <c r="B560" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 00:40</t>
+        </is>
+      </c>
+      <c r="C560" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D560" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E560" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 00:40</t>
+        </is>
+      </c>
+      <c r="B561" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 00:50</t>
+        </is>
+      </c>
+      <c r="C561" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D561" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E561" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 10:30</t>
+        </is>
+      </c>
+      <c r="B562" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 10:40</t>
+        </is>
+      </c>
+      <c r="C562" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D562" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E562" s="3" t="n"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 10:40</t>
+        </is>
+      </c>
+      <c r="B563" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 10:50</t>
+        </is>
+      </c>
+      <c r="C563" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D563" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E563" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 10:50</t>
+        </is>
+      </c>
+      <c r="B564" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 11:00</t>
+        </is>
+      </c>
+      <c r="C564" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D564" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E564" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 11:00</t>
+        </is>
+      </c>
+      <c r="B565" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 11:10</t>
+        </is>
+      </c>
+      <c r="C565" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D565" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E565" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 11:10</t>
+        </is>
+      </c>
+      <c r="B566" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 11:20</t>
+        </is>
+      </c>
+      <c r="C566" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D566" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E566" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 11:20</t>
+        </is>
+      </c>
+      <c r="B567" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 11:30</t>
+        </is>
+      </c>
+      <c r="C567" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D567" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E567" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 11:30</t>
+        </is>
+      </c>
+      <c r="B568" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 11:40</t>
+        </is>
+      </c>
+      <c r="C568" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D568" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E568" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 11:40</t>
+        </is>
+      </c>
+      <c r="B569" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 11:50</t>
+        </is>
+      </c>
+      <c r="C569" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Compra</t>
+        </is>
+      </c>
+      <c r="D569" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E569" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 11:50</t>
+        </is>
+      </c>
+      <c r="B570" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 12:00</t>
+        </is>
+      </c>
+      <c r="C570" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Compra</t>
+        </is>
+      </c>
+      <c r="D570" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E570" s="3" t="n"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 12:00</t>
+        </is>
+      </c>
+      <c r="B571" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 12:10</t>
+        </is>
+      </c>
+      <c r="C571" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D571" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E571" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 12:10</t>
+        </is>
+      </c>
+      <c r="B572" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 12:20</t>
+        </is>
+      </c>
+      <c r="C572" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D572" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E572" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 12:20</t>
+        </is>
+      </c>
+      <c r="B573" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 12:30</t>
+        </is>
+      </c>
+      <c r="C573" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D573" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E573" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 12:30</t>
+        </is>
+      </c>
+      <c r="B574" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 12:40</t>
+        </is>
+      </c>
+      <c r="C574" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D574" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E574" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 12:40</t>
+        </is>
+      </c>
+      <c r="B575" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 12:50</t>
+        </is>
+      </c>
+      <c r="C575" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D575" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E575" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 12:50</t>
+        </is>
+      </c>
+      <c r="B576" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 13:00</t>
+        </is>
+      </c>
+      <c r="C576" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D576" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E576" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 13:00</t>
+        </is>
+      </c>
+      <c r="B577" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 13:10</t>
+        </is>
+      </c>
+      <c r="C577" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D577" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E577" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 13:10</t>
+        </is>
+      </c>
+      <c r="B578" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 13:20</t>
+        </is>
+      </c>
+      <c r="C578" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D578" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E578" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 13:20</t>
+        </is>
+      </c>
+      <c r="B579" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 13:30</t>
+        </is>
+      </c>
+      <c r="C579" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D579" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E579" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 13:30</t>
+        </is>
+      </c>
+      <c r="B580" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 13:40</t>
+        </is>
+      </c>
+      <c r="C580" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D580" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E580" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 13:40</t>
+        </is>
+      </c>
+      <c r="B581" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 13:50</t>
+        </is>
+      </c>
+      <c r="C581" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D581" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E581" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 13:50</t>
+        </is>
+      </c>
+      <c r="B582" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:00</t>
+        </is>
+      </c>
+      <c r="C582" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D582" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E582" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:00</t>
+        </is>
+      </c>
+      <c r="B583" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:10</t>
+        </is>
+      </c>
+      <c r="C583" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D583" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E583" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:10</t>
+        </is>
+      </c>
+      <c r="B584" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:20</t>
+        </is>
+      </c>
+      <c r="C584" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D584" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E584" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:20</t>
+        </is>
+      </c>
+      <c r="B585" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:30</t>
+        </is>
+      </c>
+      <c r="C585" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D585" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E585" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:30</t>
+        </is>
+      </c>
+      <c r="B586" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:40</t>
+        </is>
+      </c>
+      <c r="C586" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D586" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E586" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:40</t>
+        </is>
+      </c>
+      <c r="B587" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:50</t>
+        </is>
+      </c>
+      <c r="C587" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D587" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E587" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 14:50</t>
+        </is>
+      </c>
+      <c r="B588" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 15:00</t>
+        </is>
+      </c>
+      <c r="C588" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D588" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E588" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 15:00</t>
+        </is>
+      </c>
+      <c r="B589" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 15:10</t>
+        </is>
+      </c>
+      <c r="C589" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D589" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E589" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 15:10</t>
+        </is>
+      </c>
+      <c r="B590" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 15:20</t>
+        </is>
+      </c>
+      <c r="C590" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D590" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E590" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 15:20</t>
+        </is>
+      </c>
+      <c r="B591" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 15:30</t>
+        </is>
+      </c>
+      <c r="C591" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D591" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E591" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 15:30</t>
+        </is>
+      </c>
+      <c r="B592" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 15:40</t>
+        </is>
+      </c>
+      <c r="C592" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D592" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E592" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 15:40</t>
+        </is>
+      </c>
+      <c r="B593" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 15:50</t>
+        </is>
+      </c>
+      <c r="C593" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D593" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E593" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 15:50</t>
+        </is>
+      </c>
+      <c r="B594" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 16:00</t>
+        </is>
+      </c>
+      <c r="C594" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D594" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E594" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 16:00</t>
+        </is>
+      </c>
+      <c r="B595" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 16:10</t>
+        </is>
+      </c>
+      <c r="C595" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D595" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E595" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 16:10</t>
+        </is>
+      </c>
+      <c r="B596" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 16:20</t>
+        </is>
+      </c>
+      <c r="C596" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D596" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E596" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 16:20</t>
+        </is>
+      </c>
+      <c r="B597" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 16:30</t>
+        </is>
+      </c>
+      <c r="C597" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D597" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E597" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 16:30</t>
+        </is>
+      </c>
+      <c r="B598" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 16:40</t>
+        </is>
+      </c>
+      <c r="C598" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D598" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E598" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 16:40</t>
+        </is>
+      </c>
+      <c r="B599" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 16:50</t>
+        </is>
+      </c>
+      <c r="C599" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D599" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E599" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 16:50</t>
+        </is>
+      </c>
+      <c r="B600" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 17:00</t>
+        </is>
+      </c>
+      <c r="C600" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D600" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E600" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 17:00</t>
+        </is>
+      </c>
+      <c r="B601" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 17:10</t>
+        </is>
+      </c>
+      <c r="C601" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D601" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E601" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 17:10</t>
+        </is>
+      </c>
+      <c r="B602" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 17:20</t>
+        </is>
+      </c>
+      <c r="C602" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D602" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E602" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 17:20</t>
+        </is>
+      </c>
+      <c r="B603" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 17:30</t>
+        </is>
+      </c>
+      <c r="C603" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D603" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E603" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 17:30</t>
+        </is>
+      </c>
+      <c r="B604" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 17:40</t>
+        </is>
+      </c>
+      <c r="C604" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. AFIP</t>
+        </is>
+      </c>
+      <c r="D604" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E604" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 17:40</t>
+        </is>
+      </c>
+      <c r="B605" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 17:50</t>
+        </is>
+      </c>
+      <c r="C605" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D605" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E605" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 17:50</t>
+        </is>
+      </c>
+      <c r="B606" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 18:00</t>
+        </is>
+      </c>
+      <c r="C606" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D606" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E606" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 18:00</t>
+        </is>
+      </c>
+      <c r="B607" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 18:10</t>
+        </is>
+      </c>
+      <c r="C607" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D607" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E607" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 18:10</t>
+        </is>
+      </c>
+      <c r="B608" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 18:20</t>
+        </is>
+      </c>
+      <c r="C608" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D608" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E608" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 18:20</t>
+        </is>
+      </c>
+      <c r="B609" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 18:30</t>
+        </is>
+      </c>
+      <c r="C609" s="3" t="inlineStr">
+        <is>
+          <t>Relax. YouTube</t>
+        </is>
+      </c>
+      <c r="D609" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="E609" s="3" t="inlineStr">
+        <is>
+          <t>Me cebé</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 18:30</t>
+        </is>
+      </c>
+      <c r="B610" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 18:40</t>
+        </is>
+      </c>
+      <c r="C610" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D610" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E610" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 18:40</t>
+        </is>
+      </c>
+      <c r="B611" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 18:50</t>
+        </is>
+      </c>
+      <c r="C611" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D611" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E611" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 18:50</t>
+        </is>
+      </c>
+      <c r="B612" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 19:00</t>
+        </is>
+      </c>
+      <c r="C612" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D612" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E612" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 19:00</t>
+        </is>
+      </c>
+      <c r="B613" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 19:10</t>
+        </is>
+      </c>
+      <c r="C613" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D613" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E613" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 19:10</t>
+        </is>
+      </c>
+      <c r="B614" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 19:20</t>
+        </is>
+      </c>
+      <c r="C614" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D614" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E614" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 19:20</t>
+        </is>
+      </c>
+      <c r="B615" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 19:30</t>
+        </is>
+      </c>
+      <c r="C615" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D615" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E615" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 19:30</t>
+        </is>
+      </c>
+      <c r="B616" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 19:40</t>
+        </is>
+      </c>
+      <c r="C616" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="D616" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E616" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 19:40</t>
+        </is>
+      </c>
+      <c r="B617" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 19:50</t>
+        </is>
+      </c>
+      <c r="C617" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D617" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="E617" s="3" t="inlineStr">
+        <is>
+          <t>Me cebé</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 19:50</t>
+        </is>
+      </c>
+      <c r="B618" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 20:00</t>
+        </is>
+      </c>
+      <c r="C618" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cagar</t>
+        </is>
+      </c>
+      <c r="D618" s="3" t="inlineStr">
+        <is>
+          <t>Code. ChatGPT</t>
+        </is>
+      </c>
+      <c r="E618" s="3" t="inlineStr">
+        <is>
+          <t>Estoy cebadazo</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 20:00</t>
+        </is>
+      </c>
+      <c r="B619" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 20:10</t>
+        </is>
+      </c>
+      <c r="C619" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cagar</t>
+        </is>
+      </c>
+      <c r="D619" s="3" t="inlineStr">
+        <is>
+          <t>Relax. TyC Sports</t>
+        </is>
+      </c>
+      <c r="E619" s="3" t="inlineStr">
+        <is>
+          <t>Soy vago</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 20:10</t>
+        </is>
+      </c>
+      <c r="B620" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 20:20</t>
+        </is>
+      </c>
+      <c r="C620" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cagar</t>
+        </is>
+      </c>
+      <c r="D620" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E620" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 20:20</t>
+        </is>
+      </c>
+      <c r="B621" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 20:30</t>
+        </is>
+      </c>
+      <c r="C621" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Platos</t>
+        </is>
+      </c>
+      <c r="D621" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E621" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 23:30</t>
+        </is>
+      </c>
+      <c r="B622" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 23:40</t>
+        </is>
+      </c>
+      <c r="C622" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D622" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E622" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 23:40</t>
+        </is>
+      </c>
+      <c r="B623" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 23:50</t>
+        </is>
+      </c>
+      <c r="C623" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D623" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E623" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-13 23:50</t>
+        </is>
+      </c>
+      <c r="B624" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 00:00</t>
+        </is>
+      </c>
+      <c r="C624" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D624" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E624" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 00:00</t>
+        </is>
+      </c>
+      <c r="B625" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 00:10</t>
+        </is>
+      </c>
+      <c r="C625" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D625" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E625" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 00:10</t>
+        </is>
+      </c>
+      <c r="B626" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 00:20</t>
+        </is>
+      </c>
+      <c r="C626" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D626" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E626" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 00:20</t>
+        </is>
+      </c>
+      <c r="B627" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 00:30</t>
+        </is>
+      </c>
+      <c r="C627" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D627" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E627" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 00:30</t>
+        </is>
+      </c>
+      <c r="B628" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 00:40</t>
+        </is>
+      </c>
+      <c r="C628" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D628" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E628" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 00:40</t>
+        </is>
+      </c>
+      <c r="B629" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 00:50</t>
+        </is>
+      </c>
+      <c r="C629" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D629" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E629" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 00:50</t>
+        </is>
+      </c>
+      <c r="B630" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 01:00</t>
+        </is>
+      </c>
+      <c r="C630" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Ajedrez</t>
+        </is>
+      </c>
+      <c r="D630" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E630" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 01:00</t>
+        </is>
+      </c>
+      <c r="B631" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 01:10</t>
+        </is>
+      </c>
+      <c r="C631" s="3" t="inlineStr">
+        <is>
+          <t>Relax. GitHub</t>
+        </is>
+      </c>
+      <c r="D631" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E631" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 01:10</t>
+        </is>
+      </c>
+      <c r="B632" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 01:20</t>
+        </is>
+      </c>
+      <c r="C632" s="3" t="inlineStr">
+        <is>
+          <t>Relax. GitHub</t>
+        </is>
+      </c>
+      <c r="D632" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E632" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 01:20</t>
+        </is>
+      </c>
+      <c r="B633" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 01:30</t>
+        </is>
+      </c>
+      <c r="C633" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D633" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E633" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 01:30</t>
+        </is>
+      </c>
+      <c r="B634" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 01:40</t>
+        </is>
+      </c>
+      <c r="C634" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D634" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E634" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 01:40</t>
+        </is>
+      </c>
+      <c r="B635" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 01:50</t>
+        </is>
+      </c>
+      <c r="C635" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D635" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E635" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 01:50</t>
+        </is>
+      </c>
+      <c r="B636" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 02:00</t>
+        </is>
+      </c>
+      <c r="C636" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D636" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E636" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 07:50</t>
+        </is>
+      </c>
+      <c r="B637" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 08:00</t>
+        </is>
+      </c>
+      <c r="C637" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Starter</t>
+        </is>
+      </c>
+      <c r="D637" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E637" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 08:00</t>
+        </is>
+      </c>
+      <c r="B638" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 08:10</t>
+        </is>
+      </c>
+      <c r="C638" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Dientes</t>
+        </is>
+      </c>
+      <c r="D638" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E638" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 08:10</t>
+        </is>
+      </c>
+      <c r="B639" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 08:20</t>
+        </is>
+      </c>
+      <c r="C639" s="3" t="inlineStr">
+        <is>
+          <t>Plan. Día</t>
+        </is>
+      </c>
+      <c r="D639" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E639" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 08:20</t>
+        </is>
+      </c>
+      <c r="B640" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 08:30</t>
+        </is>
+      </c>
+      <c r="C640" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D640" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E640" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 08:30</t>
+        </is>
+      </c>
+      <c r="B641" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 08:40</t>
+        </is>
+      </c>
+      <c r="C641" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D641" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E641" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 08:40</t>
+        </is>
+      </c>
+      <c r="B642" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 08:50</t>
+        </is>
+      </c>
+      <c r="C642" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D642" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E642" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 08:50</t>
+        </is>
+      </c>
+      <c r="B643" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 09:00</t>
+        </is>
+      </c>
+      <c r="C643" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D643" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E643" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 09:00</t>
+        </is>
+      </c>
+      <c r="B644" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 09:10</t>
+        </is>
+      </c>
+      <c r="C644" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D644" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E644" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 09:10</t>
+        </is>
+      </c>
+      <c r="B645" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 09:20</t>
+        </is>
+      </c>
+      <c r="C645" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D645" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E645" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 09:20</t>
+        </is>
+      </c>
+      <c r="B646" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 09:30</t>
+        </is>
+      </c>
+      <c r="C646" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D646" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E646" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 09:30</t>
+        </is>
+      </c>
+      <c r="B647" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 09:40</t>
+        </is>
+      </c>
+      <c r="C647" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D647" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E647" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 09:40</t>
+        </is>
+      </c>
+      <c r="B648" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 09:50</t>
+        </is>
+      </c>
+      <c r="C648" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D648" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E648" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 09:50</t>
+        </is>
+      </c>
+      <c r="B649" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 10:00</t>
+        </is>
+      </c>
+      <c r="C649" s="3" t="inlineStr">
+        <is>
+          <t>Práctico. Datos</t>
+        </is>
+      </c>
+      <c r="D649" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E649" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 10:00</t>
+        </is>
+      </c>
+      <c r="B650" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 10:10</t>
+        </is>
+      </c>
+      <c r="C650" s="3" t="inlineStr">
+        <is>
+          <t>Práctico. Datos</t>
+        </is>
+      </c>
+      <c r="D650" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E650" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 10:10</t>
+        </is>
+      </c>
+      <c r="B651" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 10:20</t>
+        </is>
+      </c>
+      <c r="C651" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D651" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E651" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 10:20</t>
+        </is>
+      </c>
+      <c r="B652" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 10:30</t>
+        </is>
+      </c>
+      <c r="C652" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D652" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E652" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 10:30</t>
+        </is>
+      </c>
+      <c r="B653" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 10:40</t>
+        </is>
+      </c>
+      <c r="C653" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D653" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E653" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 10:40</t>
+        </is>
+      </c>
+      <c r="B654" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 10:50</t>
+        </is>
+      </c>
+      <c r="C654" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D654" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E654" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 10:50</t>
+        </is>
+      </c>
+      <c r="B655" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 11:00</t>
+        </is>
+      </c>
+      <c r="C655" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D655" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E655" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 11:00</t>
+        </is>
+      </c>
+      <c r="B656" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 11:10</t>
+        </is>
+      </c>
+      <c r="C656" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D656" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E656" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 11:10</t>
+        </is>
+      </c>
+      <c r="B657" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 11:20</t>
+        </is>
+      </c>
+      <c r="C657" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D657" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E657" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 11:20</t>
+        </is>
+      </c>
+      <c r="B658" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 11:30</t>
+        </is>
+      </c>
+      <c r="C658" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D658" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E658" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 11:30</t>
+        </is>
+      </c>
+      <c r="B659" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 11:40</t>
+        </is>
+      </c>
+      <c r="C659" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D659" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E659" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 11:40</t>
+        </is>
+      </c>
+      <c r="B660" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 11:50</t>
+        </is>
+      </c>
+      <c r="C660" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D660" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E660" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 11:50</t>
+        </is>
+      </c>
+      <c r="B661" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 12:00</t>
+        </is>
+      </c>
+      <c r="C661" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D661" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E661" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 12:00</t>
+        </is>
+      </c>
+      <c r="B662" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 12:10</t>
+        </is>
+      </c>
+      <c r="C662" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D662" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E662" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 12:10</t>
+        </is>
+      </c>
+      <c r="B663" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 12:20</t>
+        </is>
+      </c>
+      <c r="C663" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D663" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E663" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 12:20</t>
+        </is>
+      </c>
+      <c r="B664" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 12:30</t>
+        </is>
+      </c>
+      <c r="C664" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D664" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E664" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 12:30</t>
+        </is>
+      </c>
+      <c r="B665" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 12:40</t>
+        </is>
+      </c>
+      <c r="C665" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cocinar</t>
+        </is>
+      </c>
+      <c r="D665" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E665" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 12:40</t>
+        </is>
+      </c>
+      <c r="B666" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 12:50</t>
+        </is>
+      </c>
+      <c r="C666" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D666" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E666" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 12:50</t>
+        </is>
+      </c>
+      <c r="B667" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 13:00</t>
+        </is>
+      </c>
+      <c r="C667" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Comer</t>
+        </is>
+      </c>
+      <c r="D667" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E667" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 13:00</t>
+        </is>
+      </c>
+      <c r="B668" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 13:10</t>
+        </is>
+      </c>
+      <c r="C668" s="3" t="inlineStr">
+        <is>
+          <t>Relax. YouTube</t>
+        </is>
+      </c>
+      <c r="D668" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E668" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 13:10</t>
+        </is>
+      </c>
+      <c r="B669" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 13:20</t>
+        </is>
+      </c>
+      <c r="C669" s="3" t="inlineStr">
+        <is>
+          <t>Relax. YouTube</t>
+        </is>
+      </c>
+      <c r="D669" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E669" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 13:20</t>
+        </is>
+      </c>
+      <c r="B670" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 13:30</t>
+        </is>
+      </c>
+      <c r="C670" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D670" s="3" t="inlineStr">
+        <is>
+          <t>Relax. YouTube</t>
+        </is>
+      </c>
+      <c r="E670" s="3" t="n"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 13:30</t>
+        </is>
+      </c>
+      <c r="B671" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 13:40</t>
+        </is>
+      </c>
+      <c r="C671" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D671" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E671" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 13:40</t>
+        </is>
+      </c>
+      <c r="B672" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 13:50</t>
+        </is>
+      </c>
+      <c r="C672" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D672" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E672" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 13:50</t>
+        </is>
+      </c>
+      <c r="B673" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 14:00</t>
+        </is>
+      </c>
+      <c r="C673" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D673" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E673" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 14:00</t>
+        </is>
+      </c>
+      <c r="B674" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 14:10</t>
+        </is>
+      </c>
+      <c r="C674" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D674" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E674" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 14:10</t>
+        </is>
+      </c>
+      <c r="B675" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 14:20</t>
+        </is>
+      </c>
+      <c r="C675" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D675" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E675" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 14:20</t>
+        </is>
+      </c>
+      <c r="B676" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 14:30</t>
+        </is>
+      </c>
+      <c r="C676" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D676" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E676" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 14:30</t>
+        </is>
+      </c>
+      <c r="B677" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 14:40</t>
+        </is>
+      </c>
+      <c r="C677" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D677" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E677" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 14:40</t>
+        </is>
+      </c>
+      <c r="B678" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 14:50</t>
+        </is>
+      </c>
+      <c r="C678" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D678" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E678" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 14:50</t>
+        </is>
+      </c>
+      <c r="B679" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 15:00</t>
+        </is>
+      </c>
+      <c r="C679" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D679" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E679" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 15:00</t>
+        </is>
+      </c>
+      <c r="B680" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 15:10</t>
+        </is>
+      </c>
+      <c r="C680" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D680" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E680" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 15:10</t>
+        </is>
+      </c>
+      <c r="B681" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 15:20</t>
+        </is>
+      </c>
+      <c r="C681" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D681" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E681" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 15:20</t>
+        </is>
+      </c>
+      <c r="B682" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 15:30</t>
+        </is>
+      </c>
+      <c r="C682" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D682" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E682" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 15:30</t>
+        </is>
+      </c>
+      <c r="B683" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 15:40</t>
+        </is>
+      </c>
+      <c r="C683" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D683" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E683" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 15:40</t>
+        </is>
+      </c>
+      <c r="B684" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 15:50</t>
+        </is>
+      </c>
+      <c r="C684" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D684" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E684" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 15:50</t>
+        </is>
+      </c>
+      <c r="B685" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 16:00</t>
+        </is>
+      </c>
+      <c r="C685" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D685" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E685" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 16:00</t>
+        </is>
+      </c>
+      <c r="B686" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 16:10</t>
+        </is>
+      </c>
+      <c r="C686" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D686" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E686" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 16:10</t>
+        </is>
+      </c>
+      <c r="B687" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 16:20</t>
+        </is>
+      </c>
+      <c r="C687" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D687" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E687" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 16:20</t>
+        </is>
+      </c>
+      <c r="B688" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 16:30</t>
+        </is>
+      </c>
+      <c r="C688" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D688" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E688" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 16:30</t>
+        </is>
+      </c>
+      <c r="B689" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 16:40</t>
+        </is>
+      </c>
+      <c r="C689" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D689" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E689" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 16:40</t>
+        </is>
+      </c>
+      <c r="B690" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 16:50</t>
+        </is>
+      </c>
+      <c r="C690" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D690" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E690" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 16:50</t>
+        </is>
+      </c>
+      <c r="B691" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 17:00</t>
+        </is>
+      </c>
+      <c r="C691" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D691" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E691" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 17:00</t>
+        </is>
+      </c>
+      <c r="B692" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 17:10</t>
+        </is>
+      </c>
+      <c r="C692" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D692" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E692" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 17:10</t>
+        </is>
+      </c>
+      <c r="B693" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 17:20</t>
+        </is>
+      </c>
+      <c r="C693" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D693" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E693" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 17:20</t>
+        </is>
+      </c>
+      <c r="B694" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 17:30</t>
+        </is>
+      </c>
+      <c r="C694" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D694" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E694" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 17:30</t>
+        </is>
+      </c>
+      <c r="B695" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 17:40</t>
+        </is>
+      </c>
+      <c r="C695" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D695" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E695" s="3" t="n"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 17:40</t>
+        </is>
+      </c>
+      <c r="B696" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 17:50</t>
+        </is>
+      </c>
+      <c r="C696" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D696" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E696" s="3" t="n"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 17:50</t>
+        </is>
+      </c>
+      <c r="B697" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 18:00</t>
+        </is>
+      </c>
+      <c r="C697" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D697" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E697" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 18:00</t>
+        </is>
+      </c>
+      <c r="B698" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 18:10</t>
+        </is>
+      </c>
+      <c r="C698" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D698" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E698" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 18:10</t>
+        </is>
+      </c>
+      <c r="B699" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 18:20</t>
+        </is>
+      </c>
+      <c r="C699" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D699" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E699" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 18:20</t>
+        </is>
+      </c>
+      <c r="B700" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 18:30</t>
+        </is>
+      </c>
+      <c r="C700" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D700" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E700" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 18:30</t>
+        </is>
+      </c>
+      <c r="B701" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 18:40</t>
+        </is>
+      </c>
+      <c r="C701" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D701" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E701" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 18:40</t>
+        </is>
+      </c>
+      <c r="B702" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 18:50</t>
+        </is>
+      </c>
+      <c r="C702" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D702" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E702" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 18:50</t>
+        </is>
+      </c>
+      <c r="B703" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 19:00</t>
+        </is>
+      </c>
+      <c r="C703" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D703" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E703" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 19:00</t>
+        </is>
+      </c>
+      <c r="B704" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 19:10</t>
+        </is>
+      </c>
+      <c r="C704" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D704" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E704" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 19:10</t>
+        </is>
+      </c>
+      <c r="B705" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 19:20</t>
+        </is>
+      </c>
+      <c r="C705" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D705" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E705" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 19:20</t>
+        </is>
+      </c>
+      <c r="B706" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 19:30</t>
+        </is>
+      </c>
+      <c r="C706" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Platos</t>
+        </is>
+      </c>
+      <c r="D706" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E706" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 19:30</t>
+        </is>
+      </c>
+      <c r="B707" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 19:40</t>
+        </is>
+      </c>
+      <c r="C707" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D707" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E707" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 19:40</t>
+        </is>
+      </c>
+      <c r="B708" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 19:50</t>
+        </is>
+      </c>
+      <c r="C708" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D708" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E708" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E508"/>
+  <autoFilter ref="A1:E708"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Periods.xlsx
+++ b/Periods.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$708</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$912</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E708"/>
+  <dimension ref="A1:E912"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19503,7 +19503,7 @@
       </c>
       <c r="D708" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E708" s="3" t="inlineStr">
@@ -19512,8 +19512,5452 @@
         </is>
       </c>
     </row>
+    <row r="709">
+      <c r="A709" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 19:50</t>
+        </is>
+      </c>
+      <c r="B709" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 20:00</t>
+        </is>
+      </c>
+      <c r="C709" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Ducha</t>
+        </is>
+      </c>
+      <c r="D709" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E709" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 20:00</t>
+        </is>
+      </c>
+      <c r="B710" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 20:10</t>
+        </is>
+      </c>
+      <c r="C710" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Ducha</t>
+        </is>
+      </c>
+      <c r="D710" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E710" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 20:10</t>
+        </is>
+      </c>
+      <c r="B711" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 20:20</t>
+        </is>
+      </c>
+      <c r="C711" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Ducha</t>
+        </is>
+      </c>
+      <c r="D711" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E711" s="3" t="n"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 20:20</t>
+        </is>
+      </c>
+      <c r="B712" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 20:30</t>
+        </is>
+      </c>
+      <c r="C712" s="3" t="inlineStr">
+        <is>
+          <t>Relax. WhatsApp</t>
+        </is>
+      </c>
+      <c r="D712" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E712" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 20:30</t>
+        </is>
+      </c>
+      <c r="B713" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 20:40</t>
+        </is>
+      </c>
+      <c r="C713" s="3" t="inlineStr">
+        <is>
+          <t>Code. Asker</t>
+        </is>
+      </c>
+      <c r="D713" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E713" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 20:40</t>
+        </is>
+      </c>
+      <c r="B714" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 20:50</t>
+        </is>
+      </c>
+      <c r="C714" s="3" t="inlineStr">
+        <is>
+          <t>Code. Asker</t>
+        </is>
+      </c>
+      <c r="D714" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E714" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 20:50</t>
+        </is>
+      </c>
+      <c r="B715" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 21:00</t>
+        </is>
+      </c>
+      <c r="C715" s="3" t="inlineStr">
+        <is>
+          <t>Code. Asker</t>
+        </is>
+      </c>
+      <c r="D715" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E715" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 21:00</t>
+        </is>
+      </c>
+      <c r="B716" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 21:10</t>
+        </is>
+      </c>
+      <c r="C716" s="3" t="inlineStr">
+        <is>
+          <t>Code. Asker</t>
+        </is>
+      </c>
+      <c r="D716" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E716" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 21:10</t>
+        </is>
+      </c>
+      <c r="B717" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-14 21:20</t>
+        </is>
+      </c>
+      <c r="C717" s="3" t="inlineStr">
+        <is>
+          <t>Code. Asker</t>
+        </is>
+      </c>
+      <c r="D717" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E717" s="3" t="n"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-15 00:40</t>
+        </is>
+      </c>
+      <c r="B718" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-15 00:50</t>
+        </is>
+      </c>
+      <c r="C718" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D718" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E718" s="3" t="n"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-15 00:50</t>
+        </is>
+      </c>
+      <c r="B719" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-15 01:00</t>
+        </is>
+      </c>
+      <c r="C719" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D719" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E719" s="3" t="n"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-15 01:00</t>
+        </is>
+      </c>
+      <c r="B720" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-15 01:10</t>
+        </is>
+      </c>
+      <c r="C720" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D720" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E720" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-15 06:20</t>
+        </is>
+      </c>
+      <c r="B721" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-15 06:30</t>
+        </is>
+      </c>
+      <c r="C721" s="3" t="inlineStr">
+        <is>
+          <t>Escribir. Triple D</t>
+        </is>
+      </c>
+      <c r="D721" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E721" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-15 06:30</t>
+        </is>
+      </c>
+      <c r="B722" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-15 06:40</t>
+        </is>
+      </c>
+      <c r="C722" s="3" t="inlineStr">
+        <is>
+          <t>Code. Asker</t>
+        </is>
+      </c>
+      <c r="D722" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E722" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-15 06:40</t>
+        </is>
+      </c>
+      <c r="B723" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-15 06:50</t>
+        </is>
+      </c>
+      <c r="C723" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Café</t>
+        </is>
+      </c>
+      <c r="D723" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E723" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-15 23:20</t>
+        </is>
+      </c>
+      <c r="B724" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-15 23:30</t>
+        </is>
+      </c>
+      <c r="C724" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D724" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E724" s="3" t="n"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-15 23:30</t>
+        </is>
+      </c>
+      <c r="B725" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-15 23:40</t>
+        </is>
+      </c>
+      <c r="C725" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D725" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E725" s="3" t="n"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-15 23:40</t>
+        </is>
+      </c>
+      <c r="B726" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-15 23:50</t>
+        </is>
+      </c>
+      <c r="C726" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D726" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E726" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 08:30</t>
+        </is>
+      </c>
+      <c r="B727" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 08:40</t>
+        </is>
+      </c>
+      <c r="C727" s="3" t="inlineStr">
+        <is>
+          <t>Plan. Día</t>
+        </is>
+      </c>
+      <c r="D727" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E727" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 08:40</t>
+        </is>
+      </c>
+      <c r="B728" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 08:50</t>
+        </is>
+      </c>
+      <c r="C728" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. NFI</t>
+        </is>
+      </c>
+      <c r="D728" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E728" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 08:50</t>
+        </is>
+      </c>
+      <c r="B729" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 09:00</t>
+        </is>
+      </c>
+      <c r="C729" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. NFI</t>
+        </is>
+      </c>
+      <c r="D729" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E729" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 09:00</t>
+        </is>
+      </c>
+      <c r="B730" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 09:10</t>
+        </is>
+      </c>
+      <c r="C730" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. NFI</t>
+        </is>
+      </c>
+      <c r="D730" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E730" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 09:10</t>
+        </is>
+      </c>
+      <c r="B731" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 09:20</t>
+        </is>
+      </c>
+      <c r="C731" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. NFI</t>
+        </is>
+      </c>
+      <c r="D731" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E731" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 09:20</t>
+        </is>
+      </c>
+      <c r="B732" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 09:30</t>
+        </is>
+      </c>
+      <c r="C732" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. NFI</t>
+        </is>
+      </c>
+      <c r="D732" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E732" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 09:30</t>
+        </is>
+      </c>
+      <c r="B733" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 09:40</t>
+        </is>
+      </c>
+      <c r="C733" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. NFI</t>
+        </is>
+      </c>
+      <c r="D733" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E733" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 09:40</t>
+        </is>
+      </c>
+      <c r="B734" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 09:50</t>
+        </is>
+      </c>
+      <c r="C734" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D734" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E734" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 09:50</t>
+        </is>
+      </c>
+      <c r="B735" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 10:00</t>
+        </is>
+      </c>
+      <c r="C735" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D735" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E735" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 10:00</t>
+        </is>
+      </c>
+      <c r="B736" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 10:10</t>
+        </is>
+      </c>
+      <c r="C736" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. NFI</t>
+        </is>
+      </c>
+      <c r="D736" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E736" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 10:10</t>
+        </is>
+      </c>
+      <c r="B737" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 10:20</t>
+        </is>
+      </c>
+      <c r="C737" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. NFI</t>
+        </is>
+      </c>
+      <c r="D737" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E737" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 10:20</t>
+        </is>
+      </c>
+      <c r="B738" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 10:30</t>
+        </is>
+      </c>
+      <c r="C738" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. NFI</t>
+        </is>
+      </c>
+      <c r="D738" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E738" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 10:30</t>
+        </is>
+      </c>
+      <c r="B739" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 10:40</t>
+        </is>
+      </c>
+      <c r="C739" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Café</t>
+        </is>
+      </c>
+      <c r="D739" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E739" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 10:40</t>
+        </is>
+      </c>
+      <c r="B740" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 10:50</t>
+        </is>
+      </c>
+      <c r="C740" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. NFI</t>
+        </is>
+      </c>
+      <c r="D740" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E740" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 10:50</t>
+        </is>
+      </c>
+      <c r="B741" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 11:00</t>
+        </is>
+      </c>
+      <c r="C741" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. NFI</t>
+        </is>
+      </c>
+      <c r="D741" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E741" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 11:00</t>
+        </is>
+      </c>
+      <c r="B742" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 11:10</t>
+        </is>
+      </c>
+      <c r="C742" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. NFI</t>
+        </is>
+      </c>
+      <c r="D742" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E742" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 11:10</t>
+        </is>
+      </c>
+      <c r="B743" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 11:20</t>
+        </is>
+      </c>
+      <c r="C743" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. NFI</t>
+        </is>
+      </c>
+      <c r="D743" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E743" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 11:20</t>
+        </is>
+      </c>
+      <c r="B744" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 11:30</t>
+        </is>
+      </c>
+      <c r="C744" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. NFI</t>
+        </is>
+      </c>
+      <c r="D744" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E744" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 11:30</t>
+        </is>
+      </c>
+      <c r="B745" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 11:40</t>
+        </is>
+      </c>
+      <c r="C745" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. NFI</t>
+        </is>
+      </c>
+      <c r="D745" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E745" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 11:40</t>
+        </is>
+      </c>
+      <c r="B746" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 11:50</t>
+        </is>
+      </c>
+      <c r="C746" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D746" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E746" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 11:50</t>
+        </is>
+      </c>
+      <c r="B747" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 12:00</t>
+        </is>
+      </c>
+      <c r="C747" s="3" t="inlineStr">
+        <is>
+          <t>Social. Mensajes</t>
+        </is>
+      </c>
+      <c r="D747" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E747" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 17:50</t>
+        </is>
+      </c>
+      <c r="B748" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 18:00</t>
+        </is>
+      </c>
+      <c r="C748" s="3" t="inlineStr">
+        <is>
+          <t>Social. Mensajes</t>
+        </is>
+      </c>
+      <c r="D748" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E748" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 18:00</t>
+        </is>
+      </c>
+      <c r="B749" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 18:10</t>
+        </is>
+      </c>
+      <c r="C749" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D749" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E749" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 18:10</t>
+        </is>
+      </c>
+      <c r="B750" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-16 18:20</t>
+        </is>
+      </c>
+      <c r="C750" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D750" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E750" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-17 13:00</t>
+        </is>
+      </c>
+      <c r="B751" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-17 13:10</t>
+        </is>
+      </c>
+      <c r="C751" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D751" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E751" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-18 00:00</t>
+        </is>
+      </c>
+      <c r="B752" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-18 00:10</t>
+        </is>
+      </c>
+      <c r="C752" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D752" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E752" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-18 00:10</t>
+        </is>
+      </c>
+      <c r="B753" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-18 00:20</t>
+        </is>
+      </c>
+      <c r="C753" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D753" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E753" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-18 00:20</t>
+        </is>
+      </c>
+      <c r="B754" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-18 00:30</t>
+        </is>
+      </c>
+      <c r="C754" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D754" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E754" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-18 00:30</t>
+        </is>
+      </c>
+      <c r="B755" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-18 00:40</t>
+        </is>
+      </c>
+      <c r="C755" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D755" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E755" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-18 00:40</t>
+        </is>
+      </c>
+      <c r="B756" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-18 00:50</t>
+        </is>
+      </c>
+      <c r="C756" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D756" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E756" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-18 00:50</t>
+        </is>
+      </c>
+      <c r="B757" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-18 01:00</t>
+        </is>
+      </c>
+      <c r="C757" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D757" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E757" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-18 23:20</t>
+        </is>
+      </c>
+      <c r="B758" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-18 23:30</t>
+        </is>
+      </c>
+      <c r="C758" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D758" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E758" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-18 23:30</t>
+        </is>
+      </c>
+      <c r="B759" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-18 23:40</t>
+        </is>
+      </c>
+      <c r="C759" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D759" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E759" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-18 23:40</t>
+        </is>
+      </c>
+      <c r="B760" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-18 23:50</t>
+        </is>
+      </c>
+      <c r="C760" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D760" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E760" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-18 23:50</t>
+        </is>
+      </c>
+      <c r="B761" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 00:00</t>
+        </is>
+      </c>
+      <c r="C761" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D761" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E761" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 00:00</t>
+        </is>
+      </c>
+      <c r="B762" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 00:10</t>
+        </is>
+      </c>
+      <c r="C762" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D762" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E762" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 00:10</t>
+        </is>
+      </c>
+      <c r="B763" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 00:20</t>
+        </is>
+      </c>
+      <c r="C763" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D763" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E763" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 00:20</t>
+        </is>
+      </c>
+      <c r="B764" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 00:30</t>
+        </is>
+      </c>
+      <c r="C764" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D764" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E764" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 00:30</t>
+        </is>
+      </c>
+      <c r="B765" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 00:40</t>
+        </is>
+      </c>
+      <c r="C765" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D765" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E765" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 00:40</t>
+        </is>
+      </c>
+      <c r="B766" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 00:50</t>
+        </is>
+      </c>
+      <c r="C766" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D766" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E766" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 00:50</t>
+        </is>
+      </c>
+      <c r="B767" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 01:00</t>
+        </is>
+      </c>
+      <c r="C767" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D767" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E767" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 18:10</t>
+        </is>
+      </c>
+      <c r="B768" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 18:20</t>
+        </is>
+      </c>
+      <c r="C768" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cocinar</t>
+        </is>
+      </c>
+      <c r="D768" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E768" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 18:20</t>
+        </is>
+      </c>
+      <c r="B769" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 18:30</t>
+        </is>
+      </c>
+      <c r="C769" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Comer</t>
+        </is>
+      </c>
+      <c r="D769" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E769" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 18:30</t>
+        </is>
+      </c>
+      <c r="B770" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 18:40</t>
+        </is>
+      </c>
+      <c r="C770" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Comer</t>
+        </is>
+      </c>
+      <c r="D770" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E770" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 18:40</t>
+        </is>
+      </c>
+      <c r="B771" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 18:50</t>
+        </is>
+      </c>
+      <c r="C771" s="3" t="inlineStr">
+        <is>
+          <t>Relax. YouTube</t>
+        </is>
+      </c>
+      <c r="D771" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E771" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 18:50</t>
+        </is>
+      </c>
+      <c r="B772" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 19:00</t>
+        </is>
+      </c>
+      <c r="C772" s="3" t="inlineStr">
+        <is>
+          <t>Code. Actracker</t>
+        </is>
+      </c>
+      <c r="D772" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="E772" s="3" t="inlineStr">
+        <is>
+          <t>Estoy cansado</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 19:00</t>
+        </is>
+      </c>
+      <c r="B773" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 19:10</t>
+        </is>
+      </c>
+      <c r="C773" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Terras do sem fim</t>
+        </is>
+      </c>
+      <c r="D773" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E773" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 19:10</t>
+        </is>
+      </c>
+      <c r="B774" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 19:20</t>
+        </is>
+      </c>
+      <c r="C774" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Terras do sem fim</t>
+        </is>
+      </c>
+      <c r="D774" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E774" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 19:20</t>
+        </is>
+      </c>
+      <c r="B775" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 19:30</t>
+        </is>
+      </c>
+      <c r="C775" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libros</t>
+        </is>
+      </c>
+      <c r="D775" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E775" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 19:30</t>
+        </is>
+      </c>
+      <c r="B776" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 19:40</t>
+        </is>
+      </c>
+      <c r="C776" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libros</t>
+        </is>
+      </c>
+      <c r="D776" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E776" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 19:40</t>
+        </is>
+      </c>
+      <c r="B777" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 19:50</t>
+        </is>
+      </c>
+      <c r="C777" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libros</t>
+        </is>
+      </c>
+      <c r="D777" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E777" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 19:50</t>
+        </is>
+      </c>
+      <c r="B778" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 20:00</t>
+        </is>
+      </c>
+      <c r="C778" s="3" t="inlineStr">
+        <is>
+          <t>Dormir</t>
+        </is>
+      </c>
+      <c r="D778" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="E778" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 20:00</t>
+        </is>
+      </c>
+      <c r="B779" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 20:10</t>
+        </is>
+      </c>
+      <c r="C779" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cagar</t>
+        </is>
+      </c>
+      <c r="D779" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E779" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 20:20</t>
+        </is>
+      </c>
+      <c r="B780" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 20:30</t>
+        </is>
+      </c>
+      <c r="C780" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D780" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E780" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 20:30</t>
+        </is>
+      </c>
+      <c r="B781" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 20:40</t>
+        </is>
+      </c>
+      <c r="C781" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D781" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E781" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 20:40</t>
+        </is>
+      </c>
+      <c r="B782" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 20:50</t>
+        </is>
+      </c>
+      <c r="C782" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D782" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E782" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 20:50</t>
+        </is>
+      </c>
+      <c r="B783" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 21:00</t>
+        </is>
+      </c>
+      <c r="C783" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D783" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E783" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 21:00</t>
+        </is>
+      </c>
+      <c r="B784" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 21:10</t>
+        </is>
+      </c>
+      <c r="C784" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D784" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E784" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 21:10</t>
+        </is>
+      </c>
+      <c r="B785" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 21:20</t>
+        </is>
+      </c>
+      <c r="C785" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D785" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E785" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 21:20</t>
+        </is>
+      </c>
+      <c r="B786" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 21:30</t>
+        </is>
+      </c>
+      <c r="C786" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D786" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E786" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 21:30</t>
+        </is>
+      </c>
+      <c r="B787" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 21:40</t>
+        </is>
+      </c>
+      <c r="C787" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D787" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E787" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 21:40</t>
+        </is>
+      </c>
+      <c r="B788" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 21:50</t>
+        </is>
+      </c>
+      <c r="C788" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D788" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E788" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 21:50</t>
+        </is>
+      </c>
+      <c r="B789" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 22:00</t>
+        </is>
+      </c>
+      <c r="C789" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D789" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E789" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 22:00</t>
+        </is>
+      </c>
+      <c r="B790" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 22:10</t>
+        </is>
+      </c>
+      <c r="C790" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D790" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E790" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 22:10</t>
+        </is>
+      </c>
+      <c r="B791" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 22:20</t>
+        </is>
+      </c>
+      <c r="C791" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D791" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E791" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 22:20</t>
+        </is>
+      </c>
+      <c r="B792" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 22:30</t>
+        </is>
+      </c>
+      <c r="C792" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D792" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E792" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 22:30</t>
+        </is>
+      </c>
+      <c r="B793" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 22:40</t>
+        </is>
+      </c>
+      <c r="C793" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D793" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E793" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 22:40</t>
+        </is>
+      </c>
+      <c r="B794" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 22:50</t>
+        </is>
+      </c>
+      <c r="C794" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D794" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E794" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 22:50</t>
+        </is>
+      </c>
+      <c r="B795" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 23:00</t>
+        </is>
+      </c>
+      <c r="C795" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D795" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E795" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 23:00</t>
+        </is>
+      </c>
+      <c r="B796" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 23:10</t>
+        </is>
+      </c>
+      <c r="C796" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D796" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E796" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 23:10</t>
+        </is>
+      </c>
+      <c r="B797" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 23:20</t>
+        </is>
+      </c>
+      <c r="C797" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D797" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E797" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 23:20</t>
+        </is>
+      </c>
+      <c r="B798" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 23:30</t>
+        </is>
+      </c>
+      <c r="C798" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D798" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E798" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 23:30</t>
+        </is>
+      </c>
+      <c r="B799" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 23:40</t>
+        </is>
+      </c>
+      <c r="C799" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D799" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E799" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 23:40</t>
+        </is>
+      </c>
+      <c r="B800" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 23:50</t>
+        </is>
+      </c>
+      <c r="C800" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D800" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E800" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-19 23:50</t>
+        </is>
+      </c>
+      <c r="B801" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 00:00</t>
+        </is>
+      </c>
+      <c r="C801" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D801" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E801" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 00:00</t>
+        </is>
+      </c>
+      <c r="B802" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 00:10</t>
+        </is>
+      </c>
+      <c r="C802" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D802" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E802" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 00:10</t>
+        </is>
+      </c>
+      <c r="B803" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 00:20</t>
+        </is>
+      </c>
+      <c r="C803" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D803" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E803" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 00:20</t>
+        </is>
+      </c>
+      <c r="B804" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 00:30</t>
+        </is>
+      </c>
+      <c r="C804" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D804" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E804" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 00:30</t>
+        </is>
+      </c>
+      <c r="B805" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 00:40</t>
+        </is>
+      </c>
+      <c r="C805" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D805" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E805" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 00:40</t>
+        </is>
+      </c>
+      <c r="B806" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 00:50</t>
+        </is>
+      </c>
+      <c r="C806" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D806" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E806" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 00:50</t>
+        </is>
+      </c>
+      <c r="B807" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 01:00</t>
+        </is>
+      </c>
+      <c r="C807" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D807" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E807" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 01:00</t>
+        </is>
+      </c>
+      <c r="B808" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 01:10</t>
+        </is>
+      </c>
+      <c r="C808" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D808" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E808" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 01:10</t>
+        </is>
+      </c>
+      <c r="B809" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 01:20</t>
+        </is>
+      </c>
+      <c r="C809" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D809" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E809" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 01:20</t>
+        </is>
+      </c>
+      <c r="B810" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 01:30</t>
+        </is>
+      </c>
+      <c r="C810" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D810" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E810" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 01:30</t>
+        </is>
+      </c>
+      <c r="B811" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 01:40</t>
+        </is>
+      </c>
+      <c r="C811" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D811" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E811" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 01:40</t>
+        </is>
+      </c>
+      <c r="B812" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 01:50</t>
+        </is>
+      </c>
+      <c r="C812" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D812" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E812" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 01:50</t>
+        </is>
+      </c>
+      <c r="B813" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 02:00</t>
+        </is>
+      </c>
+      <c r="C813" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D813" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E813" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 02:00</t>
+        </is>
+      </c>
+      <c r="B814" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 02:10</t>
+        </is>
+      </c>
+      <c r="C814" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D814" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E814" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 02:10</t>
+        </is>
+      </c>
+      <c r="B815" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 02:20</t>
+        </is>
+      </c>
+      <c r="C815" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D815" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E815" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 02:20</t>
+        </is>
+      </c>
+      <c r="B816" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 02:30</t>
+        </is>
+      </c>
+      <c r="C816" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D816" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E816" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 02:30</t>
+        </is>
+      </c>
+      <c r="B817" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 02:40</t>
+        </is>
+      </c>
+      <c r="C817" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D817" s="3" t="n"/>
+      <c r="E817" s="3" t="n"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 02:40</t>
+        </is>
+      </c>
+      <c r="B818" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 02:50</t>
+        </is>
+      </c>
+      <c r="C818" s="3" t="n"/>
+      <c r="D818" s="3" t="n"/>
+      <c r="E818" s="3" t="n"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 02:50</t>
+        </is>
+      </c>
+      <c r="B819" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00</t>
+        </is>
+      </c>
+      <c r="C819" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="D819" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E819" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:00</t>
+        </is>
+      </c>
+      <c r="B820" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10</t>
+        </is>
+      </c>
+      <c r="C820" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Comer</t>
+        </is>
+      </c>
+      <c r="D820" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E820" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:10</t>
+        </is>
+      </c>
+      <c r="B821" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:20</t>
+        </is>
+      </c>
+      <c r="C821" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D821" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E821" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:20</t>
+        </is>
+      </c>
+      <c r="B822" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:30</t>
+        </is>
+      </c>
+      <c r="C822" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D822" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E822" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:30</t>
+        </is>
+      </c>
+      <c r="B823" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:40</t>
+        </is>
+      </c>
+      <c r="C823" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D823" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E823" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:40</t>
+        </is>
+      </c>
+      <c r="B824" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:50</t>
+        </is>
+      </c>
+      <c r="C824" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D824" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E824" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 03:50</t>
+        </is>
+      </c>
+      <c r="B825" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 04:00</t>
+        </is>
+      </c>
+      <c r="C825" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D825" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E825" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 04:00</t>
+        </is>
+      </c>
+      <c r="B826" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 04:10</t>
+        </is>
+      </c>
+      <c r="C826" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D826" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E826" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 04:10</t>
+        </is>
+      </c>
+      <c r="B827" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 04:20</t>
+        </is>
+      </c>
+      <c r="C827" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D827" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E827" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 04:20</t>
+        </is>
+      </c>
+      <c r="B828" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 04:30</t>
+        </is>
+      </c>
+      <c r="C828" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D828" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E828" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 04:30</t>
+        </is>
+      </c>
+      <c r="B829" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 04:40</t>
+        </is>
+      </c>
+      <c r="C829" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D829" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E829" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 04:40</t>
+        </is>
+      </c>
+      <c r="B830" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 04:50</t>
+        </is>
+      </c>
+      <c r="C830" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D830" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E830" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 04:50</t>
+        </is>
+      </c>
+      <c r="B831" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 05:00</t>
+        </is>
+      </c>
+      <c r="C831" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D831" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E831" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 05:00</t>
+        </is>
+      </c>
+      <c r="B832" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 05:10</t>
+        </is>
+      </c>
+      <c r="C832" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D832" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E832" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 05:10</t>
+        </is>
+      </c>
+      <c r="B833" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 05:20</t>
+        </is>
+      </c>
+      <c r="C833" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D833" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E833" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 05:20</t>
+        </is>
+      </c>
+      <c r="B834" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 05:30</t>
+        </is>
+      </c>
+      <c r="C834" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D834" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E834" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 05:30</t>
+        </is>
+      </c>
+      <c r="B835" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 05:40</t>
+        </is>
+      </c>
+      <c r="C835" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D835" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E835" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 05:40</t>
+        </is>
+      </c>
+      <c r="B836" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 05:50</t>
+        </is>
+      </c>
+      <c r="C836" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D836" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E836" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 05:50</t>
+        </is>
+      </c>
+      <c r="B837" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 06:00</t>
+        </is>
+      </c>
+      <c r="C837" s="3" t="inlineStr">
+        <is>
+          <t>Plan. Dieta</t>
+        </is>
+      </c>
+      <c r="D837" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E837" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 06:00</t>
+        </is>
+      </c>
+      <c r="B838" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 06:10</t>
+        </is>
+      </c>
+      <c r="C838" s="3" t="inlineStr">
+        <is>
+          <t>Plan. Dieta</t>
+        </is>
+      </c>
+      <c r="D838" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E838" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 06:10</t>
+        </is>
+      </c>
+      <c r="B839" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 06:20</t>
+        </is>
+      </c>
+      <c r="C839" s="3" t="inlineStr">
+        <is>
+          <t>Plan. Dieta</t>
+        </is>
+      </c>
+      <c r="D839" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E839" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 06:20</t>
+        </is>
+      </c>
+      <c r="B840" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 06:30</t>
+        </is>
+      </c>
+      <c r="C840" s="3" t="inlineStr">
+        <is>
+          <t>Plan. Dieta</t>
+        </is>
+      </c>
+      <c r="D840" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E840" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 06:30</t>
+        </is>
+      </c>
+      <c r="B841" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 06:40</t>
+        </is>
+      </c>
+      <c r="C841" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D841" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E841" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 06:40</t>
+        </is>
+      </c>
+      <c r="B842" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 06:50</t>
+        </is>
+      </c>
+      <c r="C842" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D842" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E842" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 06:50</t>
+        </is>
+      </c>
+      <c r="B843" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 07:00</t>
+        </is>
+      </c>
+      <c r="C843" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D843" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E843" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 07:00</t>
+        </is>
+      </c>
+      <c r="B844" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 07:10</t>
+        </is>
+      </c>
+      <c r="C844" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D844" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E844" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 07:10</t>
+        </is>
+      </c>
+      <c r="B845" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 07:20</t>
+        </is>
+      </c>
+      <c r="C845" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D845" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E845" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 07:20</t>
+        </is>
+      </c>
+      <c r="B846" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 07:30</t>
+        </is>
+      </c>
+      <c r="C846" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D846" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E846" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 07:30</t>
+        </is>
+      </c>
+      <c r="B847" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 07:40</t>
+        </is>
+      </c>
+      <c r="C847" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D847" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E847" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 07:40</t>
+        </is>
+      </c>
+      <c r="B848" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 07:50</t>
+        </is>
+      </c>
+      <c r="C848" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D848" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E848" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 07:50</t>
+        </is>
+      </c>
+      <c r="B849" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 08:00</t>
+        </is>
+      </c>
+      <c r="C849" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D849" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E849" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 08:00</t>
+        </is>
+      </c>
+      <c r="B850" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 08:10</t>
+        </is>
+      </c>
+      <c r="C850" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D850" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E850" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 08:10</t>
+        </is>
+      </c>
+      <c r="B851" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 08:20</t>
+        </is>
+      </c>
+      <c r="C851" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D851" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E851" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 08:20</t>
+        </is>
+      </c>
+      <c r="B852" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 08:30</t>
+        </is>
+      </c>
+      <c r="C852" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D852" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E852" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 08:30</t>
+        </is>
+      </c>
+      <c r="B853" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 08:40</t>
+        </is>
+      </c>
+      <c r="C853" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D853" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E853" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 08:40</t>
+        </is>
+      </c>
+      <c r="B854" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 08:50</t>
+        </is>
+      </c>
+      <c r="C854" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D854" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E854" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 08:50</t>
+        </is>
+      </c>
+      <c r="B855" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 09:00</t>
+        </is>
+      </c>
+      <c r="C855" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D855" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E855" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 09:00</t>
+        </is>
+      </c>
+      <c r="B856" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 09:10</t>
+        </is>
+      </c>
+      <c r="C856" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D856" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E856" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 09:10</t>
+        </is>
+      </c>
+      <c r="B857" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 09:20</t>
+        </is>
+      </c>
+      <c r="C857" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D857" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E857" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 09:20</t>
+        </is>
+      </c>
+      <c r="B858" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 09:30</t>
+        </is>
+      </c>
+      <c r="C858" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D858" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E858" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 09:30</t>
+        </is>
+      </c>
+      <c r="B859" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 09:40</t>
+        </is>
+      </c>
+      <c r="C859" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D859" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E859" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 09:40</t>
+        </is>
+      </c>
+      <c r="B860" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 09:50</t>
+        </is>
+      </c>
+      <c r="C860" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D860" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E860" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 09:50</t>
+        </is>
+      </c>
+      <c r="B861" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 10:00</t>
+        </is>
+      </c>
+      <c r="C861" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D861" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E861" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 10:00</t>
+        </is>
+      </c>
+      <c r="B862" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 10:10</t>
+        </is>
+      </c>
+      <c r="C862" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D862" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E862" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 10:10</t>
+        </is>
+      </c>
+      <c r="B863" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 10:20</t>
+        </is>
+      </c>
+      <c r="C863" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D863" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E863" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 10:20</t>
+        </is>
+      </c>
+      <c r="B864" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 10:30</t>
+        </is>
+      </c>
+      <c r="C864" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D864" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E864" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 10:30</t>
+        </is>
+      </c>
+      <c r="B865" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 10:40</t>
+        </is>
+      </c>
+      <c r="C865" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D865" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E865" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 10:40</t>
+        </is>
+      </c>
+      <c r="B866" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 10:50</t>
+        </is>
+      </c>
+      <c r="C866" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D866" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E866" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 10:50</t>
+        </is>
+      </c>
+      <c r="B867" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 11:00</t>
+        </is>
+      </c>
+      <c r="C867" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D867" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E867" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 11:00</t>
+        </is>
+      </c>
+      <c r="B868" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 11:10</t>
+        </is>
+      </c>
+      <c r="C868" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D868" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E868" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 11:10</t>
+        </is>
+      </c>
+      <c r="B869" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 11:20</t>
+        </is>
+      </c>
+      <c r="C869" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D869" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E869" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 11:20</t>
+        </is>
+      </c>
+      <c r="B870" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 11:30</t>
+        </is>
+      </c>
+      <c r="C870" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D870" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E870" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 11:30</t>
+        </is>
+      </c>
+      <c r="B871" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 11:40</t>
+        </is>
+      </c>
+      <c r="C871" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D871" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E871" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 11:40</t>
+        </is>
+      </c>
+      <c r="B872" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 11:50</t>
+        </is>
+      </c>
+      <c r="C872" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D872" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E872" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 11:50</t>
+        </is>
+      </c>
+      <c r="B873" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 12:00</t>
+        </is>
+      </c>
+      <c r="C873" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D873" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E873" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 12:00</t>
+        </is>
+      </c>
+      <c r="B874" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 12:10</t>
+        </is>
+      </c>
+      <c r="C874" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D874" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E874" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 12:10</t>
+        </is>
+      </c>
+      <c r="B875" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 12:20</t>
+        </is>
+      </c>
+      <c r="C875" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D875" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E875" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 12:20</t>
+        </is>
+      </c>
+      <c r="B876" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 12:30</t>
+        </is>
+      </c>
+      <c r="C876" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D876" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E876" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 12:30</t>
+        </is>
+      </c>
+      <c r="B877" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 12:40</t>
+        </is>
+      </c>
+      <c r="C877" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D877" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E877" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 12:40</t>
+        </is>
+      </c>
+      <c r="B878" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 12:50</t>
+        </is>
+      </c>
+      <c r="C878" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D878" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E878" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 12:50</t>
+        </is>
+      </c>
+      <c r="B879" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 13:00</t>
+        </is>
+      </c>
+      <c r="C879" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D879" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E879" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 13:00</t>
+        </is>
+      </c>
+      <c r="B880" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 13:10</t>
+        </is>
+      </c>
+      <c r="C880" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D880" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E880" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 13:10</t>
+        </is>
+      </c>
+      <c r="B881" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 13:20</t>
+        </is>
+      </c>
+      <c r="C881" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D881" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E881" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 13:20</t>
+        </is>
+      </c>
+      <c r="B882" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 13:30</t>
+        </is>
+      </c>
+      <c r="C882" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D882" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E882" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 13:30</t>
+        </is>
+      </c>
+      <c r="B883" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 13:40</t>
+        </is>
+      </c>
+      <c r="C883" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D883" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E883" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 13:40</t>
+        </is>
+      </c>
+      <c r="B884" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 13:50</t>
+        </is>
+      </c>
+      <c r="C884" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D884" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E884" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 13:50</t>
+        </is>
+      </c>
+      <c r="B885" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 14:00</t>
+        </is>
+      </c>
+      <c r="C885" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D885" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E885" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 14:00</t>
+        </is>
+      </c>
+      <c r="B886" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 14:10</t>
+        </is>
+      </c>
+      <c r="C886" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D886" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E886" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 14:10</t>
+        </is>
+      </c>
+      <c r="B887" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 14:20</t>
+        </is>
+      </c>
+      <c r="C887" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D887" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E887" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 14:20</t>
+        </is>
+      </c>
+      <c r="B888" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 14:30</t>
+        </is>
+      </c>
+      <c r="C888" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D888" s="3" t="n"/>
+      <c r="E888" s="3" t="n"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 14:30</t>
+        </is>
+      </c>
+      <c r="B889" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 14:40</t>
+        </is>
+      </c>
+      <c r="C889" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D889" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E889" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 14:40</t>
+        </is>
+      </c>
+      <c r="B890" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 14:50</t>
+        </is>
+      </c>
+      <c r="C890" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Ropa</t>
+        </is>
+      </c>
+      <c r="D890" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="E890" s="3" t="inlineStr">
+        <is>
+          <t>Era más práctico</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 14:50</t>
+        </is>
+      </c>
+      <c r="B891" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 15:00</t>
+        </is>
+      </c>
+      <c r="C891" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Ropa</t>
+        </is>
+      </c>
+      <c r="D891" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E891" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 15:00</t>
+        </is>
+      </c>
+      <c r="B892" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 15:10</t>
+        </is>
+      </c>
+      <c r="C892" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D892" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E892" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 15:10</t>
+        </is>
+      </c>
+      <c r="B893" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 15:20</t>
+        </is>
+      </c>
+      <c r="C893" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D893" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E893" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 15:20</t>
+        </is>
+      </c>
+      <c r="B894" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 15:30</t>
+        </is>
+      </c>
+      <c r="C894" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D894" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E894" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 15:30</t>
+        </is>
+      </c>
+      <c r="B895" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 15:40</t>
+        </is>
+      </c>
+      <c r="C895" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D895" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E895" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 15:40</t>
+        </is>
+      </c>
+      <c r="B896" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 15:50</t>
+        </is>
+      </c>
+      <c r="C896" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D896" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E896" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 15:50</t>
+        </is>
+      </c>
+      <c r="B897" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 16:00</t>
+        </is>
+      </c>
+      <c r="C897" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D897" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E897" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 16:00</t>
+        </is>
+      </c>
+      <c r="B898" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 16:10</t>
+        </is>
+      </c>
+      <c r="C898" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D898" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E898" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 16:10</t>
+        </is>
+      </c>
+      <c r="B899" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 16:20</t>
+        </is>
+      </c>
+      <c r="C899" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D899" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E899" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 16:20</t>
+        </is>
+      </c>
+      <c r="B900" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 16:30</t>
+        </is>
+      </c>
+      <c r="C900" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D900" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E900" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 16:30</t>
+        </is>
+      </c>
+      <c r="B901" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 16:40</t>
+        </is>
+      </c>
+      <c r="C901" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D901" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E901" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 16:40</t>
+        </is>
+      </c>
+      <c r="B902" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 16:50</t>
+        </is>
+      </c>
+      <c r="C902" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D902" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E902" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 16:50</t>
+        </is>
+      </c>
+      <c r="B903" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 17:00</t>
+        </is>
+      </c>
+      <c r="C903" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D903" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E903" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 17:00</t>
+        </is>
+      </c>
+      <c r="B904" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 17:10</t>
+        </is>
+      </c>
+      <c r="C904" s="3" t="n"/>
+      <c r="D904" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E904" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 17:10</t>
+        </is>
+      </c>
+      <c r="B905" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 17:20</t>
+        </is>
+      </c>
+      <c r="C905" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D905" s="3" t="n"/>
+      <c r="E905" s="3" t="n"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 17:20</t>
+        </is>
+      </c>
+      <c r="B906" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 17:30</t>
+        </is>
+      </c>
+      <c r="C906" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D906" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E906" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 17:30</t>
+        </is>
+      </c>
+      <c r="B907" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 17:40</t>
+        </is>
+      </c>
+      <c r="C907" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D907" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E907" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 17:40</t>
+        </is>
+      </c>
+      <c r="B908" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 17:50</t>
+        </is>
+      </c>
+      <c r="C908" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D908" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E908" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 17:50</t>
+        </is>
+      </c>
+      <c r="B909" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 18:00</t>
+        </is>
+      </c>
+      <c r="C909" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D909" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E909" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 18:00</t>
+        </is>
+      </c>
+      <c r="B910" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 18:10</t>
+        </is>
+      </c>
+      <c r="C910" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D910" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E910" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 18:10</t>
+        </is>
+      </c>
+      <c r="B911" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 18:20</t>
+        </is>
+      </c>
+      <c r="C911" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D911" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E911" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 18:20</t>
+        </is>
+      </c>
+      <c r="B912" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-20 18:30</t>
+        </is>
+      </c>
+      <c r="C912" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D912" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E912" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E708"/>
+  <autoFilter ref="A1:E912"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Periods.xlsx
+++ b/Periods.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$912</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$1030</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E912"/>
+  <dimension ref="A1:E1030"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21408,22 +21408,22 @@
     <row r="780">
       <c r="A780" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 20:20</t>
+          <t>2024-10-20 02:40</t>
         </is>
       </c>
       <c r="B780" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 20:30</t>
+          <t>2024-10-20 02:50</t>
         </is>
       </c>
       <c r="C780" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Surf</t>
         </is>
       </c>
       <c r="D780" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E780" s="3" t="inlineStr">
@@ -21435,22 +21435,22 @@
     <row r="781">
       <c r="A781" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 20:30</t>
+          <t>2024-10-20 02:50</t>
         </is>
       </c>
       <c r="B781" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 20:40</t>
+          <t>2024-10-20 03:00</t>
         </is>
       </c>
       <c r="C781" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Surf</t>
         </is>
       </c>
       <c r="D781" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E781" s="3" t="inlineStr">
@@ -21462,22 +21462,22 @@
     <row r="782">
       <c r="A782" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 20:40</t>
+          <t>2024-10-20 03:00</t>
         </is>
       </c>
       <c r="B782" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 20:50</t>
+          <t>2024-10-20 03:10</t>
         </is>
       </c>
       <c r="C782" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Comer</t>
         </is>
       </c>
       <c r="D782" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E782" s="3" t="inlineStr">
@@ -21489,22 +21489,22 @@
     <row r="783">
       <c r="A783" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 20:50</t>
+          <t>2024-10-20 03:10</t>
         </is>
       </c>
       <c r="B783" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 21:00</t>
+          <t>2024-10-20 03:20</t>
         </is>
       </c>
       <c r="C783" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D783" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E783" s="3" t="inlineStr">
@@ -21516,22 +21516,22 @@
     <row r="784">
       <c r="A784" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 21:00</t>
+          <t>2024-10-20 03:20</t>
         </is>
       </c>
       <c r="B784" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 21:10</t>
+          <t>2024-10-20 03:30</t>
         </is>
       </c>
       <c r="C784" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D784" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E784" s="3" t="inlineStr">
@@ -21543,22 +21543,22 @@
     <row r="785">
       <c r="A785" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 21:10</t>
+          <t>2024-10-20 03:30</t>
         </is>
       </c>
       <c r="B785" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 21:20</t>
+          <t>2024-10-20 03:40</t>
         </is>
       </c>
       <c r="C785" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D785" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E785" s="3" t="inlineStr">
@@ -21570,22 +21570,22 @@
     <row r="786">
       <c r="A786" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 21:20</t>
+          <t>2024-10-20 03:40</t>
         </is>
       </c>
       <c r="B786" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 21:30</t>
+          <t>2024-10-20 03:50</t>
         </is>
       </c>
       <c r="C786" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D786" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E786" s="3" t="inlineStr">
@@ -21597,22 +21597,22 @@
     <row r="787">
       <c r="A787" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 21:30</t>
+          <t>2024-10-20 03:50</t>
         </is>
       </c>
       <c r="B787" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 21:40</t>
+          <t>2024-10-20 04:00</t>
         </is>
       </c>
       <c r="C787" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D787" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E787" s="3" t="inlineStr">
@@ -21624,22 +21624,22 @@
     <row r="788">
       <c r="A788" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 21:40</t>
+          <t>2024-10-20 04:00</t>
         </is>
       </c>
       <c r="B788" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 21:50</t>
+          <t>2024-10-20 04:10</t>
         </is>
       </c>
       <c r="C788" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D788" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E788" s="3" t="inlineStr">
@@ -21651,22 +21651,22 @@
     <row r="789">
       <c r="A789" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 21:50</t>
+          <t>2024-10-20 04:10</t>
         </is>
       </c>
       <c r="B789" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 22:00</t>
+          <t>2024-10-20 04:20</t>
         </is>
       </c>
       <c r="C789" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D789" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E789" s="3" t="inlineStr">
@@ -21678,22 +21678,22 @@
     <row r="790">
       <c r="A790" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 22:00</t>
+          <t>2024-10-20 04:20</t>
         </is>
       </c>
       <c r="B790" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 22:10</t>
+          <t>2024-10-20 04:30</t>
         </is>
       </c>
       <c r="C790" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D790" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E790" s="3" t="inlineStr">
@@ -21705,22 +21705,22 @@
     <row r="791">
       <c r="A791" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 22:10</t>
+          <t>2024-10-20 04:30</t>
         </is>
       </c>
       <c r="B791" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 22:20</t>
+          <t>2024-10-20 04:40</t>
         </is>
       </c>
       <c r="C791" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D791" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E791" s="3" t="inlineStr">
@@ -21732,22 +21732,22 @@
     <row r="792">
       <c r="A792" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 22:20</t>
+          <t>2024-10-20 04:40</t>
         </is>
       </c>
       <c r="B792" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 22:30</t>
+          <t>2024-10-20 04:50</t>
         </is>
       </c>
       <c r="C792" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D792" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E792" s="3" t="inlineStr">
@@ -21759,22 +21759,22 @@
     <row r="793">
       <c r="A793" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 22:30</t>
+          <t>2024-10-20 04:50</t>
         </is>
       </c>
       <c r="B793" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 22:40</t>
+          <t>2024-10-20 05:00</t>
         </is>
       </c>
       <c r="C793" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D793" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E793" s="3" t="inlineStr">
@@ -21786,22 +21786,22 @@
     <row r="794">
       <c r="A794" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 22:40</t>
+          <t>2024-10-20 05:00</t>
         </is>
       </c>
       <c r="B794" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 22:50</t>
+          <t>2024-10-20 05:10</t>
         </is>
       </c>
       <c r="C794" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D794" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E794" s="3" t="inlineStr">
@@ -21813,22 +21813,22 @@
     <row r="795">
       <c r="A795" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 22:50</t>
+          <t>2024-10-20 05:10</t>
         </is>
       </c>
       <c r="B795" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 23:00</t>
+          <t>2024-10-20 05:20</t>
         </is>
       </c>
       <c r="C795" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D795" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E795" s="3" t="inlineStr">
@@ -21840,22 +21840,22 @@
     <row r="796">
       <c r="A796" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 23:00</t>
+          <t>2024-10-20 05:20</t>
         </is>
       </c>
       <c r="B796" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 23:10</t>
+          <t>2024-10-20 05:30</t>
         </is>
       </c>
       <c r="C796" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D796" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E796" s="3" t="inlineStr">
@@ -21867,22 +21867,22 @@
     <row r="797">
       <c r="A797" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 23:10</t>
+          <t>2024-10-20 05:30</t>
         </is>
       </c>
       <c r="B797" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 23:20</t>
+          <t>2024-10-20 05:40</t>
         </is>
       </c>
       <c r="C797" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D797" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E797" s="3" t="inlineStr">
@@ -21894,22 +21894,22 @@
     <row r="798">
       <c r="A798" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 23:20</t>
+          <t>2024-10-20 05:40</t>
         </is>
       </c>
       <c r="B798" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 23:30</t>
+          <t>2024-10-20 05:50</t>
         </is>
       </c>
       <c r="C798" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D798" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E798" s="3" t="inlineStr">
@@ -21921,22 +21921,22 @@
     <row r="799">
       <c r="A799" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 23:30</t>
+          <t>2024-10-20 05:50</t>
         </is>
       </c>
       <c r="B799" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 23:40</t>
+          <t>2024-10-20 06:00</t>
         </is>
       </c>
       <c r="C799" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Plan. Dieta</t>
         </is>
       </c>
       <c r="D799" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E799" s="3" t="inlineStr">
@@ -21948,22 +21948,22 @@
     <row r="800">
       <c r="A800" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 23:40</t>
+          <t>2024-10-20 06:00</t>
         </is>
       </c>
       <c r="B800" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 23:50</t>
+          <t>2024-10-20 06:10</t>
         </is>
       </c>
       <c r="C800" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Plan. Dieta</t>
         </is>
       </c>
       <c r="D800" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E800" s="3" t="inlineStr">
@@ -21975,22 +21975,22 @@
     <row r="801">
       <c r="A801" s="3" t="inlineStr">
         <is>
-          <t>2024-10-19 23:50</t>
+          <t>2024-10-20 06:10</t>
         </is>
       </c>
       <c r="B801" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 00:00</t>
+          <t>2024-10-20 06:20</t>
         </is>
       </c>
       <c r="C801" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Plan. Dieta</t>
         </is>
       </c>
       <c r="D801" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E801" s="3" t="inlineStr">
@@ -22002,22 +22002,22 @@
     <row r="802">
       <c r="A802" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 00:00</t>
+          <t>2024-10-20 06:20</t>
         </is>
       </c>
       <c r="B802" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 00:10</t>
+          <t>2024-10-20 06:30</t>
         </is>
       </c>
       <c r="C802" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Plan. Dieta</t>
         </is>
       </c>
       <c r="D802" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E802" s="3" t="inlineStr">
@@ -22029,22 +22029,22 @@
     <row r="803">
       <c r="A803" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 00:10</t>
+          <t>2024-10-20 11:50</t>
         </is>
       </c>
       <c r="B803" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 00:20</t>
+          <t>2024-10-20 12:00</t>
         </is>
       </c>
       <c r="C803" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D803" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E803" s="3" t="inlineStr">
@@ -22056,22 +22056,22 @@
     <row r="804">
       <c r="A804" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 00:20</t>
+          <t>2024-10-20 14:30</t>
         </is>
       </c>
       <c r="B804" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 00:30</t>
+          <t>2024-10-20 14:40</t>
         </is>
       </c>
       <c r="C804" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D804" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E804" s="3" t="inlineStr">
@@ -22083,49 +22083,49 @@
     <row r="805">
       <c r="A805" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 00:30</t>
+          <t>2024-10-20 14:40</t>
         </is>
       </c>
       <c r="B805" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 00:40</t>
+          <t>2024-10-20 14:50</t>
         </is>
       </c>
       <c r="C805" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Chores. Ropa</t>
         </is>
       </c>
       <c r="D805" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="E805" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Era más práctico</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 00:40</t>
+          <t>2024-10-20 14:50</t>
         </is>
       </c>
       <c r="B806" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 00:50</t>
+          <t>2024-10-20 15:00</t>
         </is>
       </c>
       <c r="C806" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Chores. Ropa</t>
         </is>
       </c>
       <c r="D806" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E806" s="3" t="inlineStr">
@@ -22137,22 +22137,22 @@
     <row r="807">
       <c r="A807" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 00:50</t>
+          <t>2024-10-20 15:00</t>
         </is>
       </c>
       <c r="B807" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 01:00</t>
+          <t>2024-10-20 15:10</t>
         </is>
       </c>
       <c r="C807" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D807" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E807" s="3" t="inlineStr">
@@ -22164,22 +22164,22 @@
     <row r="808">
       <c r="A808" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 01:00</t>
+          <t>2024-10-20 15:10</t>
         </is>
       </c>
       <c r="B808" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 01:10</t>
+          <t>2024-10-20 15:20</t>
         </is>
       </c>
       <c r="C808" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D808" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E808" s="3" t="inlineStr">
@@ -22191,22 +22191,22 @@
     <row r="809">
       <c r="A809" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 01:10</t>
+          <t>2024-10-20 15:20</t>
         </is>
       </c>
       <c r="B809" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 01:20</t>
+          <t>2024-10-20 15:30</t>
         </is>
       </c>
       <c r="C809" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D809" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E809" s="3" t="inlineStr">
@@ -22218,22 +22218,22 @@
     <row r="810">
       <c r="A810" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 01:20</t>
+          <t>2024-10-20 15:30</t>
         </is>
       </c>
       <c r="B810" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 01:30</t>
+          <t>2024-10-20 15:40</t>
         </is>
       </c>
       <c r="C810" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D810" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E810" s="3" t="inlineStr">
@@ -22245,22 +22245,22 @@
     <row r="811">
       <c r="A811" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 01:30</t>
+          <t>2024-10-20 15:40</t>
         </is>
       </c>
       <c r="B811" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 01:40</t>
+          <t>2024-10-20 15:50</t>
         </is>
       </c>
       <c r="C811" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D811" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E811" s="3" t="inlineStr">
@@ -22272,22 +22272,22 @@
     <row r="812">
       <c r="A812" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 01:40</t>
+          <t>2024-10-20 15:50</t>
         </is>
       </c>
       <c r="B812" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 01:50</t>
+          <t>2024-10-20 16:00</t>
         </is>
       </c>
       <c r="C812" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D812" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E812" s="3" t="inlineStr">
@@ -22299,22 +22299,22 @@
     <row r="813">
       <c r="A813" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 01:50</t>
+          <t>2024-10-20 16:00</t>
         </is>
       </c>
       <c r="B813" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 02:00</t>
+          <t>2024-10-20 16:10</t>
         </is>
       </c>
       <c r="C813" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D813" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E813" s="3" t="inlineStr">
@@ -22326,22 +22326,22 @@
     <row r="814">
       <c r="A814" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 02:00</t>
+          <t>2024-10-20 16:10</t>
         </is>
       </c>
       <c r="B814" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 02:10</t>
+          <t>2024-10-20 16:20</t>
         </is>
       </c>
       <c r="C814" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D814" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E814" s="3" t="inlineStr">
@@ -22353,22 +22353,22 @@
     <row r="815">
       <c r="A815" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 02:10</t>
+          <t>2024-10-20 16:20</t>
         </is>
       </c>
       <c r="B815" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 02:20</t>
+          <t>2024-10-20 16:30</t>
         </is>
       </c>
       <c r="C815" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D815" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E815" s="3" t="inlineStr">
@@ -22380,22 +22380,22 @@
     <row r="816">
       <c r="A816" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 02:20</t>
+          <t>2024-10-20 16:30</t>
         </is>
       </c>
       <c r="B816" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 02:30</t>
+          <t>2024-10-20 16:40</t>
         </is>
       </c>
       <c r="C816" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D816" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E816" s="3" t="inlineStr">
@@ -22407,51 +22407,71 @@
     <row r="817">
       <c r="A817" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 02:30</t>
+          <t>2024-10-20 16:40</t>
         </is>
       </c>
       <c r="B817" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 02:40</t>
+          <t>2024-10-20 16:50</t>
         </is>
       </c>
       <c r="C817" s="3" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D817" s="3" t="n"/>
-      <c r="E817" s="3" t="n"/>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D817" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E817" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="818">
       <c r="A818" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 02:40</t>
+          <t>2024-10-20 16:50</t>
         </is>
       </c>
       <c r="B818" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 02:50</t>
-        </is>
-      </c>
-      <c r="C818" s="3" t="n"/>
-      <c r="D818" s="3" t="n"/>
-      <c r="E818" s="3" t="n"/>
+          <t>2024-10-20 17:00</t>
+        </is>
+      </c>
+      <c r="C818" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D818" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E818" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="819">
       <c r="A819" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 02:50</t>
+          <t>2024-10-20 17:00</t>
         </is>
       </c>
       <c r="B819" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 03:00</t>
+          <t>2024-10-20 17:10</t>
         </is>
       </c>
       <c r="C819" s="3" t="inlineStr">
         <is>
-          <t>Relax. Surf</t>
+          <t>Chores. Cagar</t>
         </is>
       </c>
       <c r="D819" s="3" t="inlineStr">
@@ -22468,17 +22488,17 @@
     <row r="820">
       <c r="A820" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 03:00</t>
+          <t>2024-10-20 17:10</t>
         </is>
       </c>
       <c r="B820" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 03:10</t>
+          <t>2024-10-20 17:20</t>
         </is>
       </c>
       <c r="C820" s="3" t="inlineStr">
         <is>
-          <t>Relax. Comer</t>
+          <t>Chores. Cagar</t>
         </is>
       </c>
       <c r="D820" s="3" t="inlineStr">
@@ -22486,26 +22506,22 @@
           <t>✓</t>
         </is>
       </c>
-      <c r="E820" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="E820" s="3" t="n"/>
     </row>
     <row r="821">
       <c r="A821" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 03:10</t>
+          <t>2024-10-20 17:20</t>
         </is>
       </c>
       <c r="B821" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 03:20</t>
+          <t>2024-10-20 17:30</t>
         </is>
       </c>
       <c r="C821" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Tesis</t>
+          <t>Facultad. Datos</t>
         </is>
       </c>
       <c r="D821" s="3" t="inlineStr">
@@ -22522,17 +22538,17 @@
     <row r="822">
       <c r="A822" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 03:20</t>
+          <t>2024-10-20 17:30</t>
         </is>
       </c>
       <c r="B822" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 03:30</t>
+          <t>2024-10-20 17:40</t>
         </is>
       </c>
       <c r="C822" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Tesis</t>
+          <t>Facultad. Datos</t>
         </is>
       </c>
       <c r="D822" s="3" t="inlineStr">
@@ -22549,17 +22565,17 @@
     <row r="823">
       <c r="A823" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 03:30</t>
+          <t>2024-10-20 17:40</t>
         </is>
       </c>
       <c r="B823" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 03:40</t>
+          <t>2024-10-20 17:50</t>
         </is>
       </c>
       <c r="C823" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Tesis</t>
+          <t>Facultad. Datos</t>
         </is>
       </c>
       <c r="D823" s="3" t="inlineStr">
@@ -22576,17 +22592,17 @@
     <row r="824">
       <c r="A824" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 03:40</t>
+          <t>2024-10-20 17:50</t>
         </is>
       </c>
       <c r="B824" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 03:50</t>
+          <t>2024-10-20 18:00</t>
         </is>
       </c>
       <c r="C824" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Tesis</t>
+          <t>Facultad. Datos</t>
         </is>
       </c>
       <c r="D824" s="3" t="inlineStr">
@@ -22603,17 +22619,17 @@
     <row r="825">
       <c r="A825" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 03:50</t>
+          <t>2024-10-20 18:00</t>
         </is>
       </c>
       <c r="B825" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 04:00</t>
+          <t>2024-10-20 18:10</t>
         </is>
       </c>
       <c r="C825" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Tesis</t>
+          <t>Facultad. Datos</t>
         </is>
       </c>
       <c r="D825" s="3" t="inlineStr">
@@ -22630,17 +22646,17 @@
     <row r="826">
       <c r="A826" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 04:00</t>
+          <t>2024-10-20 18:10</t>
         </is>
       </c>
       <c r="B826" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 04:10</t>
+          <t>2024-10-20 18:20</t>
         </is>
       </c>
       <c r="C826" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Tesis</t>
+          <t>Facultad. Datos</t>
         </is>
       </c>
       <c r="D826" s="3" t="inlineStr">
@@ -22657,17 +22673,17 @@
     <row r="827">
       <c r="A827" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 04:10</t>
+          <t>2024-10-20 18:20</t>
         </is>
       </c>
       <c r="B827" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 04:20</t>
+          <t>2024-10-20 18:30</t>
         </is>
       </c>
       <c r="C827" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Tesis</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D827" s="3" t="inlineStr">
@@ -22684,17 +22700,17 @@
     <row r="828">
       <c r="A828" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 04:20</t>
+          <t>2024-10-20 18:30</t>
         </is>
       </c>
       <c r="B828" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 04:30</t>
+          <t>2024-10-20 18:40</t>
         </is>
       </c>
       <c r="C828" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Tesis</t>
+          <t>Plan. Finanzas</t>
         </is>
       </c>
       <c r="D828" s="3" t="inlineStr">
@@ -22711,17 +22727,17 @@
     <row r="829">
       <c r="A829" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 04:30</t>
+          <t>2024-10-20 18:40</t>
         </is>
       </c>
       <c r="B829" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 04:40</t>
+          <t>2024-10-20 18:50</t>
         </is>
       </c>
       <c r="C829" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Tesis</t>
+          <t>Plan. Finanzas</t>
         </is>
       </c>
       <c r="D829" s="3" t="inlineStr">
@@ -22738,17 +22754,17 @@
     <row r="830">
       <c r="A830" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 04:40</t>
+          <t>2024-10-20 18:50</t>
         </is>
       </c>
       <c r="B830" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 04:50</t>
+          <t>2024-10-20 19:00</t>
         </is>
       </c>
       <c r="C830" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Tesis</t>
+          <t>Plan. Finanzas</t>
         </is>
       </c>
       <c r="D830" s="3" t="inlineStr">
@@ -22765,17 +22781,17 @@
     <row r="831">
       <c r="A831" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 04:50</t>
+          <t>2024-10-20 19:00</t>
         </is>
       </c>
       <c r="B831" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 05:00</t>
+          <t>2024-10-20 19:10</t>
         </is>
       </c>
       <c r="C831" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Tesis</t>
+          <t>Plan. Finanzas</t>
         </is>
       </c>
       <c r="D831" s="3" t="inlineStr">
@@ -22792,17 +22808,17 @@
     <row r="832">
       <c r="A832" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 05:00</t>
+          <t>2024-10-20 22:20</t>
         </is>
       </c>
       <c r="B832" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 05:10</t>
+          <t>2024-10-20 22:30</t>
         </is>
       </c>
       <c r="C832" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Tesis</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D832" s="3" t="inlineStr">
@@ -22819,17 +22835,17 @@
     <row r="833">
       <c r="A833" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 05:10</t>
+          <t>2024-10-20 22:30</t>
         </is>
       </c>
       <c r="B833" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 05:20</t>
+          <t>2024-10-20 22:40</t>
         </is>
       </c>
       <c r="C833" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Tesis</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D833" s="3" t="inlineStr">
@@ -22846,17 +22862,17 @@
     <row r="834">
       <c r="A834" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 05:20</t>
+          <t>2024-10-20 22:40</t>
         </is>
       </c>
       <c r="B834" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 05:30</t>
+          <t>2024-10-20 22:50</t>
         </is>
       </c>
       <c r="C834" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Tesis</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D834" s="3" t="inlineStr">
@@ -22873,17 +22889,17 @@
     <row r="835">
       <c r="A835" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 05:30</t>
+          <t>2024-10-20 22:50</t>
         </is>
       </c>
       <c r="B835" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 05:40</t>
+          <t>2024-10-20 23:00</t>
         </is>
       </c>
       <c r="C835" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Tesis</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D835" s="3" t="inlineStr">
@@ -22900,12 +22916,12 @@
     <row r="836">
       <c r="A836" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 05:40</t>
+          <t>2024-10-20 23:00</t>
         </is>
       </c>
       <c r="B836" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 05:50</t>
+          <t>2024-10-20 23:10</t>
         </is>
       </c>
       <c r="C836" s="3" t="inlineStr">
@@ -22927,17 +22943,17 @@
     <row r="837">
       <c r="A837" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 05:50</t>
+          <t>2024-10-20 23:10</t>
         </is>
       </c>
       <c r="B837" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 06:00</t>
+          <t>2024-10-20 23:20</t>
         </is>
       </c>
       <c r="C837" s="3" t="inlineStr">
         <is>
-          <t>Plan. Dieta</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D837" s="3" t="inlineStr">
@@ -22954,17 +22970,17 @@
     <row r="838">
       <c r="A838" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 06:00</t>
+          <t>2024-10-20 23:20</t>
         </is>
       </c>
       <c r="B838" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 06:10</t>
+          <t>2024-10-20 23:30</t>
         </is>
       </c>
       <c r="C838" s="3" t="inlineStr">
         <is>
-          <t>Plan. Dieta</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D838" s="3" t="inlineStr">
@@ -22981,17 +22997,17 @@
     <row r="839">
       <c r="A839" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 06:10</t>
+          <t>2024-10-20 23:30</t>
         </is>
       </c>
       <c r="B839" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 06:20</t>
+          <t>2024-10-20 23:40</t>
         </is>
       </c>
       <c r="C839" s="3" t="inlineStr">
         <is>
-          <t>Plan. Dieta</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D839" s="3" t="inlineStr">
@@ -23008,22 +23024,22 @@
     <row r="840">
       <c r="A840" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 06:20</t>
+          <t>2024-10-20 23:40</t>
         </is>
       </c>
       <c r="B840" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 06:30</t>
+          <t>2024-10-20 23:50</t>
         </is>
       </c>
       <c r="C840" s="3" t="inlineStr">
         <is>
-          <t>Plan. Dieta</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D840" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E840" s="3" t="inlineStr">
@@ -23035,22 +23051,22 @@
     <row r="841">
       <c r="A841" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 06:30</t>
+          <t>2024-10-20 23:50</t>
         </is>
       </c>
       <c r="B841" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 06:40</t>
+          <t>2024-10-21 00:00</t>
         </is>
       </c>
       <c r="C841" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D841" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E841" s="3" t="inlineStr">
@@ -23062,22 +23078,22 @@
     <row r="842">
       <c r="A842" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 06:40</t>
+          <t>2024-10-21 00:00</t>
         </is>
       </c>
       <c r="B842" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 06:50</t>
+          <t>2024-10-21 00:10</t>
         </is>
       </c>
       <c r="C842" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D842" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E842" s="3" t="inlineStr">
@@ -23089,22 +23105,22 @@
     <row r="843">
       <c r="A843" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 06:50</t>
+          <t>2024-10-21 00:10</t>
         </is>
       </c>
       <c r="B843" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 07:00</t>
+          <t>2024-10-21 00:20</t>
         </is>
       </c>
       <c r="C843" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D843" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E843" s="3" t="inlineStr">
@@ -23116,22 +23132,22 @@
     <row r="844">
       <c r="A844" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 07:00</t>
+          <t>2024-10-21 00:20</t>
         </is>
       </c>
       <c r="B844" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 07:10</t>
+          <t>2024-10-21 00:30</t>
         </is>
       </c>
       <c r="C844" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D844" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E844" s="3" t="inlineStr">
@@ -23143,22 +23159,22 @@
     <row r="845">
       <c r="A845" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 07:10</t>
+          <t>2024-10-21 00:30</t>
         </is>
       </c>
       <c r="B845" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 07:20</t>
+          <t>2024-10-21 00:40</t>
         </is>
       </c>
       <c r="C845" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D845" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E845" s="3" t="inlineStr">
@@ -23170,22 +23186,22 @@
     <row r="846">
       <c r="A846" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 07:20</t>
+          <t>2024-10-21 00:40</t>
         </is>
       </c>
       <c r="B846" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 07:30</t>
+          <t>2024-10-21 00:50</t>
         </is>
       </c>
       <c r="C846" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D846" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E846" s="3" t="inlineStr">
@@ -23197,22 +23213,22 @@
     <row r="847">
       <c r="A847" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 07:30</t>
+          <t>2024-10-21 00:50</t>
         </is>
       </c>
       <c r="B847" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 07:40</t>
+          <t>2024-10-21 01:00</t>
         </is>
       </c>
       <c r="C847" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D847" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E847" s="3" t="inlineStr">
@@ -23224,22 +23240,22 @@
     <row r="848">
       <c r="A848" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 07:40</t>
+          <t>2024-10-21 01:00</t>
         </is>
       </c>
       <c r="B848" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 07:50</t>
+          <t>2024-10-21 01:10</t>
         </is>
       </c>
       <c r="C848" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D848" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E848" s="3" t="inlineStr">
@@ -23251,22 +23267,22 @@
     <row r="849">
       <c r="A849" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 07:50</t>
+          <t>2024-10-21 01:10</t>
         </is>
       </c>
       <c r="B849" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 08:00</t>
+          <t>2024-10-21 01:20</t>
         </is>
       </c>
       <c r="C849" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D849" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E849" s="3" t="inlineStr">
@@ -23278,22 +23294,22 @@
     <row r="850">
       <c r="A850" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 08:00</t>
+          <t>2024-10-21 01:20</t>
         </is>
       </c>
       <c r="B850" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 08:10</t>
+          <t>2024-10-21 01:30</t>
         </is>
       </c>
       <c r="C850" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D850" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E850" s="3" t="inlineStr">
@@ -23305,22 +23321,22 @@
     <row r="851">
       <c r="A851" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 08:10</t>
+          <t>2024-10-21 01:30</t>
         </is>
       </c>
       <c r="B851" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 08:20</t>
+          <t>2024-10-21 01:40</t>
         </is>
       </c>
       <c r="C851" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D851" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E851" s="3" t="inlineStr">
@@ -23332,22 +23348,22 @@
     <row r="852">
       <c r="A852" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 08:20</t>
+          <t>2024-10-21 01:40</t>
         </is>
       </c>
       <c r="B852" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 08:30</t>
+          <t>2024-10-21 01:50</t>
         </is>
       </c>
       <c r="C852" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D852" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E852" s="3" t="inlineStr">
@@ -23359,22 +23375,22 @@
     <row r="853">
       <c r="A853" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 08:30</t>
+          <t>2024-10-21 01:50</t>
         </is>
       </c>
       <c r="B853" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 08:40</t>
+          <t>2024-10-21 02:00</t>
         </is>
       </c>
       <c r="C853" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D853" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E853" s="3" t="inlineStr">
@@ -23386,22 +23402,22 @@
     <row r="854">
       <c r="A854" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 08:40</t>
+          <t>2024-10-21 09:30</t>
         </is>
       </c>
       <c r="B854" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 08:50</t>
+          <t>2024-10-21 09:40</t>
         </is>
       </c>
       <c r="C854" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Chores. Morner</t>
         </is>
       </c>
       <c r="D854" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E854" s="3" t="inlineStr">
@@ -23413,22 +23429,22 @@
     <row r="855">
       <c r="A855" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 08:50</t>
+          <t>2024-10-21 09:40</t>
         </is>
       </c>
       <c r="B855" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 09:00</t>
+          <t>2024-10-21 09:50</t>
         </is>
       </c>
       <c r="C855" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Chores. Morner</t>
         </is>
       </c>
       <c r="D855" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E855" s="3" t="inlineStr">
@@ -23440,22 +23456,22 @@
     <row r="856">
       <c r="A856" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 09:00</t>
+          <t>2024-10-21 09:50</t>
         </is>
       </c>
       <c r="B856" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 09:10</t>
+          <t>2024-10-21 10:00</t>
         </is>
       </c>
       <c r="C856" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Chores. Morner</t>
         </is>
       </c>
       <c r="D856" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E856" s="3" t="inlineStr">
@@ -23467,22 +23483,22 @@
     <row r="857">
       <c r="A857" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 09:10</t>
+          <t>2024-10-21 10:00</t>
         </is>
       </c>
       <c r="B857" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 09:20</t>
+          <t>2024-10-21 10:10</t>
         </is>
       </c>
       <c r="C857" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D857" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E857" s="3" t="inlineStr">
@@ -23494,22 +23510,22 @@
     <row r="858">
       <c r="A858" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 09:20</t>
+          <t>2024-10-21 10:10</t>
         </is>
       </c>
       <c r="B858" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 09:30</t>
+          <t>2024-10-21 10:20</t>
         </is>
       </c>
       <c r="C858" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D858" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E858" s="3" t="inlineStr">
@@ -23521,22 +23537,22 @@
     <row r="859">
       <c r="A859" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 09:30</t>
+          <t>2024-10-21 10:20</t>
         </is>
       </c>
       <c r="B859" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 09:40</t>
+          <t>2024-10-21 10:30</t>
         </is>
       </c>
       <c r="C859" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D859" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E859" s="3" t="inlineStr">
@@ -23548,103 +23564,103 @@
     <row r="860">
       <c r="A860" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 09:40</t>
+          <t>2024-10-21 10:30</t>
         </is>
       </c>
       <c r="B860" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 09:50</t>
+          <t>2024-10-21 10:40</t>
         </is>
       </c>
       <c r="C860" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Chores. Café</t>
         </is>
       </c>
       <c r="D860" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="E860" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Contesté mensajes</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 09:50</t>
+          <t>2024-10-21 10:40</t>
         </is>
       </c>
       <c r="B861" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 10:00</t>
+          <t>2024-10-21 10:50</t>
         </is>
       </c>
       <c r="C861" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Chores. Café</t>
         </is>
       </c>
       <c r="D861" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="E861" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Contesté mensajes</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 10:00</t>
+          <t>2024-10-21 10:50</t>
         </is>
       </c>
       <c r="B862" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 10:10</t>
+          <t>2024-10-21 11:00</t>
         </is>
       </c>
       <c r="C862" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Chores. Café</t>
         </is>
       </c>
       <c r="D862" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. SAN</t>
         </is>
       </c>
       <c r="E862" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Era más importante</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 10:10</t>
+          <t>2024-10-21 11:00</t>
         </is>
       </c>
       <c r="B863" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 10:20</t>
+          <t>2024-10-21 11:10</t>
         </is>
       </c>
       <c r="C863" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Chores. Café</t>
         </is>
       </c>
       <c r="D863" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E863" s="3" t="inlineStr">
@@ -23656,22 +23672,22 @@
     <row r="864">
       <c r="A864" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 10:20</t>
+          <t>2024-10-21 11:10</t>
         </is>
       </c>
       <c r="B864" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 10:30</t>
+          <t>2024-10-21 11:20</t>
         </is>
       </c>
       <c r="C864" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Café</t>
         </is>
       </c>
       <c r="D864" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E864" s="3" t="inlineStr">
@@ -23683,22 +23699,22 @@
     <row r="865">
       <c r="A865" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 10:30</t>
+          <t>2024-10-21 11:20</t>
         </is>
       </c>
       <c r="B865" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 10:40</t>
+          <t>2024-10-21 11:30</t>
         </is>
       </c>
       <c r="C865" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Café</t>
         </is>
       </c>
       <c r="D865" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E865" s="3" t="inlineStr">
@@ -23710,22 +23726,22 @@
     <row r="866">
       <c r="A866" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 10:40</t>
+          <t>2024-10-21 11:30</t>
         </is>
       </c>
       <c r="B866" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 10:50</t>
+          <t>2024-10-21 11:40</t>
         </is>
       </c>
       <c r="C866" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. YouTube</t>
         </is>
       </c>
       <c r="D866" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E866" s="3" t="inlineStr">
@@ -23737,22 +23753,22 @@
     <row r="867">
       <c r="A867" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 10:50</t>
+          <t>2024-10-21 11:40</t>
         </is>
       </c>
       <c r="B867" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 11:00</t>
+          <t>2024-10-21 11:50</t>
         </is>
       </c>
       <c r="C867" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. YouTube</t>
         </is>
       </c>
       <c r="D867" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E867" s="3" t="inlineStr">
@@ -23764,22 +23780,22 @@
     <row r="868">
       <c r="A868" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 11:00</t>
+          <t>2024-10-21 11:50</t>
         </is>
       </c>
       <c r="B868" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 11:10</t>
+          <t>2024-10-21 12:00</t>
         </is>
       </c>
       <c r="C868" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. YouTube</t>
         </is>
       </c>
       <c r="D868" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E868" s="3" t="inlineStr">
@@ -23791,49 +23807,49 @@
     <row r="869">
       <c r="A869" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 11:10</t>
+          <t>2024-10-21 12:00</t>
         </is>
       </c>
       <c r="B869" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 11:20</t>
+          <t>2024-10-21 12:10</t>
         </is>
       </c>
       <c r="C869" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Plan. Día</t>
         </is>
       </c>
       <c r="D869" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="E869" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Mensajes urgentes</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 11:20</t>
+          <t>2024-10-21 12:10</t>
         </is>
       </c>
       <c r="B870" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 11:30</t>
+          <t>2024-10-21 12:20</t>
         </is>
       </c>
       <c r="C870" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Plan. Día</t>
         </is>
       </c>
       <c r="D870" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E870" s="3" t="inlineStr">
@@ -23845,22 +23861,22 @@
     <row r="871">
       <c r="A871" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 11:30</t>
+          <t>2024-10-21 12:20</t>
         </is>
       </c>
       <c r="B871" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 11:40</t>
+          <t>2024-10-21 12:30</t>
         </is>
       </c>
       <c r="C871" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D871" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E871" s="3" t="inlineStr">
@@ -23872,17 +23888,17 @@
     <row r="872">
       <c r="A872" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 11:40</t>
+          <t>2024-10-21 12:30</t>
         </is>
       </c>
       <c r="B872" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 11:50</t>
+          <t>2024-10-21 12:40</t>
         </is>
       </c>
       <c r="C872" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D872" s="3" t="inlineStr">
@@ -23899,22 +23915,22 @@
     <row r="873">
       <c r="A873" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 11:50</t>
+          <t>2024-10-21 12:40</t>
         </is>
       </c>
       <c r="B873" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 12:00</t>
+          <t>2024-10-21 12:50</t>
         </is>
       </c>
       <c r="C873" s="3" t="inlineStr">
         <is>
-          <t>Relax. Libre</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D873" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E873" s="3" t="inlineStr">
@@ -23926,22 +23942,22 @@
     <row r="874">
       <c r="A874" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 12:00</t>
+          <t>2024-10-21 12:50</t>
         </is>
       </c>
       <c r="B874" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 12:10</t>
+          <t>2024-10-21 13:00</t>
         </is>
       </c>
       <c r="C874" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Chores. Cocinar</t>
         </is>
       </c>
       <c r="D874" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E874" s="3" t="inlineStr">
@@ -23953,22 +23969,22 @@
     <row r="875">
       <c r="A875" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 12:10</t>
+          <t>2024-10-21 13:00</t>
         </is>
       </c>
       <c r="B875" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 12:20</t>
+          <t>2024-10-21 13:10</t>
         </is>
       </c>
       <c r="C875" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Chores. Cocinar</t>
         </is>
       </c>
       <c r="D875" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E875" s="3" t="inlineStr">
@@ -23980,22 +23996,22 @@
     <row r="876">
       <c r="A876" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 12:20</t>
+          <t>2024-10-21 13:10</t>
         </is>
       </c>
       <c r="B876" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 12:30</t>
+          <t>2024-10-21 13:20</t>
         </is>
       </c>
       <c r="C876" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Chores. Cocinar</t>
         </is>
       </c>
       <c r="D876" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E876" s="3" t="inlineStr">
@@ -24007,22 +24023,22 @@
     <row r="877">
       <c r="A877" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 12:30</t>
+          <t>2024-10-21 13:20</t>
         </is>
       </c>
       <c r="B877" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 12:40</t>
+          <t>2024-10-21 13:30</t>
         </is>
       </c>
       <c r="C877" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D877" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E877" s="3" t="inlineStr">
@@ -24034,22 +24050,22 @@
     <row r="878">
       <c r="A878" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 12:40</t>
+          <t>2024-10-21 13:30</t>
         </is>
       </c>
       <c r="B878" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 12:50</t>
+          <t>2024-10-21 13:40</t>
         </is>
       </c>
       <c r="C878" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D878" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E878" s="3" t="inlineStr">
@@ -24061,22 +24077,22 @@
     <row r="879">
       <c r="A879" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 12:50</t>
+          <t>2024-10-21 13:40</t>
         </is>
       </c>
       <c r="B879" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 13:00</t>
+          <t>2024-10-21 13:50</t>
         </is>
       </c>
       <c r="C879" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D879" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E879" s="3" t="inlineStr">
@@ -24088,22 +24104,22 @@
     <row r="880">
       <c r="A880" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 13:00</t>
+          <t>2024-10-21 13:50</t>
         </is>
       </c>
       <c r="B880" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 13:10</t>
+          <t>2024-10-21 14:00</t>
         </is>
       </c>
       <c r="C880" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D880" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E880" s="3" t="inlineStr">
@@ -24115,22 +24131,22 @@
     <row r="881">
       <c r="A881" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 13:10</t>
+          <t>2024-10-21 14:00</t>
         </is>
       </c>
       <c r="B881" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 13:20</t>
+          <t>2024-10-21 14:10</t>
         </is>
       </c>
       <c r="C881" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D881" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E881" s="3" t="inlineStr">
@@ -24142,49 +24158,49 @@
     <row r="882">
       <c r="A882" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 13:20</t>
+          <t>2024-10-21 14:10</t>
         </is>
       </c>
       <c r="B882" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 13:30</t>
+          <t>2024-10-21 14:20</t>
         </is>
       </c>
       <c r="C882" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D882" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Chores. Platos</t>
         </is>
       </c>
       <c r="E882" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Era más productivo</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 13:30</t>
+          <t>2024-10-21 14:20</t>
         </is>
       </c>
       <c r="B883" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 13:40</t>
+          <t>2024-10-21 14:30</t>
         </is>
       </c>
       <c r="C883" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D883" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E883" s="3" t="inlineStr">
@@ -24196,22 +24212,22 @@
     <row r="884">
       <c r="A884" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 13:40</t>
+          <t>2024-10-21 14:30</t>
         </is>
       </c>
       <c r="B884" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 13:50</t>
+          <t>2024-10-21 14:40</t>
         </is>
       </c>
       <c r="C884" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D884" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E884" s="3" t="inlineStr">
@@ -24223,22 +24239,22 @@
     <row r="885">
       <c r="A885" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 13:50</t>
+          <t>2024-10-21 14:40</t>
         </is>
       </c>
       <c r="B885" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 14:00</t>
+          <t>2024-10-21 14:50</t>
         </is>
       </c>
       <c r="C885" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D885" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E885" s="3" t="inlineStr">
@@ -24250,22 +24266,22 @@
     <row r="886">
       <c r="A886" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 14:00</t>
+          <t>2024-10-21 14:50</t>
         </is>
       </c>
       <c r="B886" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 14:10</t>
+          <t>2024-10-21 15:00</t>
         </is>
       </c>
       <c r="C886" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D886" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E886" s="3" t="inlineStr">
@@ -24277,22 +24293,22 @@
     <row r="887">
       <c r="A887" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 14:10</t>
+          <t>2024-10-21 15:00</t>
         </is>
       </c>
       <c r="B887" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 14:20</t>
+          <t>2024-10-21 15:10</t>
         </is>
       </c>
       <c r="C887" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D887" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E887" s="3" t="inlineStr">
@@ -24304,31 +24320,39 @@
     <row r="888">
       <c r="A888" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 14:20</t>
+          <t>2024-10-21 15:10</t>
         </is>
       </c>
       <c r="B888" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 14:30</t>
+          <t>2024-10-21 15:20</t>
         </is>
       </c>
       <c r="C888" s="3" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D888" s="3" t="n"/>
-      <c r="E888" s="3" t="n"/>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D888" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E888" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="889">
       <c r="A889" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 14:30</t>
+          <t>2024-10-21 15:20</t>
         </is>
       </c>
       <c r="B889" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 14:40</t>
+          <t>2024-10-21 15:30</t>
         </is>
       </c>
       <c r="C889" s="3" t="inlineStr">
@@ -24350,49 +24374,49 @@
     <row r="890">
       <c r="A890" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 14:40</t>
+          <t>2024-10-21 15:30</t>
         </is>
       </c>
       <c r="B890" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 14:50</t>
+          <t>2024-10-21 15:40</t>
         </is>
       </c>
       <c r="C890" s="3" t="inlineStr">
         <is>
-          <t>Chores. Ropa</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D890" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Tesis</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E890" s="3" t="inlineStr">
         <is>
-          <t>Era más práctico</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 14:50</t>
+          <t>2024-10-21 15:40</t>
         </is>
       </c>
       <c r="B891" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 15:00</t>
+          <t>2024-10-21 15:50</t>
         </is>
       </c>
       <c r="C891" s="3" t="inlineStr">
         <is>
-          <t>Chores. Ropa</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D891" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E891" s="3" t="inlineStr">
@@ -24404,17 +24428,17 @@
     <row r="892">
       <c r="A892" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 15:00</t>
+          <t>2024-10-21 15:50</t>
         </is>
       </c>
       <c r="B892" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 15:10</t>
+          <t>2024-10-21 16:00</t>
         </is>
       </c>
       <c r="C892" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D892" s="3" t="inlineStr">
@@ -24431,12 +24455,12 @@
     <row r="893">
       <c r="A893" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 15:10</t>
+          <t>2024-10-21 16:00</t>
         </is>
       </c>
       <c r="B893" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 15:20</t>
+          <t>2024-10-21 16:10</t>
         </is>
       </c>
       <c r="C893" s="3" t="inlineStr">
@@ -24458,12 +24482,12 @@
     <row r="894">
       <c r="A894" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 15:20</t>
+          <t>2024-10-21 16:10</t>
         </is>
       </c>
       <c r="B894" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 15:30</t>
+          <t>2024-10-21 16:20</t>
         </is>
       </c>
       <c r="C894" s="3" t="inlineStr">
@@ -24485,12 +24509,12 @@
     <row r="895">
       <c r="A895" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 15:30</t>
+          <t>2024-10-21 16:20</t>
         </is>
       </c>
       <c r="B895" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 15:40</t>
+          <t>2024-10-21 16:30</t>
         </is>
       </c>
       <c r="C895" s="3" t="inlineStr">
@@ -24512,12 +24536,12 @@
     <row r="896">
       <c r="A896" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 15:40</t>
+          <t>2024-10-21 16:30</t>
         </is>
       </c>
       <c r="B896" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 15:50</t>
+          <t>2024-10-21 16:40</t>
         </is>
       </c>
       <c r="C896" s="3" t="inlineStr">
@@ -24539,17 +24563,17 @@
     <row r="897">
       <c r="A897" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 15:50</t>
+          <t>2024-10-21 16:40</t>
         </is>
       </c>
       <c r="B897" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 16:00</t>
+          <t>2024-10-21 16:50</t>
         </is>
       </c>
       <c r="C897" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Tesis</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D897" s="3" t="inlineStr">
@@ -24566,17 +24590,17 @@
     <row r="898">
       <c r="A898" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 16:00</t>
+          <t>2024-10-21 16:50</t>
         </is>
       </c>
       <c r="B898" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 16:10</t>
+          <t>2024-10-21 17:00</t>
         </is>
       </c>
       <c r="C898" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Tesis</t>
+          <t>Relax. Libre</t>
         </is>
       </c>
       <c r="D898" s="3" t="inlineStr">
@@ -24593,17 +24617,17 @@
     <row r="899">
       <c r="A899" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 16:10</t>
+          <t>2024-10-21 17:00</t>
         </is>
       </c>
       <c r="B899" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 16:20</t>
+          <t>2024-10-21 17:10</t>
         </is>
       </c>
       <c r="C899" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Tesis</t>
+          <t>Relax. River</t>
         </is>
       </c>
       <c r="D899" s="3" t="inlineStr">
@@ -24620,12 +24644,12 @@
     <row r="900">
       <c r="A900" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 16:20</t>
+          <t>2024-10-21 17:10</t>
         </is>
       </c>
       <c r="B900" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 16:30</t>
+          <t>2024-10-21 17:20</t>
         </is>
       </c>
       <c r="C900" s="3" t="inlineStr">
@@ -24647,12 +24671,12 @@
     <row r="901">
       <c r="A901" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 16:30</t>
+          <t>2024-10-21 17:20</t>
         </is>
       </c>
       <c r="B901" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 16:40</t>
+          <t>2024-10-21 17:30</t>
         </is>
       </c>
       <c r="C901" s="3" t="inlineStr">
@@ -24674,17 +24698,17 @@
     <row r="902">
       <c r="A902" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 16:40</t>
+          <t>2024-10-21 17:30</t>
         </is>
       </c>
       <c r="B902" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 16:50</t>
+          <t>2024-10-21 17:40</t>
         </is>
       </c>
       <c r="C902" s="3" t="inlineStr">
         <is>
-          <t>Relax. Libre</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D902" s="3" t="inlineStr">
@@ -24701,17 +24725,17 @@
     <row r="903">
       <c r="A903" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 16:50</t>
+          <t>2024-10-21 17:40</t>
         </is>
       </c>
       <c r="B903" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 17:00</t>
+          <t>2024-10-21 17:50</t>
         </is>
       </c>
       <c r="C903" s="3" t="inlineStr">
         <is>
-          <t>Relax. Libre</t>
+          <t>Facultad. Tesis</t>
         </is>
       </c>
       <c r="D903" s="3" t="inlineStr">
@@ -24728,18 +24752,22 @@
     <row r="904">
       <c r="A904" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 17:00</t>
+          <t>2024-10-21 17:50</t>
         </is>
       </c>
       <c r="B904" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 17:10</t>
-        </is>
-      </c>
-      <c r="C904" s="3" t="n"/>
+          <t>2024-10-21 18:00</t>
+        </is>
+      </c>
+      <c r="C904" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
       <c r="D904" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E904" s="3" t="inlineStr">
@@ -24751,36 +24779,40 @@
     <row r="905">
       <c r="A905" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 17:10</t>
+          <t>2024-10-21 18:00</t>
         </is>
       </c>
       <c r="B905" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 17:20</t>
+          <t>2024-10-21 18:10</t>
         </is>
       </c>
       <c r="C905" s="3" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D905" s="3" t="n"/>
+          <t>Chores. Pre-Crossfit</t>
+        </is>
+      </c>
+      <c r="D905" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="E905" s="3" t="n"/>
     </row>
     <row r="906">
       <c r="A906" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 17:20</t>
+          <t>2024-10-21 18:10</t>
         </is>
       </c>
       <c r="B906" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 17:30</t>
+          <t>2024-10-21 18:20</t>
         </is>
       </c>
       <c r="C906" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Datos</t>
+          <t>Chores. Pre-Crossfit</t>
         </is>
       </c>
       <c r="D906" s="3" t="inlineStr">
@@ -24797,17 +24829,17 @@
     <row r="907">
       <c r="A907" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 17:30</t>
+          <t>2024-10-21 18:20</t>
         </is>
       </c>
       <c r="B907" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 17:40</t>
+          <t>2024-10-21 18:30</t>
         </is>
       </c>
       <c r="C907" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Datos</t>
+          <t>Chores. Pre-Crossfit</t>
         </is>
       </c>
       <c r="D907" s="3" t="inlineStr">
@@ -24824,17 +24856,17 @@
     <row r="908">
       <c r="A908" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 17:40</t>
+          <t>2024-10-21 18:30</t>
         </is>
       </c>
       <c r="B908" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 17:50</t>
+          <t>2024-10-21 18:40</t>
         </is>
       </c>
       <c r="C908" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Datos</t>
+          <t>Workout. Crossfit</t>
         </is>
       </c>
       <c r="D908" s="3" t="inlineStr">
@@ -24851,17 +24883,17 @@
     <row r="909">
       <c r="A909" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 17:50</t>
+          <t>2024-10-21 18:40</t>
         </is>
       </c>
       <c r="B909" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 18:00</t>
+          <t>2024-10-21 18:50</t>
         </is>
       </c>
       <c r="C909" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Datos</t>
+          <t>Workout. Crossfit</t>
         </is>
       </c>
       <c r="D909" s="3" t="inlineStr">
@@ -24878,17 +24910,17 @@
     <row r="910">
       <c r="A910" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 18:00</t>
+          <t>2024-10-21 18:50</t>
         </is>
       </c>
       <c r="B910" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 18:10</t>
+          <t>2024-10-21 19:00</t>
         </is>
       </c>
       <c r="C910" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Datos</t>
+          <t>Workout. Crossfit</t>
         </is>
       </c>
       <c r="D910" s="3" t="inlineStr">
@@ -24905,17 +24937,17 @@
     <row r="911">
       <c r="A911" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 18:10</t>
+          <t>2024-10-21 19:00</t>
         </is>
       </c>
       <c r="B911" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 18:20</t>
+          <t>2024-10-21 19:10</t>
         </is>
       </c>
       <c r="C911" s="3" t="inlineStr">
         <is>
-          <t>Facultad. Datos</t>
+          <t>Workout. Crossfit</t>
         </is>
       </c>
       <c r="D911" s="3" t="inlineStr">
@@ -24932,32 +24964,3210 @@
     <row r="912">
       <c r="A912" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 18:20</t>
+          <t>2024-10-21 19:10</t>
         </is>
       </c>
       <c r="B912" s="3" t="inlineStr">
         <is>
-          <t>2024-10-20 18:30</t>
+          <t>2024-10-21 19:20</t>
         </is>
       </c>
       <c r="C912" s="3" t="inlineStr">
         <is>
+          <t>Workout. Crossfit</t>
+        </is>
+      </c>
+      <c r="D912" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E912" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 19:20</t>
+        </is>
+      </c>
+      <c r="B913" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 19:30</t>
+        </is>
+      </c>
+      <c r="C913" s="3" t="inlineStr">
+        <is>
+          <t>Workout. Crossfit</t>
+        </is>
+      </c>
+      <c r="D913" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E913" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 19:30</t>
+        </is>
+      </c>
+      <c r="B914" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 19:40</t>
+        </is>
+      </c>
+      <c r="C914" s="3" t="inlineStr">
+        <is>
+          <t>Workout. Crossfit</t>
+        </is>
+      </c>
+      <c r="D914" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E914" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 19:40</t>
+        </is>
+      </c>
+      <c r="B915" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 19:50</t>
+        </is>
+      </c>
+      <c r="C915" s="3" t="inlineStr">
+        <is>
+          <t>Workout. Crossfit</t>
+        </is>
+      </c>
+      <c r="D915" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E915" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 19:50</t>
+        </is>
+      </c>
+      <c r="B916" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 20:00</t>
+        </is>
+      </c>
+      <c r="C916" s="3" t="inlineStr">
+        <is>
+          <t>Workout. Crossfit</t>
+        </is>
+      </c>
+      <c r="D916" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E916" s="3" t="n"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 20:00</t>
+        </is>
+      </c>
+      <c r="B917" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 20:10</t>
+        </is>
+      </c>
+      <c r="C917" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Pos-Crossfit</t>
+        </is>
+      </c>
+      <c r="D917" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E917" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 20:10</t>
+        </is>
+      </c>
+      <c r="B918" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 20:20</t>
+        </is>
+      </c>
+      <c r="C918" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Comer</t>
+        </is>
+      </c>
+      <c r="D918" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E918" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 20:20</t>
+        </is>
+      </c>
+      <c r="B919" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 20:30</t>
+        </is>
+      </c>
+      <c r="C919" s="3" t="inlineStr">
+        <is>
+          <t>Relax. YouTube</t>
+        </is>
+      </c>
+      <c r="D919" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E919" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 20:30</t>
+        </is>
+      </c>
+      <c r="B920" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 20:40</t>
+        </is>
+      </c>
+      <c r="C920" s="3" t="inlineStr">
+        <is>
+          <t>Relax. YouTube</t>
+        </is>
+      </c>
+      <c r="D920" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E920" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 20:40</t>
+        </is>
+      </c>
+      <c r="B921" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 20:50</t>
+        </is>
+      </c>
+      <c r="C921" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Platos</t>
+        </is>
+      </c>
+      <c r="D921" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E921" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 20:50</t>
+        </is>
+      </c>
+      <c r="B922" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:00</t>
+        </is>
+      </c>
+      <c r="C922" s="3" t="inlineStr">
+        <is>
+          <t>Relax. YouTube</t>
+        </is>
+      </c>
+      <c r="D922" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E922" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:00</t>
+        </is>
+      </c>
+      <c r="B923" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:10</t>
+        </is>
+      </c>
+      <c r="C923" s="3" t="inlineStr">
+        <is>
+          <t>Plan. Mes</t>
+        </is>
+      </c>
+      <c r="D923" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E923" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:10</t>
+        </is>
+      </c>
+      <c r="B924" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:20</t>
+        </is>
+      </c>
+      <c r="C924" s="3" t="inlineStr">
+        <is>
+          <t>Plan. Mes</t>
+        </is>
+      </c>
+      <c r="D924" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E924" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:20</t>
+        </is>
+      </c>
+      <c r="B925" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:30</t>
+        </is>
+      </c>
+      <c r="C925" s="3" t="inlineStr">
+        <is>
+          <t>Plan. Mes</t>
+        </is>
+      </c>
+      <c r="D925" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E925" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:30</t>
+        </is>
+      </c>
+      <c r="B926" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:40</t>
+        </is>
+      </c>
+      <c r="C926" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Ducha</t>
+        </is>
+      </c>
+      <c r="D926" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E926" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:40</t>
+        </is>
+      </c>
+      <c r="B927" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:50</t>
+        </is>
+      </c>
+      <c r="C927" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Ducha</t>
+        </is>
+      </c>
+      <c r="D927" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E927" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:50</t>
+        </is>
+      </c>
+      <c r="B928" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 22:00</t>
+        </is>
+      </c>
+      <c r="C928" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Ducha</t>
+        </is>
+      </c>
+      <c r="D928" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E928" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 22:00</t>
+        </is>
+      </c>
+      <c r="B929" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 22:10</t>
+        </is>
+      </c>
+      <c r="C929" s="3" t="inlineStr">
+        <is>
           <t>Relax. Libre</t>
         </is>
       </c>
-      <c r="D912" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E912" s="3" t="inlineStr">
+      <c r="D929" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E929" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 22:10</t>
+        </is>
+      </c>
+      <c r="B930" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 22:20</t>
+        </is>
+      </c>
+      <c r="C930" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D930" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Chess</t>
+        </is>
+      </c>
+      <c r="E930" s="3" t="inlineStr">
+        <is>
+          <t>Más divertido</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 22:20</t>
+        </is>
+      </c>
+      <c r="B931" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 22:30</t>
+        </is>
+      </c>
+      <c r="C931" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Chess</t>
+        </is>
+      </c>
+      <c r="D931" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E931" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 22:30</t>
+        </is>
+      </c>
+      <c r="B932" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 22:40</t>
+        </is>
+      </c>
+      <c r="C932" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Chess</t>
+        </is>
+      </c>
+      <c r="D932" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E932" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 22:40</t>
+        </is>
+      </c>
+      <c r="B933" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 22:50</t>
+        </is>
+      </c>
+      <c r="C933" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Audio</t>
+        </is>
+      </c>
+      <c r="D933" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E933" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 22:50</t>
+        </is>
+      </c>
+      <c r="B934" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 23:00</t>
+        </is>
+      </c>
+      <c r="C934" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Audio</t>
+        </is>
+      </c>
+      <c r="D934" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E934" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 23:00</t>
+        </is>
+      </c>
+      <c r="B935" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-21 23:10</t>
+        </is>
+      </c>
+      <c r="C935" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Audio</t>
+        </is>
+      </c>
+      <c r="D935" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E935" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 11:00</t>
+        </is>
+      </c>
+      <c r="B936" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 11:10</t>
+        </is>
+      </c>
+      <c r="C936" s="3" t="inlineStr">
+        <is>
+          <t>Plan. Día</t>
+        </is>
+      </c>
+      <c r="D936" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E936" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 11:10</t>
+        </is>
+      </c>
+      <c r="B937" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 11:20</t>
+        </is>
+      </c>
+      <c r="C937" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D937" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E937" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 11:20</t>
+        </is>
+      </c>
+      <c r="B938" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 11:30</t>
+        </is>
+      </c>
+      <c r="C938" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Café</t>
+        </is>
+      </c>
+      <c r="D938" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="E938" s="3" t="inlineStr">
+        <is>
+          <t>Era util</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 11:30</t>
+        </is>
+      </c>
+      <c r="B939" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 11:40</t>
+        </is>
+      </c>
+      <c r="C939" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D939" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E939" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 11:40</t>
+        </is>
+      </c>
+      <c r="B940" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 11:50</t>
+        </is>
+      </c>
+      <c r="C940" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D940" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E940" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 11:50</t>
+        </is>
+      </c>
+      <c r="B941" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:00</t>
+        </is>
+      </c>
+      <c r="C941" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D941" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E941" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:00</t>
+        </is>
+      </c>
+      <c r="B942" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:10</t>
+        </is>
+      </c>
+      <c r="C942" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Mensajes</t>
+        </is>
+      </c>
+      <c r="D942" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E942" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:10</t>
+        </is>
+      </c>
+      <c r="B943" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:20</t>
+        </is>
+      </c>
+      <c r="C943" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Café</t>
+        </is>
+      </c>
+      <c r="D943" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cocinar</t>
+        </is>
+      </c>
+      <c r="E943" s="3" t="inlineStr">
+        <is>
+          <t>Tenía hambre</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:20</t>
+        </is>
+      </c>
+      <c r="B944" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:30</t>
+        </is>
+      </c>
+      <c r="C944" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Comer</t>
+        </is>
+      </c>
+      <c r="D944" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E944" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:30</t>
+        </is>
+      </c>
+      <c r="B945" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:40</t>
+        </is>
+      </c>
+      <c r="C945" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Comer</t>
+        </is>
+      </c>
+      <c r="D945" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E945" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:40</t>
+        </is>
+      </c>
+      <c r="B946" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:50</t>
+        </is>
+      </c>
+      <c r="C946" s="3" t="inlineStr">
+        <is>
+          <t>Relax. YouTube</t>
+        </is>
+      </c>
+      <c r="D946" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E946" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 12:50</t>
+        </is>
+      </c>
+      <c r="B947" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 13:00</t>
+        </is>
+      </c>
+      <c r="C947" s="3" t="inlineStr">
+        <is>
+          <t>Relax. YouTube</t>
+        </is>
+      </c>
+      <c r="D947" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E947" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 13:00</t>
+        </is>
+      </c>
+      <c r="B948" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 13:10</t>
+        </is>
+      </c>
+      <c r="C948" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D948" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E948" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 13:10</t>
+        </is>
+      </c>
+      <c r="B949" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 13:20</t>
+        </is>
+      </c>
+      <c r="C949" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D949" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E949" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 13:20</t>
+        </is>
+      </c>
+      <c r="B950" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 13:30</t>
+        </is>
+      </c>
+      <c r="C950" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D950" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E950" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 13:30</t>
+        </is>
+      </c>
+      <c r="B951" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 13:40</t>
+        </is>
+      </c>
+      <c r="C951" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D951" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E951" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 13:40</t>
+        </is>
+      </c>
+      <c r="B952" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 13:50</t>
+        </is>
+      </c>
+      <c r="C952" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D952" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E952" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 13:50</t>
+        </is>
+      </c>
+      <c r="B953" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 14:00</t>
+        </is>
+      </c>
+      <c r="C953" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D953" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E953" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 14:00</t>
+        </is>
+      </c>
+      <c r="B954" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 14:10</t>
+        </is>
+      </c>
+      <c r="C954" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D954" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E954" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 14:10</t>
+        </is>
+      </c>
+      <c r="B955" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 14:20</t>
+        </is>
+      </c>
+      <c r="C955" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D955" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E955" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 14:20</t>
+        </is>
+      </c>
+      <c r="B956" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 14:30</t>
+        </is>
+      </c>
+      <c r="C956" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D956" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E956" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 14:30</t>
+        </is>
+      </c>
+      <c r="B957" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 14:40</t>
+        </is>
+      </c>
+      <c r="C957" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D957" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E957" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 14:40</t>
+        </is>
+      </c>
+      <c r="B958" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 14:50</t>
+        </is>
+      </c>
+      <c r="C958" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D958" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E958" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 14:50</t>
+        </is>
+      </c>
+      <c r="B959" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 15:00</t>
+        </is>
+      </c>
+      <c r="C959" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D959" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E959" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 15:00</t>
+        </is>
+      </c>
+      <c r="B960" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 15:10</t>
+        </is>
+      </c>
+      <c r="C960" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D960" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E960" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 15:10</t>
+        </is>
+      </c>
+      <c r="B961" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 15:20</t>
+        </is>
+      </c>
+      <c r="C961" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Café</t>
+        </is>
+      </c>
+      <c r="D961" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E961" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 15:20</t>
+        </is>
+      </c>
+      <c r="B962" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 15:30</t>
+        </is>
+      </c>
+      <c r="C962" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Profesional Vet</t>
+        </is>
+      </c>
+      <c r="D962" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E962" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 15:30</t>
+        </is>
+      </c>
+      <c r="B963" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 15:40</t>
+        </is>
+      </c>
+      <c r="C963" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Proveedor</t>
+        </is>
+      </c>
+      <c r="D963" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E963" s="3" t="n"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 15:40</t>
+        </is>
+      </c>
+      <c r="B964" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 15:50</t>
+        </is>
+      </c>
+      <c r="C964" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Yaguar</t>
+        </is>
+      </c>
+      <c r="D964" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E964" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 15:50</t>
+        </is>
+      </c>
+      <c r="B965" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 16:00</t>
+        </is>
+      </c>
+      <c r="C965" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Yaguar</t>
+        </is>
+      </c>
+      <c r="D965" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E965" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 16:00</t>
+        </is>
+      </c>
+      <c r="B966" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 16:10</t>
+        </is>
+      </c>
+      <c r="C966" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Platos</t>
+        </is>
+      </c>
+      <c r="D966" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E966" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 16:10</t>
+        </is>
+      </c>
+      <c r="B967" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 16:20</t>
+        </is>
+      </c>
+      <c r="C967" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Escribano</t>
+        </is>
+      </c>
+      <c r="D967" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E967" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 16:20</t>
+        </is>
+      </c>
+      <c r="B968" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 16:30</t>
+        </is>
+      </c>
+      <c r="C968" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D968" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E968" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 16:30</t>
+        </is>
+      </c>
+      <c r="B969" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 16:40</t>
+        </is>
+      </c>
+      <c r="C969" s="3" t="inlineStr">
+        <is>
+          <t>Plan. Finanzas</t>
+        </is>
+      </c>
+      <c r="D969" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E969" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 16:40</t>
+        </is>
+      </c>
+      <c r="B970" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 16:50</t>
+        </is>
+      </c>
+      <c r="C970" s="3" t="inlineStr">
+        <is>
+          <t>Plan. Finanzas</t>
+        </is>
+      </c>
+      <c r="D970" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E970" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 19:50</t>
+        </is>
+      </c>
+      <c r="B971" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:00</t>
+        </is>
+      </c>
+      <c r="C971" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D971" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E971" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:00</t>
+        </is>
+      </c>
+      <c r="B972" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:10</t>
+        </is>
+      </c>
+      <c r="C972" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D972" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E972" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:10</t>
+        </is>
+      </c>
+      <c r="B973" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:20</t>
+        </is>
+      </c>
+      <c r="C973" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D973" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E973" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:20</t>
+        </is>
+      </c>
+      <c r="B974" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:30</t>
+        </is>
+      </c>
+      <c r="C974" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Precios</t>
+        </is>
+      </c>
+      <c r="D974" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E974" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:30</t>
+        </is>
+      </c>
+      <c r="B975" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:40</t>
+        </is>
+      </c>
+      <c r="C975" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Precios</t>
+        </is>
+      </c>
+      <c r="D975" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E975" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:40</t>
+        </is>
+      </c>
+      <c r="B976" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:50</t>
+        </is>
+      </c>
+      <c r="C976" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Precios</t>
+        </is>
+      </c>
+      <c r="D976" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E976" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 20:50</t>
+        </is>
+      </c>
+      <c r="B977" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 21:00</t>
+        </is>
+      </c>
+      <c r="C977" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D977" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E977" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 21:10</t>
+        </is>
+      </c>
+      <c r="B978" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 21:20</t>
+        </is>
+      </c>
+      <c r="C978" s="3" t="inlineStr">
+        <is>
+          <t>Plan. Mensual</t>
+        </is>
+      </c>
+      <c r="D978" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E978" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 21:20</t>
+        </is>
+      </c>
+      <c r="B979" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-22 21:30</t>
+        </is>
+      </c>
+      <c r="C979" s="3" t="inlineStr">
+        <is>
+          <t>Plan. Mensual</t>
+        </is>
+      </c>
+      <c r="D979" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E979" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 09:20</t>
+        </is>
+      </c>
+      <c r="B980" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 09:30</t>
+        </is>
+      </c>
+      <c r="C980" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D980" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E980" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 09:30</t>
+        </is>
+      </c>
+      <c r="B981" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 09:40</t>
+        </is>
+      </c>
+      <c r="C981" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D981" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E981" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 09:40</t>
+        </is>
+      </c>
+      <c r="B982" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 09:50</t>
+        </is>
+      </c>
+      <c r="C982" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D982" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E982" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 09:50</t>
+        </is>
+      </c>
+      <c r="B983" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 10:00</t>
+        </is>
+      </c>
+      <c r="C983" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D983" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E983" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 10:00</t>
+        </is>
+      </c>
+      <c r="B984" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 10:10</t>
+        </is>
+      </c>
+      <c r="C984" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D984" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E984" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 10:10</t>
+        </is>
+      </c>
+      <c r="B985" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 10:20</t>
+        </is>
+      </c>
+      <c r="C985" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D985" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="E985" s="3" t="inlineStr">
+        <is>
+          <t>Hubo mensajes urgentes</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 10:20</t>
+        </is>
+      </c>
+      <c r="B986" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 10:30</t>
+        </is>
+      </c>
+      <c r="C986" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D986" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E986" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 10:30</t>
+        </is>
+      </c>
+      <c r="B987" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 10:40</t>
+        </is>
+      </c>
+      <c r="C987" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D987" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E987" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 10:40</t>
+        </is>
+      </c>
+      <c r="B988" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 10:50</t>
+        </is>
+      </c>
+      <c r="C988" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D988" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E988" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 10:50</t>
+        </is>
+      </c>
+      <c r="B989" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 11:00</t>
+        </is>
+      </c>
+      <c r="C989" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D989" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E989" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 11:00</t>
+        </is>
+      </c>
+      <c r="B990" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 11:10</t>
+        </is>
+      </c>
+      <c r="C990" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D990" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E990" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 11:10</t>
+        </is>
+      </c>
+      <c r="B991" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 11:20</t>
+        </is>
+      </c>
+      <c r="C991" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D991" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E991" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 11:20</t>
+        </is>
+      </c>
+      <c r="B992" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 11:30</t>
+        </is>
+      </c>
+      <c r="C992" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D992" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E992" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 11:30</t>
+        </is>
+      </c>
+      <c r="B993" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 11:40</t>
+        </is>
+      </c>
+      <c r="C993" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D993" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E993" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 11:40</t>
+        </is>
+      </c>
+      <c r="B994" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 11:50</t>
+        </is>
+      </c>
+      <c r="C994" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D994" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E994" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 11:50</t>
+        </is>
+      </c>
+      <c r="B995" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 12:00</t>
+        </is>
+      </c>
+      <c r="C995" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D995" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E995" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 12:00</t>
+        </is>
+      </c>
+      <c r="B996" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 12:10</t>
+        </is>
+      </c>
+      <c r="C996" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D996" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E996" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 12:10</t>
+        </is>
+      </c>
+      <c r="B997" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 12:20</t>
+        </is>
+      </c>
+      <c r="C997" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D997" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E997" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 12:20</t>
+        </is>
+      </c>
+      <c r="B998" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 12:30</t>
+        </is>
+      </c>
+      <c r="C998" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D998" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E998" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 12:30</t>
+        </is>
+      </c>
+      <c r="B999" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 12:40</t>
+        </is>
+      </c>
+      <c r="C999" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D999" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E999" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 12:40</t>
+        </is>
+      </c>
+      <c r="B1000" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 12:50</t>
+        </is>
+      </c>
+      <c r="C1000" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1000" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1000" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 12:50</t>
+        </is>
+      </c>
+      <c r="B1001" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 13:00</t>
+        </is>
+      </c>
+      <c r="C1001" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1001" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1001" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 13:00</t>
+        </is>
+      </c>
+      <c r="B1002" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 13:10</t>
+        </is>
+      </c>
+      <c r="C1002" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1002" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1002" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 13:10</t>
+        </is>
+      </c>
+      <c r="B1003" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 13:20</t>
+        </is>
+      </c>
+      <c r="C1003" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1003" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1003" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 13:20</t>
+        </is>
+      </c>
+      <c r="B1004" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 13:30</t>
+        </is>
+      </c>
+      <c r="C1004" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1004" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1004" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 13:30</t>
+        </is>
+      </c>
+      <c r="B1005" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 13:40</t>
+        </is>
+      </c>
+      <c r="C1005" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1005" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1005" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 13:40</t>
+        </is>
+      </c>
+      <c r="B1006" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 13:50</t>
+        </is>
+      </c>
+      <c r="C1006" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1006" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1006" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 13:50</t>
+        </is>
+      </c>
+      <c r="B1007" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 14:00</t>
+        </is>
+      </c>
+      <c r="C1007" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1007" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1007" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 14:00</t>
+        </is>
+      </c>
+      <c r="B1008" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 14:10</t>
+        </is>
+      </c>
+      <c r="C1008" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cocinar</t>
+        </is>
+      </c>
+      <c r="D1008" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1008" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 14:10</t>
+        </is>
+      </c>
+      <c r="B1009" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 14:20</t>
+        </is>
+      </c>
+      <c r="C1009" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cocinar</t>
+        </is>
+      </c>
+      <c r="D1009" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1009" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 14:20</t>
+        </is>
+      </c>
+      <c r="B1010" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 14:30</t>
+        </is>
+      </c>
+      <c r="C1010" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cocinar</t>
+        </is>
+      </c>
+      <c r="D1010" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1010" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 14:30</t>
+        </is>
+      </c>
+      <c r="B1011" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 14:40</t>
+        </is>
+      </c>
+      <c r="C1011" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1011" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="E1011" s="3" t="inlineStr">
+        <is>
+          <t>Me cebé</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 14:40</t>
+        </is>
+      </c>
+      <c r="B1012" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 14:50</t>
+        </is>
+      </c>
+      <c r="C1012" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1012" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1012" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 14:50</t>
+        </is>
+      </c>
+      <c r="B1013" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 15:00</t>
+        </is>
+      </c>
+      <c r="C1013" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Comer</t>
+        </is>
+      </c>
+      <c r="D1013" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1013" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 15:00</t>
+        </is>
+      </c>
+      <c r="B1014" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 15:10</t>
+        </is>
+      </c>
+      <c r="C1014" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1014" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1014" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 15:10</t>
+        </is>
+      </c>
+      <c r="B1015" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 15:20</t>
+        </is>
+      </c>
+      <c r="C1015" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1015" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1015" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 15:20</t>
+        </is>
+      </c>
+      <c r="B1016" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 15:30</t>
+        </is>
+      </c>
+      <c r="C1016" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1016" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="E1016" s="3" t="inlineStr">
+        <is>
+          <t>Porque arranqué</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 15:30</t>
+        </is>
+      </c>
+      <c r="B1017" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 15:40</t>
+        </is>
+      </c>
+      <c r="C1017" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D1017" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1017" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 15:40</t>
+        </is>
+      </c>
+      <c r="B1018" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 15:50</t>
+        </is>
+      </c>
+      <c r="C1018" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D1018" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1018" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 15:50</t>
+        </is>
+      </c>
+      <c r="B1019" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:00</t>
+        </is>
+      </c>
+      <c r="C1019" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D1019" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1019" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:00</t>
+        </is>
+      </c>
+      <c r="B1020" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:10</t>
+        </is>
+      </c>
+      <c r="C1020" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D1020" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1020" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:10</t>
+        </is>
+      </c>
+      <c r="B1021" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:20</t>
+        </is>
+      </c>
+      <c r="C1021" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D1021" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1021" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:20</t>
+        </is>
+      </c>
+      <c r="B1022" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:30</t>
+        </is>
+      </c>
+      <c r="C1022" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D1022" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1022" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:30</t>
+        </is>
+      </c>
+      <c r="B1023" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:40</t>
+        </is>
+      </c>
+      <c r="C1023" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D1023" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1023" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:40</t>
+        </is>
+      </c>
+      <c r="B1024" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:50</t>
+        </is>
+      </c>
+      <c r="C1024" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1024" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1024" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 16:50</t>
+        </is>
+      </c>
+      <c r="B1025" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 17:00</t>
+        </is>
+      </c>
+      <c r="C1025" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1025" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1025" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 17:00</t>
+        </is>
+      </c>
+      <c r="B1026" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 17:10</t>
+        </is>
+      </c>
+      <c r="C1026" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Café</t>
+        </is>
+      </c>
+      <c r="D1026" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1026" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 17:10</t>
+        </is>
+      </c>
+      <c r="B1027" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 17:20</t>
+        </is>
+      </c>
+      <c r="C1027" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1027" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1027" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 17:20</t>
+        </is>
+      </c>
+      <c r="B1028" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 17:30</t>
+        </is>
+      </c>
+      <c r="C1028" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1028" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1028" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 17:30</t>
+        </is>
+      </c>
+      <c r="B1029" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 17:40</t>
+        </is>
+      </c>
+      <c r="C1029" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1029" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1029" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 17:40</t>
+        </is>
+      </c>
+      <c r="B1030" s="3" t="inlineStr">
+        <is>
+          <t>2024-10-23 17:50</t>
+        </is>
+      </c>
+      <c r="C1030" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1030" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1030" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E912"/>
+  <autoFilter ref="A1:E1030"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Periods.xlsx
+++ b/Periods.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$1202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$1267</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1202"/>
+  <dimension ref="A1:E1267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32801,7 +32801,7 @@
       </c>
       <c r="D1202" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="E1202" s="3" t="inlineStr">
@@ -32810,8 +32810,1763 @@
         </is>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-04 17:00</t>
+        </is>
+      </c>
+      <c r="B1203" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-04 17:20</t>
+        </is>
+      </c>
+      <c r="C1203" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1203" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1203" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-04 17:20</t>
+        </is>
+      </c>
+      <c r="B1204" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-04 17:40</t>
+        </is>
+      </c>
+      <c r="C1204" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Actualizar</t>
+        </is>
+      </c>
+      <c r="D1204" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1204" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-04 17:40</t>
+        </is>
+      </c>
+      <c r="B1205" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-04 18:00</t>
+        </is>
+      </c>
+      <c r="C1205" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Actualizar</t>
+        </is>
+      </c>
+      <c r="D1205" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1205" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-04 18:00</t>
+        </is>
+      </c>
+      <c r="B1206" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-04 18:20</t>
+        </is>
+      </c>
+      <c r="C1206" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Crossfit</t>
+        </is>
+      </c>
+      <c r="D1206" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1206" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-04 20:20</t>
+        </is>
+      </c>
+      <c r="B1207" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-04 20:40</t>
+        </is>
+      </c>
+      <c r="C1207" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Actualizar</t>
+        </is>
+      </c>
+      <c r="D1207" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1207" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-04 20:40</t>
+        </is>
+      </c>
+      <c r="B1208" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-04 21:00</t>
+        </is>
+      </c>
+      <c r="C1208" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Actualizar</t>
+        </is>
+      </c>
+      <c r="D1208" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1208" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-05 22:40</t>
+        </is>
+      </c>
+      <c r="B1209" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-05 23:00</t>
+        </is>
+      </c>
+      <c r="C1209" s="3" t="inlineStr">
+        <is>
+          <t>Code. Transkriptor</t>
+        </is>
+      </c>
+      <c r="D1209" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="E1209" s="3" t="inlineStr">
+        <is>
+          <t>Soy re capo</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-05 23:00</t>
+        </is>
+      </c>
+      <c r="B1210" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-05 23:20</t>
+        </is>
+      </c>
+      <c r="C1210" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1210" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1210" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-05 23:50</t>
+        </is>
+      </c>
+      <c r="B1211" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 00:00</t>
+        </is>
+      </c>
+      <c r="C1211" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1211" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1211" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 00:00</t>
+        </is>
+      </c>
+      <c r="B1212" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 00:10</t>
+        </is>
+      </c>
+      <c r="C1212" s="3" t="inlineStr">
+        <is>
+          <t>Code. Actracker</t>
+        </is>
+      </c>
+      <c r="D1212" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1212" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 00:10</t>
+        </is>
+      </c>
+      <c r="B1213" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 00:20</t>
+        </is>
+      </c>
+      <c r="C1213" s="3" t="inlineStr">
+        <is>
+          <t>Code. Transkriptor</t>
+        </is>
+      </c>
+      <c r="D1213" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1213" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 00:20</t>
+        </is>
+      </c>
+      <c r="B1214" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 00:30</t>
+        </is>
+      </c>
+      <c r="C1214" s="3" t="inlineStr">
+        <is>
+          <t>Code. Transkriptor</t>
+        </is>
+      </c>
+      <c r="D1214" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1214" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 00:30</t>
+        </is>
+      </c>
+      <c r="B1215" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 00:40</t>
+        </is>
+      </c>
+      <c r="C1215" s="3" t="inlineStr">
+        <is>
+          <t>Code. Transkriptor</t>
+        </is>
+      </c>
+      <c r="D1215" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1215" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 00:40</t>
+        </is>
+      </c>
+      <c r="B1216" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 00:50</t>
+        </is>
+      </c>
+      <c r="C1216" s="3" t="inlineStr">
+        <is>
+          <t>Code. Transkriptor</t>
+        </is>
+      </c>
+      <c r="D1216" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1216" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 00:50</t>
+        </is>
+      </c>
+      <c r="B1217" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 01:00</t>
+        </is>
+      </c>
+      <c r="C1217" s="3" t="inlineStr">
+        <is>
+          <t>Code. Transkriptor</t>
+        </is>
+      </c>
+      <c r="D1217" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1217" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 01:00</t>
+        </is>
+      </c>
+      <c r="B1218" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 01:10</t>
+        </is>
+      </c>
+      <c r="C1218" s="3" t="inlineStr">
+        <is>
+          <t>Code. Transkriptor</t>
+        </is>
+      </c>
+      <c r="D1218" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1218" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 10:20</t>
+        </is>
+      </c>
+      <c r="B1219" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 10:30</t>
+        </is>
+      </c>
+      <c r="C1219" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1219" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1219" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 10:30</t>
+        </is>
+      </c>
+      <c r="B1220" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 10:40</t>
+        </is>
+      </c>
+      <c r="C1220" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1220" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1220" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 10:40</t>
+        </is>
+      </c>
+      <c r="B1221" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 10:50</t>
+        </is>
+      </c>
+      <c r="C1221" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1221" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1221" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 10:50</t>
+        </is>
+      </c>
+      <c r="B1222" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 11:00</t>
+        </is>
+      </c>
+      <c r="C1222" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1222" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1222" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 11:00</t>
+        </is>
+      </c>
+      <c r="B1223" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 11:10</t>
+        </is>
+      </c>
+      <c r="C1223" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1223" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1223" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 11:10</t>
+        </is>
+      </c>
+      <c r="B1224" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 11:20</t>
+        </is>
+      </c>
+      <c r="C1224" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1224" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1224" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 11:20</t>
+        </is>
+      </c>
+      <c r="B1225" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 11:30</t>
+        </is>
+      </c>
+      <c r="C1225" s="3" t="inlineStr">
+        <is>
+          <t>Code. Transkriptor</t>
+        </is>
+      </c>
+      <c r="D1225" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1225" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 11:30</t>
+        </is>
+      </c>
+      <c r="B1226" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 11:40</t>
+        </is>
+      </c>
+      <c r="C1226" s="3" t="inlineStr">
+        <is>
+          <t>Code. Transkriptor</t>
+        </is>
+      </c>
+      <c r="D1226" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1226" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 11:40</t>
+        </is>
+      </c>
+      <c r="B1227" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 11:50</t>
+        </is>
+      </c>
+      <c r="C1227" s="3" t="inlineStr">
+        <is>
+          <t>Code. Transkriptor</t>
+        </is>
+      </c>
+      <c r="D1227" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1227" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 11:50</t>
+        </is>
+      </c>
+      <c r="B1228" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 12:00</t>
+        </is>
+      </c>
+      <c r="C1228" s="3" t="inlineStr">
+        <is>
+          <t>Code. Transkriptor</t>
+        </is>
+      </c>
+      <c r="D1228" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1228" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 12:00</t>
+        </is>
+      </c>
+      <c r="B1229" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 12:10</t>
+        </is>
+      </c>
+      <c r="C1229" s="3" t="inlineStr">
+        <is>
+          <t>Code. Transkriptor</t>
+        </is>
+      </c>
+      <c r="D1229" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1229" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 12:30</t>
+        </is>
+      </c>
+      <c r="B1230" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 12:40</t>
+        </is>
+      </c>
+      <c r="C1230" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1230" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1230" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 12:40</t>
+        </is>
+      </c>
+      <c r="B1231" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 12:50</t>
+        </is>
+      </c>
+      <c r="C1231" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1231" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1231" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 12:50</t>
+        </is>
+      </c>
+      <c r="B1232" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 13:00</t>
+        </is>
+      </c>
+      <c r="C1232" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1232" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1232" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 13:00</t>
+        </is>
+      </c>
+      <c r="B1233" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 13:10</t>
+        </is>
+      </c>
+      <c r="C1233" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1233" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1233" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 13:10</t>
+        </is>
+      </c>
+      <c r="B1234" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 13:20</t>
+        </is>
+      </c>
+      <c r="C1234" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1234" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1234" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 13:20</t>
+        </is>
+      </c>
+      <c r="B1235" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 13:30</t>
+        </is>
+      </c>
+      <c r="C1235" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1235" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1235" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 13:30</t>
+        </is>
+      </c>
+      <c r="B1236" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 13:40</t>
+        </is>
+      </c>
+      <c r="C1236" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1236" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1236" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 13:40</t>
+        </is>
+      </c>
+      <c r="B1237" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 13:50</t>
+        </is>
+      </c>
+      <c r="C1237" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1237" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cocinar</t>
+        </is>
+      </c>
+      <c r="E1237" s="3" t="inlineStr">
+        <is>
+          <t>Tenía hambre</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 13:50</t>
+        </is>
+      </c>
+      <c r="B1238" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 14:00</t>
+        </is>
+      </c>
+      <c r="C1238" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Comer</t>
+        </is>
+      </c>
+      <c r="D1238" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1238" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 14:00</t>
+        </is>
+      </c>
+      <c r="B1239" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-06 14:10</t>
+        </is>
+      </c>
+      <c r="C1239" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1239" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1239" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 15:40</t>
+        </is>
+      </c>
+      <c r="B1240" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 15:50</t>
+        </is>
+      </c>
+      <c r="C1240" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1240" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Surf</t>
+        </is>
+      </c>
+      <c r="E1240" s="3" t="inlineStr">
+        <is>
+          <t>No tenía ganas de estudiar, ¿ok? ¿Algún problema?</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 15:50</t>
+        </is>
+      </c>
+      <c r="B1241" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 16:00</t>
+        </is>
+      </c>
+      <c r="C1241" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Leer</t>
+        </is>
+      </c>
+      <c r="D1241" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1241" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 16:00</t>
+        </is>
+      </c>
+      <c r="B1242" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 16:10</t>
+        </is>
+      </c>
+      <c r="C1242" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1242" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="E1242" s="3" t="inlineStr">
+        <is>
+          <t>Estoy tirado</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 16:10</t>
+        </is>
+      </c>
+      <c r="B1243" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 16:20</t>
+        </is>
+      </c>
+      <c r="C1243" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1243" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1243" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 16:20</t>
+        </is>
+      </c>
+      <c r="B1244" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 16:30</t>
+        </is>
+      </c>
+      <c r="C1244" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1244" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1244" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 16:30</t>
+        </is>
+      </c>
+      <c r="B1245" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 16:40</t>
+        </is>
+      </c>
+      <c r="C1245" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1245" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1245" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 16:40</t>
+        </is>
+      </c>
+      <c r="B1246" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 16:50</t>
+        </is>
+      </c>
+      <c r="C1246" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1246" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1246" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 19:20</t>
+        </is>
+      </c>
+      <c r="B1247" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 19:30</t>
+        </is>
+      </c>
+      <c r="C1247" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1247" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1247" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 19:30</t>
+        </is>
+      </c>
+      <c r="B1248" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 19:40</t>
+        </is>
+      </c>
+      <c r="C1248" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cocinar</t>
+        </is>
+      </c>
+      <c r="D1248" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1248" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 19:40</t>
+        </is>
+      </c>
+      <c r="B1249" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 19:50</t>
+        </is>
+      </c>
+      <c r="C1249" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cocinar</t>
+        </is>
+      </c>
+      <c r="D1249" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Triple D</t>
+        </is>
+      </c>
+      <c r="E1249" s="3" t="inlineStr">
+        <is>
+          <t>No sé</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 19:50</t>
+        </is>
+      </c>
+      <c r="B1250" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 20:00</t>
+        </is>
+      </c>
+      <c r="C1250" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cocinar</t>
+        </is>
+      </c>
+      <c r="D1250" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1250" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 20:00</t>
+        </is>
+      </c>
+      <c r="B1251" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 20:10</t>
+        </is>
+      </c>
+      <c r="C1251" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cocinar</t>
+        </is>
+      </c>
+      <c r="D1251" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1251" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 20:20</t>
+        </is>
+      </c>
+      <c r="B1252" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-07 20:30</t>
+        </is>
+      </c>
+      <c r="C1252" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Comer</t>
+        </is>
+      </c>
+      <c r="D1252" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1252" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 16:58</t>
+        </is>
+      </c>
+      <c r="B1253" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:08</t>
+        </is>
+      </c>
+      <c r="C1253" s="3" t="inlineStr">
+        <is>
+          <t>No sé</t>
+        </is>
+      </c>
+      <c r="D1253" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1253" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 16:59</t>
+        </is>
+      </c>
+      <c r="B1254" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:09</t>
+        </is>
+      </c>
+      <c r="C1254" s="3" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+      <c r="D1254" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1254" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 16:59</t>
+        </is>
+      </c>
+      <c r="B1255" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:09</t>
+        </is>
+      </c>
+      <c r="C1255" s="3" t="inlineStr">
+        <is>
+          <t>dddd</t>
+        </is>
+      </c>
+      <c r="D1255" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1255" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:00</t>
+        </is>
+      </c>
+      <c r="B1256" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:10</t>
+        </is>
+      </c>
+      <c r="C1256" s="3" t="inlineStr">
+        <is>
+          <t>dddddddd</t>
+        </is>
+      </c>
+      <c r="D1256" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1256" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:02</t>
+        </is>
+      </c>
+      <c r="B1257" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:12</t>
+        </is>
+      </c>
+      <c r="C1257" s="3" t="inlineStr">
+        <is>
+          <t>dddd</t>
+        </is>
+      </c>
+      <c r="D1257" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="E1257" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:02</t>
+        </is>
+      </c>
+      <c r="B1258" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:12</t>
+        </is>
+      </c>
+      <c r="C1258" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1258" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1258" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:03</t>
+        </is>
+      </c>
+      <c r="B1259" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:13</t>
+        </is>
+      </c>
+      <c r="C1259" s="3" t="inlineStr">
+        <is>
+          <t>ddddd</t>
+        </is>
+      </c>
+      <c r="D1259" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="E1259" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:04</t>
+        </is>
+      </c>
+      <c r="B1260" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:14</t>
+        </is>
+      </c>
+      <c r="C1260" s="3" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D1260" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1260" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:09</t>
+        </is>
+      </c>
+      <c r="B1261" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:19</t>
+        </is>
+      </c>
+      <c r="C1261" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1261" s="3" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="E1261" s="3" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:09</t>
+        </is>
+      </c>
+      <c r="B1262" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:19</t>
+        </is>
+      </c>
+      <c r="C1262" s="3" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D1262" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1262" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:11</t>
+        </is>
+      </c>
+      <c r="B1263" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:21</t>
+        </is>
+      </c>
+      <c r="C1263" s="3" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D1263" s="3" t="inlineStr">
+        <is>
+          <t>dddd</t>
+        </is>
+      </c>
+      <c r="E1263" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:12</t>
+        </is>
+      </c>
+      <c r="B1264" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:22</t>
+        </is>
+      </c>
+      <c r="C1264" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1264" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="E1264" s="3" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:13</t>
+        </is>
+      </c>
+      <c r="B1265" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:23</t>
+        </is>
+      </c>
+      <c r="C1265" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1265" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1265" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:17</t>
+        </is>
+      </c>
+      <c r="B1266" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:27</t>
+        </is>
+      </c>
+      <c r="C1266" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1266" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1266" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:18</t>
+        </is>
+      </c>
+      <c r="B1267" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 17:28</t>
+        </is>
+      </c>
+      <c r="C1267" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1267" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1267" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E1202"/>
+  <autoFilter ref="A1:E1267"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Periods.xlsx
+++ b/Periods.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$1257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$1425</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1257"/>
+  <dimension ref="A1:E1425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34178,24 +34178,24 @@
       </c>
       <c r="D1253" s="3" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>Code. Actracker</t>
         </is>
       </c>
       <c r="E1253" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Para ultimar detalles</t>
         </is>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" s="3" t="inlineStr">
         <is>
-          <t>2024-11-10 17:26</t>
+          <t>2024-11-10 17:30</t>
         </is>
       </c>
       <c r="B1254" s="3" t="inlineStr">
         <is>
-          <t>2024-11-10 17:36</t>
+          <t>2024-11-10 17:40</t>
         </is>
       </c>
       <c r="C1254" s="3" t="inlineStr">
@@ -34217,12 +34217,12 @@
     <row r="1255">
       <c r="A1255" s="3" t="inlineStr">
         <is>
-          <t>2024-11-10 17:27</t>
+          <t>2024-11-10 17:40</t>
         </is>
       </c>
       <c r="B1255" s="3" t="inlineStr">
         <is>
-          <t>2024-11-10 17:37</t>
+          <t>2024-11-10 17:50</t>
         </is>
       </c>
       <c r="C1255" s="3" t="inlineStr">
@@ -34244,12 +34244,12 @@
     <row r="1256">
       <c r="A1256" s="3" t="inlineStr">
         <is>
-          <t>2024-11-10 17:29</t>
+          <t>2024-11-10 17:50</t>
         </is>
       </c>
       <c r="B1256" s="3" t="inlineStr">
         <is>
-          <t>2024-11-10 17:39</t>
+          <t>2024-11-10 18:00</t>
         </is>
       </c>
       <c r="C1256" s="3" t="inlineStr">
@@ -34271,12 +34271,12 @@
     <row r="1257">
       <c r="A1257" s="3" t="inlineStr">
         <is>
-          <t>2024-11-10 17:30</t>
+          <t>2024-11-10 18:00</t>
         </is>
       </c>
       <c r="B1257" s="3" t="inlineStr">
         <is>
-          <t>2024-11-10 17:40</t>
+          <t>2024-11-10 18:10</t>
         </is>
       </c>
       <c r="C1257" s="3" t="inlineStr">
@@ -34295,8 +34295,4544 @@
         </is>
       </c>
     </row>
+    <row r="1258">
+      <c r="A1258" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 18:10</t>
+        </is>
+      </c>
+      <c r="B1258" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 18:20</t>
+        </is>
+      </c>
+      <c r="C1258" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1258" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1258" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 18:20</t>
+        </is>
+      </c>
+      <c r="B1259" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 18:30</t>
+        </is>
+      </c>
+      <c r="C1259" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1259" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1259" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 18:30</t>
+        </is>
+      </c>
+      <c r="B1260" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 18:40</t>
+        </is>
+      </c>
+      <c r="C1260" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1260" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1260" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 18:40</t>
+        </is>
+      </c>
+      <c r="B1261" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 18:50</t>
+        </is>
+      </c>
+      <c r="C1261" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1261" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1261" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 18:50</t>
+        </is>
+      </c>
+      <c r="B1262" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 19:00</t>
+        </is>
+      </c>
+      <c r="C1262" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1262" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1262" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 19:00</t>
+        </is>
+      </c>
+      <c r="B1263" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 19:10</t>
+        </is>
+      </c>
+      <c r="C1263" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1263" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1263" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 19:10</t>
+        </is>
+      </c>
+      <c r="B1264" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 19:20</t>
+        </is>
+      </c>
+      <c r="C1264" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1264" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1264" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 19:20</t>
+        </is>
+      </c>
+      <c r="B1265" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 19:30</t>
+        </is>
+      </c>
+      <c r="C1265" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Ropa</t>
+        </is>
+      </c>
+      <c r="D1265" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1265" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 19:30</t>
+        </is>
+      </c>
+      <c r="B1266" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 19:40</t>
+        </is>
+      </c>
+      <c r="C1266" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Dientes</t>
+        </is>
+      </c>
+      <c r="D1266" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1266" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 19:40</t>
+        </is>
+      </c>
+      <c r="B1267" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 19:50</t>
+        </is>
+      </c>
+      <c r="C1267" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Compras</t>
+        </is>
+      </c>
+      <c r="D1267" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1267" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 23:30</t>
+        </is>
+      </c>
+      <c r="B1268" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 23:40</t>
+        </is>
+      </c>
+      <c r="C1268" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1268" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1268" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 23:40</t>
+        </is>
+      </c>
+      <c r="B1269" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 23:50</t>
+        </is>
+      </c>
+      <c r="C1269" s="3" t="inlineStr">
+        <is>
+          <t>Leer. El viaje del escritor</t>
+        </is>
+      </c>
+      <c r="D1269" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1269" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-10 23:50</t>
+        </is>
+      </c>
+      <c r="B1270" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 00:00</t>
+        </is>
+      </c>
+      <c r="C1270" s="3" t="inlineStr">
+        <is>
+          <t>Leer. El viaje del escritor</t>
+        </is>
+      </c>
+      <c r="D1270" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1270" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 00:00</t>
+        </is>
+      </c>
+      <c r="B1271" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 00:10</t>
+        </is>
+      </c>
+      <c r="C1271" s="3" t="inlineStr">
+        <is>
+          <t>Leer. El viaje del escritor</t>
+        </is>
+      </c>
+      <c r="D1271" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1271" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 00:10</t>
+        </is>
+      </c>
+      <c r="B1272" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 00:20</t>
+        </is>
+      </c>
+      <c r="C1272" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1272" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1272" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 00:20</t>
+        </is>
+      </c>
+      <c r="B1273" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 00:30</t>
+        </is>
+      </c>
+      <c r="C1273" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1273" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1273" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 00:30</t>
+        </is>
+      </c>
+      <c r="B1274" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 00:40</t>
+        </is>
+      </c>
+      <c r="C1274" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1274" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1274" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 00:40</t>
+        </is>
+      </c>
+      <c r="B1275" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 00:50</t>
+        </is>
+      </c>
+      <c r="C1275" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1275" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1275" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 00:50</t>
+        </is>
+      </c>
+      <c r="B1276" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 01:00</t>
+        </is>
+      </c>
+      <c r="C1276" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1276" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1276" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 01:00</t>
+        </is>
+      </c>
+      <c r="B1277" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 01:10</t>
+        </is>
+      </c>
+      <c r="C1277" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1277" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1277" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 01:10</t>
+        </is>
+      </c>
+      <c r="B1278" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 01:20</t>
+        </is>
+      </c>
+      <c r="C1278" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1278" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1278" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 01:20</t>
+        </is>
+      </c>
+      <c r="B1279" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 01:30</t>
+        </is>
+      </c>
+      <c r="C1279" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1279" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1279" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 01:30</t>
+        </is>
+      </c>
+      <c r="B1280" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 01:40</t>
+        </is>
+      </c>
+      <c r="C1280" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1280" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1280" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 01:40</t>
+        </is>
+      </c>
+      <c r="B1281" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 01:50</t>
+        </is>
+      </c>
+      <c r="C1281" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1281" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1281" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 01:50</t>
+        </is>
+      </c>
+      <c r="B1282" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 02:00</t>
+        </is>
+      </c>
+      <c r="C1282" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1282" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1282" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 02:00</t>
+        </is>
+      </c>
+      <c r="B1283" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 02:10</t>
+        </is>
+      </c>
+      <c r="C1283" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1283" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1283" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 02:10</t>
+        </is>
+      </c>
+      <c r="B1284" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 02:20</t>
+        </is>
+      </c>
+      <c r="C1284" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1284" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1284" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 02:20</t>
+        </is>
+      </c>
+      <c r="B1285" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 02:30</t>
+        </is>
+      </c>
+      <c r="C1285" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1285" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1285" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 13:40</t>
+        </is>
+      </c>
+      <c r="B1286" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 13:50</t>
+        </is>
+      </c>
+      <c r="C1286" s="3" t="inlineStr">
+        <is>
+          <t>Chores. Cocinar</t>
+        </is>
+      </c>
+      <c r="D1286" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1286" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 13:50</t>
+        </is>
+      </c>
+      <c r="B1287" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 14:00</t>
+        </is>
+      </c>
+      <c r="C1287" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Comer</t>
+        </is>
+      </c>
+      <c r="D1287" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1287" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 14:00</t>
+        </is>
+      </c>
+      <c r="B1288" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 14:10</t>
+        </is>
+      </c>
+      <c r="C1288" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1288" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1288" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 14:10</t>
+        </is>
+      </c>
+      <c r="B1289" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 14:20</t>
+        </is>
+      </c>
+      <c r="C1289" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1289" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1289" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 14:20</t>
+        </is>
+      </c>
+      <c r="B1290" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 14:30</t>
+        </is>
+      </c>
+      <c r="C1290" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Comer</t>
+        </is>
+      </c>
+      <c r="D1290" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1290" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 14:30</t>
+        </is>
+      </c>
+      <c r="B1291" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 14:40</t>
+        </is>
+      </c>
+      <c r="C1291" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Comer</t>
+        </is>
+      </c>
+      <c r="D1291" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1291" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 14:40</t>
+        </is>
+      </c>
+      <c r="B1292" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 14:50</t>
+        </is>
+      </c>
+      <c r="C1292" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1292" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1292" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 14:50</t>
+        </is>
+      </c>
+      <c r="B1293" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 15:00</t>
+        </is>
+      </c>
+      <c r="C1293" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1293" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1293" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 15:00</t>
+        </is>
+      </c>
+      <c r="B1294" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 15:10</t>
+        </is>
+      </c>
+      <c r="C1294" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1294" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1294" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 15:10</t>
+        </is>
+      </c>
+      <c r="B1295" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 15:20</t>
+        </is>
+      </c>
+      <c r="C1295" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D1295" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1295" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 15:20</t>
+        </is>
+      </c>
+      <c r="B1296" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 15:30</t>
+        </is>
+      </c>
+      <c r="C1296" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D1296" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1296" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 15:30</t>
+        </is>
+      </c>
+      <c r="B1297" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 15:40</t>
+        </is>
+      </c>
+      <c r="C1297" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="D1297" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Tesis</t>
+        </is>
+      </c>
+      <c r="E1297" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 15:40</t>
+        </is>
+      </c>
+      <c r="B1298" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 15:50</t>
+        </is>
+      </c>
+      <c r="C1298" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1298" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1298" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 15:50</t>
+        </is>
+      </c>
+      <c r="B1299" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 16:00</t>
+        </is>
+      </c>
+      <c r="C1299" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1299" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1299" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 16:00</t>
+        </is>
+      </c>
+      <c r="B1300" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 16:10</t>
+        </is>
+      </c>
+      <c r="C1300" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1300" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1300" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 16:10</t>
+        </is>
+      </c>
+      <c r="B1301" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 16:20</t>
+        </is>
+      </c>
+      <c r="C1301" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1301" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1301" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 16:20</t>
+        </is>
+      </c>
+      <c r="B1302" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 16:30</t>
+        </is>
+      </c>
+      <c r="C1302" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1302" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1302" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 16:30</t>
+        </is>
+      </c>
+      <c r="B1303" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 16:40</t>
+        </is>
+      </c>
+      <c r="C1303" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1303" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1303" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 16:40</t>
+        </is>
+      </c>
+      <c r="B1304" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 16:50</t>
+        </is>
+      </c>
+      <c r="C1304" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1304" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1304" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 16:50</t>
+        </is>
+      </c>
+      <c r="B1305" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 17:00</t>
+        </is>
+      </c>
+      <c r="C1305" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1305" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1305" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 17:00</t>
+        </is>
+      </c>
+      <c r="B1306" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 17:10</t>
+        </is>
+      </c>
+      <c r="C1306" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1306" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1306" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 17:10</t>
+        </is>
+      </c>
+      <c r="B1307" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 17:20</t>
+        </is>
+      </c>
+      <c r="C1307" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1307" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1307" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 17:20</t>
+        </is>
+      </c>
+      <c r="B1308" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 17:30</t>
+        </is>
+      </c>
+      <c r="C1308" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1308" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1308" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 17:30</t>
+        </is>
+      </c>
+      <c r="B1309" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 17:40</t>
+        </is>
+      </c>
+      <c r="C1309" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1309" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1309" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 17:40</t>
+        </is>
+      </c>
+      <c r="B1310" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 17:50</t>
+        </is>
+      </c>
+      <c r="C1310" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1310" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1310" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 17:50</t>
+        </is>
+      </c>
+      <c r="B1311" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 18:00</t>
+        </is>
+      </c>
+      <c r="C1311" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1311" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1311" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 18:00</t>
+        </is>
+      </c>
+      <c r="B1312" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 18:10</t>
+        </is>
+      </c>
+      <c r="C1312" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1312" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1312" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 18:10</t>
+        </is>
+      </c>
+      <c r="B1313" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 18:20</t>
+        </is>
+      </c>
+      <c r="C1313" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1313" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1313" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 18:20</t>
+        </is>
+      </c>
+      <c r="B1314" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 18:30</t>
+        </is>
+      </c>
+      <c r="C1314" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1314" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1314" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 18:30</t>
+        </is>
+      </c>
+      <c r="B1315" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 18:40</t>
+        </is>
+      </c>
+      <c r="C1315" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1315" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1315" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 18:40</t>
+        </is>
+      </c>
+      <c r="B1316" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 18:50</t>
+        </is>
+      </c>
+      <c r="C1316" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1316" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1316" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 18:50</t>
+        </is>
+      </c>
+      <c r="B1317" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 19:00</t>
+        </is>
+      </c>
+      <c r="C1317" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1317" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1317" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 19:00</t>
+        </is>
+      </c>
+      <c r="B1318" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 19:10</t>
+        </is>
+      </c>
+      <c r="C1318" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1318" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1318" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 19:10</t>
+        </is>
+      </c>
+      <c r="B1319" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 19:20</t>
+        </is>
+      </c>
+      <c r="C1319" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Actualizar</t>
+        </is>
+      </c>
+      <c r="D1319" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1319" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 19:20</t>
+        </is>
+      </c>
+      <c r="B1320" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 19:30</t>
+        </is>
+      </c>
+      <c r="C1320" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Actualizar</t>
+        </is>
+      </c>
+      <c r="D1320" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1320" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 19:30</t>
+        </is>
+      </c>
+      <c r="B1321" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 19:40</t>
+        </is>
+      </c>
+      <c r="C1321" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Actualizar</t>
+        </is>
+      </c>
+      <c r="D1321" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1321" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 19:40</t>
+        </is>
+      </c>
+      <c r="B1322" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 19:50</t>
+        </is>
+      </c>
+      <c r="C1322" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Actualizar</t>
+        </is>
+      </c>
+      <c r="D1322" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1322" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 20:20</t>
+        </is>
+      </c>
+      <c r="B1323" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 20:30</t>
+        </is>
+      </c>
+      <c r="C1323" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Actualizar</t>
+        </is>
+      </c>
+      <c r="D1323" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1323" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 20:30</t>
+        </is>
+      </c>
+      <c r="B1324" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 20:40</t>
+        </is>
+      </c>
+      <c r="C1324" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Actualizar</t>
+        </is>
+      </c>
+      <c r="D1324" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1324" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 20:40</t>
+        </is>
+      </c>
+      <c r="B1325" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 20:50</t>
+        </is>
+      </c>
+      <c r="C1325" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Actualizar</t>
+        </is>
+      </c>
+      <c r="D1325" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1325" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 20:50</t>
+        </is>
+      </c>
+      <c r="B1326" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 21:00</t>
+        </is>
+      </c>
+      <c r="C1326" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Actualizar</t>
+        </is>
+      </c>
+      <c r="D1326" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1326" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 21:00</t>
+        </is>
+      </c>
+      <c r="B1327" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 21:10</t>
+        </is>
+      </c>
+      <c r="C1327" s="3" t="inlineStr">
+        <is>
+          <t>Trabajo. Actualizar</t>
+        </is>
+      </c>
+      <c r="D1327" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1327" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 23:10</t>
+        </is>
+      </c>
+      <c r="B1328" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 23:20</t>
+        </is>
+      </c>
+      <c r="C1328" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1328" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1328" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 23:20</t>
+        </is>
+      </c>
+      <c r="B1329" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 23:30</t>
+        </is>
+      </c>
+      <c r="C1329" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1329" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1329" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 23:30</t>
+        </is>
+      </c>
+      <c r="B1330" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 23:40</t>
+        </is>
+      </c>
+      <c r="C1330" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1330" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1330" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 23:40</t>
+        </is>
+      </c>
+      <c r="B1331" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 23:50</t>
+        </is>
+      </c>
+      <c r="C1331" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1331" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1331" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-11 23:50</t>
+        </is>
+      </c>
+      <c r="B1332" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-12 00:00</t>
+        </is>
+      </c>
+      <c r="C1332" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Neurofisiología</t>
+        </is>
+      </c>
+      <c r="D1332" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1332" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-12 00:00</t>
+        </is>
+      </c>
+      <c r="B1333" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-12 00:10</t>
+        </is>
+      </c>
+      <c r="C1333" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1333" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1333" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-12 00:10</t>
+        </is>
+      </c>
+      <c r="B1334" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-12 00:20</t>
+        </is>
+      </c>
+      <c r="C1334" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1334" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1334" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-12 00:20</t>
+        </is>
+      </c>
+      <c r="B1335" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-12 00:30</t>
+        </is>
+      </c>
+      <c r="C1335" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1335" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1335" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-12 00:30</t>
+        </is>
+      </c>
+      <c r="B1336" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-12 00:40</t>
+        </is>
+      </c>
+      <c r="C1336" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1336" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1336" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-12 00:40</t>
+        </is>
+      </c>
+      <c r="B1337" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-12 00:50</t>
+        </is>
+      </c>
+      <c r="C1337" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1337" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1337" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-12 02:00</t>
+        </is>
+      </c>
+      <c r="B1338" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-12 02:10</t>
+        </is>
+      </c>
+      <c r="C1338" s="3" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="D1338" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1338" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-12 23:30</t>
+        </is>
+      </c>
+      <c r="B1339" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-12 23:40</t>
+        </is>
+      </c>
+      <c r="C1339" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1339" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1339" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-12 23:40</t>
+        </is>
+      </c>
+      <c r="B1340" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-12 23:50</t>
+        </is>
+      </c>
+      <c r="C1340" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1340" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1340" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-12 23:50</t>
+        </is>
+      </c>
+      <c r="B1341" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 00:00</t>
+        </is>
+      </c>
+      <c r="C1341" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1341" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1341" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 00:00</t>
+        </is>
+      </c>
+      <c r="B1342" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 00:10</t>
+        </is>
+      </c>
+      <c r="C1342" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1342" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1342" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 00:10</t>
+        </is>
+      </c>
+      <c r="B1343" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 00:20</t>
+        </is>
+      </c>
+      <c r="C1343" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1343" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1343" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 00:20</t>
+        </is>
+      </c>
+      <c r="B1344" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 00:30</t>
+        </is>
+      </c>
+      <c r="C1344" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1344" s="3" t="inlineStr">
+        <is>
+          <t>tyre</t>
+        </is>
+      </c>
+      <c r="E1344" s="3" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 00:30</t>
+        </is>
+      </c>
+      <c r="B1345" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 00:40</t>
+        </is>
+      </c>
+      <c r="C1345" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1345" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1345" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 00:40</t>
+        </is>
+      </c>
+      <c r="B1346" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 00:50</t>
+        </is>
+      </c>
+      <c r="C1346" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1346" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1346" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 00:50</t>
+        </is>
+      </c>
+      <c r="B1347" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 01:00</t>
+        </is>
+      </c>
+      <c r="C1347" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1347" s="3" t="inlineStr">
+        <is>
+          <t>hj</t>
+        </is>
+      </c>
+      <c r="E1347" s="3" t="inlineStr">
+        <is>
+          <t>ijho</t>
+        </is>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 01:00</t>
+        </is>
+      </c>
+      <c r="B1348" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 01:10</t>
+        </is>
+      </c>
+      <c r="C1348" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1348" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1348" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 01:10</t>
+        </is>
+      </c>
+      <c r="B1349" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 01:20</t>
+        </is>
+      </c>
+      <c r="C1349" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1349" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1349" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 01:20</t>
+        </is>
+      </c>
+      <c r="B1350" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 01:30</t>
+        </is>
+      </c>
+      <c r="C1350" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1350" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1350" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 01:30</t>
+        </is>
+      </c>
+      <c r="B1351" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 01:40</t>
+        </is>
+      </c>
+      <c r="C1351" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1351" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1351" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 01:40</t>
+        </is>
+      </c>
+      <c r="B1352" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 01:50</t>
+        </is>
+      </c>
+      <c r="C1352" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1352" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1352" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 01:50</t>
+        </is>
+      </c>
+      <c r="B1353" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 02:00</t>
+        </is>
+      </c>
+      <c r="C1353" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1353" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1353" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 02:00</t>
+        </is>
+      </c>
+      <c r="B1354" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 02:10</t>
+        </is>
+      </c>
+      <c r="C1354" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1354" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1354" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 02:10</t>
+        </is>
+      </c>
+      <c r="B1355" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 02:20</t>
+        </is>
+      </c>
+      <c r="C1355" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D1355" s="3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E1355" s="3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 02:20</t>
+        </is>
+      </c>
+      <c r="B1356" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 02:30</t>
+        </is>
+      </c>
+      <c r="C1356" s="3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D1356" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1356" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 02:30</t>
+        </is>
+      </c>
+      <c r="B1357" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 02:40</t>
+        </is>
+      </c>
+      <c r="C1357" s="3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D1357" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1357" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 02:40</t>
+        </is>
+      </c>
+      <c r="B1358" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 02:50</t>
+        </is>
+      </c>
+      <c r="C1358" s="3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D1358" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1358" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 02:50</t>
+        </is>
+      </c>
+      <c r="B1359" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 03:00</t>
+        </is>
+      </c>
+      <c r="C1359" s="3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D1359" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1359" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 12:10</t>
+        </is>
+      </c>
+      <c r="B1360" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 12:20</t>
+        </is>
+      </c>
+      <c r="C1360" s="3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D1360" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1360" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 12:20</t>
+        </is>
+      </c>
+      <c r="B1361" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 12:30</t>
+        </is>
+      </c>
+      <c r="C1361" s="3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D1361" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1361" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 17:00</t>
+        </is>
+      </c>
+      <c r="B1362" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 17:10</t>
+        </is>
+      </c>
+      <c r="C1362" s="3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D1362" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1362" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 17:10</t>
+        </is>
+      </c>
+      <c r="B1363" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 17:20</t>
+        </is>
+      </c>
+      <c r="C1363" s="3" t="inlineStr">
+        <is>
+          <t>Code. Documentar</t>
+        </is>
+      </c>
+      <c r="D1363" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1363" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 17:20</t>
+        </is>
+      </c>
+      <c r="B1364" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 17:30</t>
+        </is>
+      </c>
+      <c r="C1364" s="3" t="inlineStr">
+        <is>
+          <t>Code. Documentar</t>
+        </is>
+      </c>
+      <c r="D1364" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1364" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 17:30</t>
+        </is>
+      </c>
+      <c r="B1365" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 17:40</t>
+        </is>
+      </c>
+      <c r="C1365" s="3" t="inlineStr">
+        <is>
+          <t>Code. Documentar</t>
+        </is>
+      </c>
+      <c r="D1365" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1365" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 17:40</t>
+        </is>
+      </c>
+      <c r="B1366" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 17:50</t>
+        </is>
+      </c>
+      <c r="C1366" s="3" t="inlineStr">
+        <is>
+          <t>Code. Documentar</t>
+        </is>
+      </c>
+      <c r="D1366" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1366" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 17:50</t>
+        </is>
+      </c>
+      <c r="B1367" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-13 18:00</t>
+        </is>
+      </c>
+      <c r="C1367" s="3" t="inlineStr">
+        <is>
+          <t>Code. Documentar</t>
+        </is>
+      </c>
+      <c r="D1367" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1367" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 13:20</t>
+        </is>
+      </c>
+      <c r="B1368" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 13:30</t>
+        </is>
+      </c>
+      <c r="C1368" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1368" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1368" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 13:30</t>
+        </is>
+      </c>
+      <c r="B1369" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 13:40</t>
+        </is>
+      </c>
+      <c r="C1369" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1369" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1369" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 13:40</t>
+        </is>
+      </c>
+      <c r="B1370" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 13:50</t>
+        </is>
+      </c>
+      <c r="C1370" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1370" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1370" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 13:50</t>
+        </is>
+      </c>
+      <c r="B1371" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 14:00</t>
+        </is>
+      </c>
+      <c r="C1371" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1371" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1371" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 14:00</t>
+        </is>
+      </c>
+      <c r="B1372" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 14:10</t>
+        </is>
+      </c>
+      <c r="C1372" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1372" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1372" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 14:10</t>
+        </is>
+      </c>
+      <c r="B1373" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 14:20</t>
+        </is>
+      </c>
+      <c r="C1373" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1373" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1373" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 14:20</t>
+        </is>
+      </c>
+      <c r="B1374" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 14:30</t>
+        </is>
+      </c>
+      <c r="C1374" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1374" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1374" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 14:30</t>
+        </is>
+      </c>
+      <c r="B1375" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 14:40</t>
+        </is>
+      </c>
+      <c r="C1375" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1375" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1375" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 14:40</t>
+        </is>
+      </c>
+      <c r="B1376" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 14:50</t>
+        </is>
+      </c>
+      <c r="C1376" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1376" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1376" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 14:50</t>
+        </is>
+      </c>
+      <c r="B1377" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:00</t>
+        </is>
+      </c>
+      <c r="C1377" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1377" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1377" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:00</t>
+        </is>
+      </c>
+      <c r="B1378" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:10</t>
+        </is>
+      </c>
+      <c r="C1378" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1378" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1378" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:20</t>
+        </is>
+      </c>
+      <c r="B1379" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:30</t>
+        </is>
+      </c>
+      <c r="C1379" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1379" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1379" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:30</t>
+        </is>
+      </c>
+      <c r="B1380" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:40</t>
+        </is>
+      </c>
+      <c r="C1380" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1380" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1380" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:40</t>
+        </is>
+      </c>
+      <c r="B1381" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:50</t>
+        </is>
+      </c>
+      <c r="C1381" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1381" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1381" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:50</t>
+        </is>
+      </c>
+      <c r="B1382" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:00</t>
+        </is>
+      </c>
+      <c r="C1382" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1382" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1382" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:00</t>
+        </is>
+      </c>
+      <c r="B1383" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:10</t>
+        </is>
+      </c>
+      <c r="C1383" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1383" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1383" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:10</t>
+        </is>
+      </c>
+      <c r="B1384" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:20</t>
+        </is>
+      </c>
+      <c r="C1384" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1384" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1384" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:20</t>
+        </is>
+      </c>
+      <c r="B1385" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:30</t>
+        </is>
+      </c>
+      <c r="C1385" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1385" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1385" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:30</t>
+        </is>
+      </c>
+      <c r="B1386" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:40</t>
+        </is>
+      </c>
+      <c r="C1386" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1386" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1386" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:40</t>
+        </is>
+      </c>
+      <c r="B1387" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:50</t>
+        </is>
+      </c>
+      <c r="C1387" s="3" t="inlineStr">
+        <is>
+          <t>Facultad. Datos</t>
+        </is>
+      </c>
+      <c r="D1387" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1387" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-18 22:30</t>
+        </is>
+      </c>
+      <c r="B1388" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-18 22:40</t>
+        </is>
+      </c>
+      <c r="C1388" s="3" t="inlineStr">
+        <is>
+          <t>Order. Cine</t>
+        </is>
+      </c>
+      <c r="D1388" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1388" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-18 22:40</t>
+        </is>
+      </c>
+      <c r="B1389" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-18 22:50</t>
+        </is>
+      </c>
+      <c r="C1389" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1389" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1389" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-19 23:50</t>
+        </is>
+      </c>
+      <c r="B1390" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 00:00</t>
+        </is>
+      </c>
+      <c r="C1390" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1390" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1390" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 00:00</t>
+        </is>
+      </c>
+      <c r="B1391" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 00:10</t>
+        </is>
+      </c>
+      <c r="C1391" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1391" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1391" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 00:10</t>
+        </is>
+      </c>
+      <c r="B1392" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 00:20</t>
+        </is>
+      </c>
+      <c r="C1392" s="3" t="inlineStr">
+        <is>
+          <t>Think. Epsilon</t>
+        </is>
+      </c>
+      <c r="D1392" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1392" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 00:20</t>
+        </is>
+      </c>
+      <c r="B1393" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 00:30</t>
+        </is>
+      </c>
+      <c r="C1393" s="3" t="inlineStr">
+        <is>
+          <t>Think. Epsilon</t>
+        </is>
+      </c>
+      <c r="D1393" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1393" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 12:20</t>
+        </is>
+      </c>
+      <c r="B1394" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 12:30</t>
+        </is>
+      </c>
+      <c r="C1394" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1394" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1394" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 12:30</t>
+        </is>
+      </c>
+      <c r="B1395" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 12:40</t>
+        </is>
+      </c>
+      <c r="C1395" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1395" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1395" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 14:40</t>
+        </is>
+      </c>
+      <c r="B1396" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 14:50</t>
+        </is>
+      </c>
+      <c r="C1396" s="3" t="inlineStr">
+        <is>
+          <t>Task. Selenium</t>
+        </is>
+      </c>
+      <c r="D1396" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1396" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 14:50</t>
+        </is>
+      </c>
+      <c r="B1397" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 15:00</t>
+        </is>
+      </c>
+      <c r="C1397" s="3" t="inlineStr">
+        <is>
+          <t>Task. Selenium</t>
+        </is>
+      </c>
+      <c r="D1397" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1397" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 15:00</t>
+        </is>
+      </c>
+      <c r="B1398" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 15:10</t>
+        </is>
+      </c>
+      <c r="C1398" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1398" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1398" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 15:10</t>
+        </is>
+      </c>
+      <c r="B1399" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 15:20</t>
+        </is>
+      </c>
+      <c r="C1399" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1399" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1399" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 15:20</t>
+        </is>
+      </c>
+      <c r="B1400" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 15:30</t>
+        </is>
+      </c>
+      <c r="C1400" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1400" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1400" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 15:30</t>
+        </is>
+      </c>
+      <c r="B1401" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 15:40</t>
+        </is>
+      </c>
+      <c r="C1401" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1401" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1401" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 15:40</t>
+        </is>
+      </c>
+      <c r="B1402" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 15:50</t>
+        </is>
+      </c>
+      <c r="C1402" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1402" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1402" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 16:00</t>
+        </is>
+      </c>
+      <c r="B1403" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 16:10</t>
+        </is>
+      </c>
+      <c r="C1403" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1403" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1403" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 16:10</t>
+        </is>
+      </c>
+      <c r="B1404" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 16:20</t>
+        </is>
+      </c>
+      <c r="C1404" s="3" t="inlineStr">
+        <is>
+          <t>Relax. Libre</t>
+        </is>
+      </c>
+      <c r="D1404" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1404" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 16:40</t>
+        </is>
+      </c>
+      <c r="B1405" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 16:50</t>
+        </is>
+      </c>
+      <c r="C1405" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Carver</t>
+        </is>
+      </c>
+      <c r="D1405" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1405" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 16:50</t>
+        </is>
+      </c>
+      <c r="B1406" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 17:00</t>
+        </is>
+      </c>
+      <c r="C1406" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Carver</t>
+        </is>
+      </c>
+      <c r="D1406" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1406" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 17:00</t>
+        </is>
+      </c>
+      <c r="B1407" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 17:10</t>
+        </is>
+      </c>
+      <c r="C1407" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Carver</t>
+        </is>
+      </c>
+      <c r="D1407" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1407" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 17:10</t>
+        </is>
+      </c>
+      <c r="B1408" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 17:20</t>
+        </is>
+      </c>
+      <c r="C1408" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Carver</t>
+        </is>
+      </c>
+      <c r="D1408" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1408" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 17:20</t>
+        </is>
+      </c>
+      <c r="B1409" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 17:30</t>
+        </is>
+      </c>
+      <c r="C1409" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Carver</t>
+        </is>
+      </c>
+      <c r="D1409" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1409" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 17:30</t>
+        </is>
+      </c>
+      <c r="B1410" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 17:40</t>
+        </is>
+      </c>
+      <c r="C1410" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Carver</t>
+        </is>
+      </c>
+      <c r="D1410" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1410" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 17:40</t>
+        </is>
+      </c>
+      <c r="B1411" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 17:50</t>
+        </is>
+      </c>
+      <c r="C1411" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Carver</t>
+        </is>
+      </c>
+      <c r="D1411" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1411" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 17:50</t>
+        </is>
+      </c>
+      <c r="B1412" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 18:00</t>
+        </is>
+      </c>
+      <c r="C1412" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Carver</t>
+        </is>
+      </c>
+      <c r="D1412" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1412" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 18:00</t>
+        </is>
+      </c>
+      <c r="B1413" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 18:10</t>
+        </is>
+      </c>
+      <c r="C1413" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Carver</t>
+        </is>
+      </c>
+      <c r="D1413" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1413" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 18:10</t>
+        </is>
+      </c>
+      <c r="B1414" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 18:20</t>
+        </is>
+      </c>
+      <c r="C1414" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Carver</t>
+        </is>
+      </c>
+      <c r="D1414" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1414" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 18:20</t>
+        </is>
+      </c>
+      <c r="B1415" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 18:30</t>
+        </is>
+      </c>
+      <c r="C1415" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Carver</t>
+        </is>
+      </c>
+      <c r="D1415" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1415" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 18:40</t>
+        </is>
+      </c>
+      <c r="B1416" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 18:50</t>
+        </is>
+      </c>
+      <c r="C1416" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Carver</t>
+        </is>
+      </c>
+      <c r="D1416" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1416" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 19:10</t>
+        </is>
+      </c>
+      <c r="B1417" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 19:20</t>
+        </is>
+      </c>
+      <c r="C1417" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Carver</t>
+        </is>
+      </c>
+      <c r="D1417" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1417" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 19:20</t>
+        </is>
+      </c>
+      <c r="B1418" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 19:30</t>
+        </is>
+      </c>
+      <c r="C1418" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Carver</t>
+        </is>
+      </c>
+      <c r="D1418" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1418" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 19:30</t>
+        </is>
+      </c>
+      <c r="B1419" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 19:40</t>
+        </is>
+      </c>
+      <c r="C1419" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Carver</t>
+        </is>
+      </c>
+      <c r="D1419" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1419" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 19:50</t>
+        </is>
+      </c>
+      <c r="B1420" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 20:00</t>
+        </is>
+      </c>
+      <c r="C1420" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Carver</t>
+        </is>
+      </c>
+      <c r="D1420" s="3" t="inlineStr">
+        <is>
+          <t>km</t>
+        </is>
+      </c>
+      <c r="E1420" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m </t>
+        </is>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 20:00</t>
+        </is>
+      </c>
+      <c r="B1421" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 20:10</t>
+        </is>
+      </c>
+      <c r="C1421" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Carver</t>
+        </is>
+      </c>
+      <c r="D1421" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1421" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 20:10</t>
+        </is>
+      </c>
+      <c r="B1422" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 20:20</t>
+        </is>
+      </c>
+      <c r="C1422" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Carver</t>
+        </is>
+      </c>
+      <c r="D1422" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1422" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 20:30</t>
+        </is>
+      </c>
+      <c r="B1423" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 20:40</t>
+        </is>
+      </c>
+      <c r="C1423" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Carver</t>
+        </is>
+      </c>
+      <c r="D1423" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1423" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 20:40</t>
+        </is>
+      </c>
+      <c r="B1424" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 20:50</t>
+        </is>
+      </c>
+      <c r="C1424" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Carver</t>
+        </is>
+      </c>
+      <c r="D1424" s="3" t="inlineStr">
+        <is>
+          <t>ssfd</t>
+        </is>
+      </c>
+      <c r="E1424" s="3" t="inlineStr">
+        <is>
+          <t>sfdsdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 20:50</t>
+        </is>
+      </c>
+      <c r="B1425" s="3" t="inlineStr">
+        <is>
+          <t>2024-11-20 21:00</t>
+        </is>
+      </c>
+      <c r="C1425" s="3" t="inlineStr">
+        <is>
+          <t>Leer. Carver</t>
+        </is>
+      </c>
+      <c r="D1425" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E1425" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E1257"/>
+  <autoFilter ref="A1:E1425"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>